--- a/definition测试/【1】Tos2PP/output.xlsx
+++ b/definition测试/【1】Tos2PP/output.xlsx
@@ -448,228 +448,225 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Mixpanel's tracking and use of information about the Customer on Mixpanel Sites are governed by the Mixpanel Privacy Statement.&gt;{#type2#,  &lt;Mixpanel  ;  tracking and use  ;  information about the Customer  ;  Mixpanel Sites  ;  governed by the Mixpanel Privacy Statement  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Mixpanel&gt;}
-&lt;Description: The Mixpanel Privacy Statement is available at https://mixpanel.com/legal/privacy-policy/.&gt;{#type1#,  &lt;  The Mixpanel Privacy Statement  ;  is available  ;  at https://mixpanel.com/legal/privacy-policy/  ;  NULL  ;  NULL  ; NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: It is the Customer's responsibility to provide their own privacy statement or notice to their End Users.&gt;{#type1#,  &lt;  Customer  ;  provide  ;  privacy statement or notice  ;  to their End Users  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy statement or notice&gt;}
+          <t xml:space="preserve">&lt;Description: Mixpanel's tracking and use of information about the Customer on Mixpanel Sites are governed by the Mixpanel Privacy Statement.&gt;{#type2#,  &lt;Mixpanel's Privacy Statement  ;  governs  ;  tracking and use of information about the Customer on Mixpanel Sites  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: Mixpanel&gt;}
+&lt;Description: The Mixpanel Privacy Statement is available at https://mixpanel.com/legal/privacy-policy/.&gt;{#type1#,  &lt;  The Mixpanel Privacy Statement  ;    available    ;    NULL  ;  https://mixpanel.com/legal/privacy-policy/  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
+&lt;Description: It is the Customer's obligation to provide their own privacy statement or notice to their End Users.&gt;{#type1#,  &lt;  Customer  ;  provide  ;  privacy statement or notice  ;  to their End Users  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['type2', "Description: Mixpanel's tracking and use of information about the Customer on Mixpanel Sites are governed by the Mixpanel Privacy Statement.", 'Mixpanel  ', '  tracking and use  ', '  information about the Customer  ', '  Mixpanel Sites  ', '  governed by the Mixpanel Privacy Statement  ', '  NULL', 'need to provide a link', 'Third party is: Mixpanel'], ['type1', 'Description: The Mixpanel Privacy Statement is available at https://mixpanel.com/legal/privacy-policy/.', '  The Mixpanel Privacy Statement  ', '  is available  ', '  at https://mixpanel.com/legal/privacy-policy/  ', '  NULL  ', '  NULL  ', ' NULL', 'need a privacy policy'], ['type1', "Description: It is the Customer's responsibility to provide their own privacy statement or notice to their End Users.", '  Customer  ', '  provide  ', '  privacy statement or notice  ', '  to their End Users  ', '  NULL  ', '  NULL', 'need a privacy statement or notice']]</t>
+          <t>[['type2', "Description: Mixpanel's tracking and use of information about the Customer on Mixpanel Sites are governed by the Mixpanel Privacy Statement.", "Mixpanel's Privacy Statement  ", '  governs  ', '  tracking and use of information about the Customer on Mixpanel Sites  ', '  NULL  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: Mixpanel'], ['type1', 'Description: The Mixpanel Privacy Statement is available at https://mixpanel.com/legal/privacy-policy/.', '  The Mixpanel Privacy Statement  ', '    available    ', '    NULL  ', '  https://mixpanel.com/legal/privacy-policy/  ', '  NULL  ', '  NULL', 'NULL'], ['type1', "Description: It is the Customer's obligation to provide their own privacy statement or notice to their End Users.", '  Customer  ', '  provide  ', '  privacy statement or notice  ', '  to their End Users  ', '  NULL  ', '  NULL', 'need a privacy policy']]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The Customer must also ensure compliance with any privacy policies, agreements, or other obligations they have with their end users.&gt;{#type1#,  &lt;  The Customer  ;  ensure compliance  ;  privacy policies, agreements, or other obligations  ;  with their end users  ;  NULL  ;  NULL&gt;  ,  &lt;need to comply with privacy policies, agreements, or other obligations&gt;}
+          <t xml:space="preserve">&lt;Description: The Customer must also ensure compliance with any privacy policies, agreements, or other obligations they have with their end users.&gt;{#type1#,  &lt;  The Customer  ;  ensure compliance  ;  privacy policies, agreements, or other obligations  ;  with their end users  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: The Customer must also ensure compliance with any privacy policies, agreements, or other obligations they have with their end users.', '  The Customer  ', '  ensure compliance  ', '  privacy policies, agreements, or other obligations  ', '  with their end users  ', '  NULL  ', '  NULL', 'need to comply with privacy policies, agreements, or other obligations']]</t>
+          <t>[['type1', 'Description: The Customer must also ensure compliance with any privacy policies, agreements, or other obligations they have with their end users.', '  The Customer  ', '  ensure compliance  ', '  privacy policies, agreements, or other obligations  ', '  with their end users  ', '  NULL  ', '  NULL', 'NULL']]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must have and adhere to an appropriate Privacy Policy that complies with all applicable laws, policies, and regulations regarding the collection of information from Users.&gt;{#type1#,  &lt;  a Privacy Policy  ;  complies  ;  the collection of information from Users    ;  NULL  ;  NULL  ; NULL&gt;  ,  &lt;need a Privacy Policy&gt;}
-&lt;Description: You must post a Privacy Policy that informs Users about your use of cookies, mobile device identifiers, or similar technologies for data collection.&gt;{#type1#,  &lt;  a Privacy Policy  ;  informs Users  ;  your use of cookies, mobile device identifiers, or similar technologies for data collection  ;  NULL  ;  NULL  ; NULL&gt;  ,  &lt;need a Privacy Policy&gt;}
-&lt;Description: You must disclose your use of Google Analytics and how it collects and processes data, which can be done by linking to Google's privacy policy for partners.&gt;{#type2#,  &lt; you  ;  must disclose  ;  your use of Google Analytics and how it collects and processes data  ;  NULL  ;  to inform users  ;  by linking to Google's privacy policy for partners&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Google&gt;}
+          <t xml:space="preserve">&lt;Description: You must have and adhere to an appropriate Privacy Policy that complies with all relevant laws, policies, and regulations regarding the collection of user information.&gt;{#type1#,  &lt;  a Privacy Policy  ;  complies with  ;  all relevant laws, policies, and regulations  ;  regarding the collection of user information  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: Your Privacy Policy must inform users about your use of cookies, mobile device identifiers, or similar technologies for data collection.&gt;{#type1#,  &lt;Your Privacy Policy ; informs users ; your use of cookies, mobile device identifiers, or similar technologies ; for data collection ; NULL ; NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: You must disclose your use of Google Analytics and how it collects and processes data, potentially by linking to Google's privacy policy for partners.&gt;{#type2#,  &lt; you  ;  must disclose  ;  your use of Google Analytics and how it collects and processes data  ;  NULL  ;  potentially by linking to Google's privacy policy for partners  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Google&gt;}
+&lt;Description: You are required to provide clear and comprehensive information about, and obtain consent for, storing and accessing cookies or other information on users' devices where required by law.&gt;{#type1#,  &lt;  You  ;  provide information and obtain consent  ;  storing and accessing cookies or other information  ;  on users' devices  ;  where required by law  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must have and adhere to an appropriate Privacy Policy that complies with all applicable laws, policies, and regulations regarding the collection of information from Users.', '  a Privacy Policy  ', '  complies  ', '  the collection of information from Users    ', '  NULL  ', '  NULL  ', ' NULL', 'need a Privacy Policy'], ['type1', 'Description: You must post a Privacy Policy that informs Users about your use of cookies, mobile device identifiers, or similar technologies for data collection.', '  a Privacy Policy  ', '  informs Users  ', '  your use of cookies, mobile device identifiers, or similar technologies for data collection  ', '  NULL  ', '  NULL  ', ' NULL', 'need a Privacy Policy'], ['type2', "Description: You must disclose your use of Google Analytics and how it collects and processes data, which can be done by linking to Google's privacy policy for partners.", ' you  ', '  must disclose  ', '  your use of Google Analytics and how it collects and processes data  ', '  NULL  ', '  to inform users  ', "  by linking to Google's privacy policy for partners", 'need to provide a link', 'Third party is: Google']]</t>
+          <t>[['type1', 'Description: You must have and adhere to an appropriate Privacy Policy that complies with all relevant laws, policies, and regulations regarding the collection of user information.', '  a Privacy Policy  ', '  complies with  ', '  all relevant laws, policies, and regulations  ', '  regarding the collection of user information  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: Your Privacy Policy must inform users about your use of cookies, mobile device identifiers, or similar technologies for data collection.', 'Your Privacy Policy ', ' informs users ', ' your use of cookies, mobile device identifiers, or similar technologies ', ' for data collection ', ' NULL ', ' NULL', 'need a privacy policy'], ['type2', "Description: You must disclose your use of Google Analytics and how it collects and processes data, potentially by linking to Google's privacy policy for partners.", ' you  ', '  must disclose  ', '  your use of Google Analytics and how it collects and processes data  ', '  NULL  ', "  potentially by linking to Google's privacy policy for partners  ", '  NULL', 'need to provide a link', 'Third party is: Google'], ['type1', "Description: You are required to provide clear and comprehensive information about, and obtain consent for, storing and accessing cookies or other information on users' devices where required by law.", '  You  ', '  provide information and obtain consent  ', '  storing and accessing cookies or other information  ', "  on users' devices  ", '  where required by law  ', '  NULL', 'need a privacy policy']]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: If End Users provide You with, or You gather or access End User Information, You must inform the End Users that certain information will be available to You.&gt;{#type1#,  &lt;You  ;  inform  ;  certain information will be available to You  ;  End Users  ;  NULL  ;  If End Users provide You with, or You gather or access End User Information&gt;  ,  &lt;need to inform End Users&gt;}
-&lt;Description: You must provide a legally adequate privacy notice to End Users regarding the End User Information that will be available to You.&gt;{#type1#,  &lt;  a legally adequate privacy notice  ;  regarding  ;  End User Information    ;  available to You  ;  NULL  ; NULL&gt;  ,  &lt;need a legally adequate privacy notice&gt;}
-&lt;Description: You must obtain the End User鈥檚 permission to gather and use End User Information.&gt;{#type1#,  &lt;  You  ;  obtain  ;  permission  ;  to gather and use End User Information  ;  from End User  ;  NULL  ;  NULL&gt;  ,  &lt;need permission&gt;}
+          <t xml:space="preserve">&lt;Description: If End Users provide You with, or You gather or access End User Information, You must inform the End Users that certain information will be available to You.&gt;{#type1#,  &lt;  You  ;  inform  ;  certain information will be available to You  ;  End Users  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: You must provide a legally adequate privacy notice to End Users regarding the End User Information.&gt;{#type1#,  &lt;  a legally adequate privacy notice  ;  provide  ;  End User Information  ;  to End Users  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: You must obtain the End User鈥檚 permission to gather and use End User Information.&gt;{#type1#,  &lt;  You  ;  obtain  ;  End User's permission  ;  NULL  ;  to gather and use End User Information  ;  NULL&gt;  ,  &lt;NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: If End Users provide You with, or You gather or access End User Information, You must inform the End Users that certain information will be available to You.', 'You  ', '  inform  ', '  certain information will be available to You  ', '  End Users  ', '  NULL  ', '  If End Users provide You with, or You gather or access End User Information', 'need to inform End Users'], ['type1', 'Description: You must provide a legally adequate privacy notice to End Users regarding the End User Information that will be available to You.', '  a legally adequate privacy notice  ', '  regarding  ', '  End User Information    ', '  available to You  ', '  NULL  ', ' NULL', 'need a legally adequate privacy notice'], ['type1', 'Description: You must obtain the End User鈥檚 permission to gather and use End User Information.', '  You  ', '  obtain  ', '  permission  ', '  to gather and use End User Information  ', '  from End User  ', '  NULL  ', '  NULL', 'need permission']]</t>
+          <t>[['type1', 'Description: If End Users provide You with, or You gather or access End User Information, You must inform the End Users that certain information will be available to You.', '  You  ', '  inform  ', '  certain information will be available to You  ', '  End Users  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: You must provide a legally adequate privacy notice to End Users regarding the End User Information.', '  a legally adequate privacy notice  ', '  provide  ', '  End User Information  ', '  to End Users  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: You must obtain the End User鈥檚 permission to gather and use End User Information.', '  You  ', '  obtain  ', "  End User's permission  ", '  NULL  ', '  to gather and use End User Information  ', '  NULL', 'NULL']]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must adhere to a privacy policy that complies with all applicable laws and industry standards.&gt;{#type1#,  &lt;a privacy policy  ;  complies  ;  all applicable laws and industry standards  ;  NULL  ;  NULL  ; NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: You must post a privacy policy clearly and conspicuously within your application, in any store, and on any website where the application may be acquired.&gt;{#type1#,  &lt;  a privacy policy  ;  post  ;  clearly and conspicuously  ;  within your application, in any store, and on any website  ;  NULL  ;  where the application may be acquired&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: You must adhere to a privacy policy that complies with all applicable laws and industry standards.&gt;{#type1#,  &lt;  a privacy policy  ;  complies with  ;  all applicable laws and industry standards  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: You must post a privacy policy clearly and conspicuously within your application, in any store, and on any website where the application may be acquired.&gt;{#type1#,  &lt;  a privacy policy  ;  post  ;  clearly and conspicuously  ;  within your application, in any store, and on any website  ;  where the application may be acquired  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
 &lt;Description: The privacy policy must contain a link to Flurry鈥檚 Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry鈥檚 use of User Data.&gt;{#type2#,  &lt; your privacy policy  ;  must contain  ;  a link to Flurry's Privacy Policy  ;  NULL  ;  to describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Flurry&gt;}
-&lt;Description: The privacy policy must include advice on how users can opt-out of targeted advertising on a device-by-device basis by enabling 'Limit Ad Tracking' and provide active links to Flurry鈥檚 Privacy Dashboard and other relevant opt-out resources.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
+&lt;Description: The privacy policy must include a statement advising users on how to opt-out of targeted ads on a device by device basis and provide active links to opt-out resources.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must adhere to a privacy policy that complies with all applicable laws and industry standards.', 'a privacy policy  ', '  complies  ', '  all applicable laws and industry standards  ', '  NULL  ', '  NULL  ', ' NULL', 'need a privacy policy'], ['type1', 'Description: You must post a privacy policy clearly and conspicuously within your application, in any store, and on any website where the application may be acquired.', '  a privacy policy  ', '  post  ', '  clearly and conspicuously  ', '  within your application, in any store, and on any website  ', '  NULL  ', '  where the application may be acquired', 'need a privacy policy'], ['type2', 'Description: The privacy policy must contain a link to Flurry鈥檚 Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry鈥檚 use of User Data.', ' your privacy policy  ', '  must contain  ', "  a link to Flurry's Privacy Policy  ", '  NULL  ', "  to describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data  ", '  NULL', 'need to provide a link', 'Third party is: Flurry'], ['type3-Q1', "Description: The privacy policy must include advice on how users can opt-out of targeted advertising on a device-by-device basis by enabling 'Limit Ad Tracking' and provide active links to Flurry鈥檚 Privacy Dashboard and other relevant opt-out resources.", 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
+          <t>[['type1', 'Description: You must adhere to a privacy policy that complies with all applicable laws and industry standards.', '  a privacy policy  ', '  complies with  ', '  all applicable laws and industry standards  ', '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: You must post a privacy policy clearly and conspicuously within your application, in any store, and on any website where the application may be acquired.', '  a privacy policy  ', '  post  ', '  clearly and conspicuously  ', '  within your application, in any store, and on any website  ', '  where the application may be acquired  ', '  NULL', 'need a privacy policy'], ['type2', 'Description: The privacy policy must contain a link to Flurry鈥檚 Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry鈥檚 use of User Data.', ' your privacy policy  ', '  must contain  ', "  a link to Flurry's Privacy Policy  ", '  NULL  ', "  to describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data  ", '  NULL', 'need to provide a link', 'Third party is: Flurry'], ['type3-Q1', 'Description: The privacy policy must include a statement advising users on how to opt-out of targeted ads on a device by device basis and provide active links to opt-out resources.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Licensee is responsible for obtaining necessary consents to allow OneSignal to collect information from End Users' devices or browsers.&gt;{#type1#,  &lt;Licensee  ;  obtaining  ;  necessary consents  ;  to allow OneSignal to collect information  ;  from End Users' devices or browsers  ;  NULL  ;  NULL&gt;  ,  &lt;need to obtain necessary consents&gt;}
-&lt;Description: Licensee must publish privacy policies and disclosures for the Properties that are in compliance with applicable laws and the terms of this EULA.&gt;{#type1#,  &lt;Licensee  ;  publish  ;  privacy policies and disclosures  ;  for the Properties  ;  in compliance with applicable laws and the terms of this EULA  ;  NULL&gt;  ,  &lt;need to publish privacy policies and disclosures&gt;}
-&lt;Description: The privacy policies must clearly disclose that SDK Information will be collected and explain how it will be used, as detailed in Section 5 of the EULA.&gt;{#type2#, &lt;The privacy policies ; must clearly disclose ; that SDK Information will be collected and explain how it will be used ; NULL ; to comply with Section 5 of the EULA ; NULL&gt;, &lt;need to provide a link&gt;, &lt;Third party is: NULL&gt;}
+          <t xml:space="preserve">&lt;Description: Licensee is responsible for obtaining necessary consents to allow OneSignal to collect information from End Users' devices or browsers.&gt;{#type1#,  &lt;  Licensee  ;  obtaining necessary consents  ;  allow OneSignal to collect information  ;  from End Users' devices or browsers  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
+&lt;Description: Licensee must publish privacy policies and disclosures for the Properties that are in compliance with applicable laws and the terms of this EULA.&gt;{#type1#,  &lt;  Licensee  ;  publish  ;  privacy policies and disclosures  ;  for the Properties  ;  in compliance with applicable laws and the terms of this EULA  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: The privacy policies must clearly disclose the collection of SDK Information and its intended use, as detailed in Section 5 of the EULA.&gt;{#type1#, &lt;The privacy policies ; must disclose ; the collection of SDK Information and its intended use ; NULL ; as detailed in Section 5 of the EULA ; NULL&gt;, &lt;NO link&gt;, &lt;Third party is: NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[['type1', "Description: Licensee is responsible for obtaining necessary consents to allow OneSignal to collect information from End Users' devices or browsers.", 'Licensee  ', '  obtaining  ', '  necessary consents  ', '  to allow OneSignal to collect information  ', "  from End Users' devices or browsers  ", '  NULL  ', '  NULL', 'need to obtain necessary consents'], ['type1', 'Description: Licensee must publish privacy policies and disclosures for the Properties that are in compliance with applicable laws and the terms of this EULA.', 'Licensee  ', '  publish  ', '  privacy policies and disclosures  ', '  for the Properties  ', '  in compliance with applicable laws and the terms of this EULA  ', '  NULL', 'need to publish privacy policies and disclosures'], ['type2', 'Description: The privacy policies must clearly disclose that SDK Information will be collected and explain how it will be used, as detailed in Section 5 of the EULA.', 'The privacy policies ', ' must clearly disclose ', ' that SDK Information will be collected and explain how it will be used ', ' NULL ', ' to comply with Section 5 of the EULA ', ' NULL', 'need to provide a link', 'Third party is: NULL']]</t>
+          <t>[['type1', "Description: Licensee is responsible for obtaining necessary consents to allow OneSignal to collect information from End Users' devices or browsers.", '  Licensee  ', '  obtaining necessary consents  ', '  allow OneSignal to collect information  ', "  from End Users' devices or browsers  ", '  NULL  ', '  NULL', 'NULL'], ['type1', 'Description: Licensee must publish privacy policies and disclosures for the Properties that are in compliance with applicable laws and the terms of this EULA.', '  Licensee  ', '  publish  ', '  privacy policies and disclosures  ', '  for the Properties  ', '  in compliance with applicable laws and the terms of this EULA  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policies must clearly disclose the collection of SDK Information and its intended use, as detailed in Section 5 of the EULA.', 'The privacy policies ', ' must disclose ', ' the collection of SDK Information and its intended use ', ' NULL ', ' as detailed in Section 5 of the EULA ', ' NULL', 'NO link', 'Third party is: NULL']]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Each party is required to have a privacy policy posted on their website.&gt;{#type1#,  &lt;Each party  ;  have  ;  a privacy policy  ;  on their website  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must describe the collection, use, and sharing of information.&gt;{#type1#,  &lt;  a privacy policy  ;  describe  ;  the collection, use, and sharing of information  ;  NULL  ;  NULL  ; NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: Each party is required to maintain a privacy policy on their website.&gt;{#type1#,  &lt;Each party  ;  maintain  ;  a privacy policy  ;  on their website  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
 &lt;Description: The privacy policy must provide details on how End Users can opt out of interest-based advertising, such as online behavioral or mobile cross-app advertising.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Each party is required to have a privacy policy posted on their website.', 'Each party  ', '  have  ', '  a privacy policy  ', '  on their website  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policy must describe the collection, use, and sharing of information.', '  a privacy policy  ', '  describe  ', '  the collection, use, and sharing of information  ', '  NULL  ', '  NULL  ', ' NULL', 'need a privacy policy'], ['type3-Q1', 'Description: The privacy policy must provide details on how End Users can opt out of interest-based advertising, such as online behavioral or mobile cross-app advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
+          <t>[['type1', 'Description: Each party is required to maintain a privacy policy on their website.', 'Each party  ', '  maintain  ', '  a privacy policy  ', '  on their website  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type3-Q1', 'Description: The privacy policy must provide details on how End Users can opt out of interest-based advertising, such as online behavioral or mobile cross-app advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The privacy notice or privacy policy must be made accessible to the Business User.&gt;{#type1#,  &lt;  a privacy notice or privacy policy  ;  must be made accessible  ;  to the Business User  ;  NULL  ;  NULL  ; NULL&gt;  ,  &lt;need a privacy notice or privacy policy&gt;}
-&lt;Description: The privacy notice or privacy policy should be available through a link in the Stripe App listing within the Stripe Apps Marketplace.&gt;{#type1#,  &lt;  a privacy notice or privacy policy  ;  should be available  ;  through a link  ;  in the Stripe App listing  ;  within the Stripe Apps Marketplace  ;  NULL&gt;  ,  &lt;need a privacy notice or privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: Ensure that the privacy notice or privacy policy for the Stripe Application is easily accessible to the Business User.&gt;{#type1#,  &lt;  a privacy notice or privacy policy  ;  is accessible  ;  the Stripe Application  ;  to the Business User  ;  NULL  ;  easily&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: Include a link to the privacy notice or privacy policy in the Stripe Application's listing within the Stripe Apps Marketplace.&gt;{#type1#,  &lt;  the Stripe Application's listing  ;  include  ;  a link to the privacy notice or privacy policy  ;  within the Stripe Apps Marketplace  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: The privacy notice or privacy policy must be made accessible to the Business User.', '  a privacy notice or privacy policy  ', '  must be made accessible  ', '  to the Business User  ', '  NULL  ', '  NULL  ', ' NULL', 'need a privacy notice or privacy policy'], ['type1', 'Description: The privacy notice or privacy policy should be available through a link in the Stripe App listing within the Stripe Apps Marketplace.', '  a privacy notice or privacy policy  ', '  should be available  ', '  through a link  ', '  in the Stripe App listing  ', '  within the Stripe Apps Marketplace  ', '  NULL', 'need a privacy notice or privacy policy']]</t>
+          <t>[['type1', 'Description: Ensure that the privacy notice or privacy policy for the Stripe Application is easily accessible to the Business User.', '  a privacy notice or privacy policy  ', '  is accessible  ', '  the Stripe Application  ', '  to the Business User  ', '  NULL  ', '  easily', 'need a privacy policy'], ['type1', "Description: Include a link to the privacy notice or privacy policy in the Stripe Application's listing within the Stripe Apps Marketplace.", "  the Stripe Application's listing  ", '  include  ', '  a link to the privacy notice or privacy policy  ', '  within the Stripe Apps Marketplace  ', '  NULL  ', '  NULL', 'need a privacy policy']]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Customer must make all necessary disclosures to their users.&gt;{#type1#, &lt;Customer ; make ; all necessary disclosures ; to their users ; NULL ; NULL&gt;, &lt;need to make all necessary disclosures&gt;}
-&lt;Description: Customer must obtain all necessary consents and authorizations from their users for RevenueCat to perform the Services.&gt;{#type1#,  &lt;  Customer  ;  obtain  ;  all necessary consents and authorizations  ;  from their users  ;  for RevenueCat to perform the Services  ;  NULL&gt;  ,  &lt;need to obtain consents and authorizations&gt;}
-&lt;Description: This includes RevenueCat's and Stripe's processing of personally identifiable information of the users.&gt;{#type2#,  &lt;RevenueCat and Stripe ;  processing  ;  personally identifiable information of the users  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Stripe&gt;}
-&lt;Description: Customer must disclose RevenueCat's and Stripe's processing of such information in their privacy policy in a reasonable and industry-standard manner.&gt;{#type2#,  &lt; Customer's privacy policy  ;  must disclose  ;  RevenueCat's and Stripe's processing of such information  ;  NULL  ;  in a reasonable and industry-standard manner  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: RevenueCat and Stripe&gt;}
+          <t xml:space="preserve">&lt;Description: Customer is responsible for making all necessary disclosures to their users and obtaining the required consents and authorizations for RevenueCat to perform the Services.&gt;{#type1#,  &lt;  Customer  ;  making all necessary disclosures  ;  required consents and authorizations  ;  to their users  ;  for RevenueCat to perform the Services  ;  NULL&gt;  ,  &lt;NULL&gt;}
+&lt;Description: This includes RevenueCat's and Stripe's processing of personally identifiable information of the users, which must be disclosed in Customer's privacy policy.&gt;{#type2#,  &lt; Customer's privacy policy  ;  must disclose  ;  RevenueCat's and Stripe's processing of personally identifiable information of the users  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: RevenueCat and Stripe&gt;}
+&lt;Description: The disclosure should be made in a reasonable and industry-standard manner within the Customer's privacy policy.&gt;{#type1#,  &lt;  The disclosure  ;  should be made  ;  a reasonable and industry-standard manner  ;  within the Customer's privacy policy  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Customer must make all necessary disclosures to their users.', 'Customer ', ' make ', ' all necessary disclosures ', ' to their users ', ' NULL ', ' NULL', 'need to make all necessary disclosures'], ['type1', 'Description: Customer must obtain all necessary consents and authorizations from their users for RevenueCat to perform the Services.', '  Customer  ', '  obtain  ', '  all necessary consents and authorizations  ', '  from their users  ', '  for RevenueCat to perform the Services  ', '  NULL', 'need to obtain consents and authorizations'], ['type2', "Description: This includes RevenueCat's and Stripe's processing of personally identifiable information of the users.", 'RevenueCat and Stripe ', '  processing  ', '  personally identifiable information of the users  ', '  NULL  ', '  NULL  ', '  NULL', 'need to provide a link', 'Third party is: Stripe'], ['type2', "Description: Customer must disclose RevenueCat's and Stripe's processing of such information in their privacy policy in a reasonable and industry-standard manner.", " Customer's privacy policy  ", '  must disclose  ', "  RevenueCat's and Stripe's processing of such information  ", '  NULL  ', '  in a reasonable and industry-standard manner  ', '  NULL', 'need to provide a link', 'Third party is: RevenueCat and Stripe']]</t>
+          <t>[['type1', 'Description: Customer is responsible for making all necessary disclosures to their users and obtaining the required consents and authorizations for RevenueCat to perform the Services.', '  Customer  ', '  making all necessary disclosures  ', '  required consents and authorizations  ', '  to their users  ', '  for RevenueCat to perform the Services  ', '  NULL', 'NULL'], ['type2', "Description: This includes RevenueCat's and Stripe's processing of personally identifiable information of the users, which must be disclosed in Customer's privacy policy.", " Customer's privacy policy  ", '  must disclose  ', "  RevenueCat's and Stripe's processing of personally identifiable information of the users  ", '  NULL  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: RevenueCat and Stripe'], ['type1', "Description: The disclosure should be made in a reasonable and industry-standard manner within the Customer's privacy policy.", '  The disclosure  ', '  should be made  ', '  a reasonable and industry-standard manner  ', "  within the Customer's privacy policy  ", '  NULL  ', '  NULL', 'need a privacy policy']]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Display the service's privacy policy to users before they download, install, or sign up for the service.&gt;{#type1#,  &lt;  the service's privacy policy  ;  display  ;  to users  ;  before they download, install, or sign up for the service  ;  NULL  ;  NULL&gt;  ,  &lt;need to display privacy policy&gt;}
-&lt;Description: The privacy policy must include information about the data collected from users, how it is used and shared (including with X), and how users can contact the service regarding their information.&gt;{#type2#,  &lt; your privacy policy  ;  must include  ;  information about the data collected from users, how it is used and shared (including with X), and how users can contact the service regarding their information  ;  share that data with X  ;  NULL  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: X&gt;}
+          <t xml:space="preserve">&lt;Description: Display the service's privacy policy before allowing users to download, install, or sign up for the service.&gt;{#type1#, &lt;service's privacy policy; display; before allowing users to download, install, or sign up for the service; NULL; NULL; NULL&gt;, &lt;need a privacy policy&gt;}
+&lt;Description: The privacy policy must include the information collected from users, how it is used and shared (including with X), and contact details for inquiries about their information.&gt;{#type2#,  &lt; privacy policy  ;  must include  ;  information collected from users, how it is used and shared (including with X), contact details  ;  shared with X  ;  for inquiries about their information  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: X&gt;}
 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[['type1', "Description: Display the service's privacy policy to users before they download, install, or sign up for the service.", "  the service's privacy policy  ", '  display  ', '  to users  ', '  before they download, install, or sign up for the service  ', '  NULL  ', '  NULL', 'need to display privacy policy'], ['type2', 'Description: The privacy policy must include information about the data collected from users, how it is used and shared (including with X), and how users can contact the service regarding their information.', ' your privacy policy  ', '  must include  ', '  information about the data collected from users, how it is used and shared (including with X), and how users can contact the service regarding their information  ', '  share that data with X  ', '  NULL  ', '  NULL', 'need to provide a link', 'Third party is: X']]</t>
+          <t>[['type1', "Description: Display the service's privacy policy before allowing users to download, install, or sign up for the service.", "service's privacy policy", ' display', ' before allowing users to download, install, or sign up for the service', ' NULL', ' NULL', ' NULL', 'need a privacy policy'], ['type2', 'Description: The privacy policy must include the information collected from users, how it is used and shared (including with X), and contact details for inquiries about their information.', ' privacy policy  ', '  must include  ', '  information collected from users, how it is used and shared (including with X), contact details  ', '  shared with X  ', '  for inquiries about their information  ', '  NULL', 'NO link', 'Third party is: X']]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Developers are required to make privacy policies related to the Relevant Service easily accessible at all times, including before and after a user begins to use the service.&gt;{#type1#,  &lt;Developers  ;  make privacy policies  ;  easily accessible  ;  before and after a user begins to use the service  ;  NULL  ;  NULL&gt;  ,  &lt;Developers are required to make privacy policies related to the Relevant Service easily accessible at all times&gt;}
+          <t xml:space="preserve">&lt;Description: Developers must ensure that privacy policies related to the Relevant Service are easily accessible at all times, including before and after a user begins to use the service.&gt;{#type1#,  &lt;Developers ; ensure ; privacy policies related to the Relevant Service ; easily accessible at all times, including before and after a user begins to use the service ; NULL ; NULL&gt;  ,  &lt;need a privacy policy&gt;}
 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Developers are required to make privacy policies related to the Relevant Service easily accessible at all times, including before and after a user begins to use the service.', 'Developers  ', '  make privacy policies  ', '  easily accessible  ', '  before and after a user begins to use the service  ', '  NULL  ', '  NULL', 'Developers are required to make privacy policies related to the Relevant Service easily accessible at all times']]</t>
+          <t>[['type1', 'Description: Developers must ensure that privacy policies related to the Relevant Service are easily accessible at all times, including before and after a user begins to use the service.', 'Developers ', ' ensure ', ' privacy policies related to the Relevant Service ', ' easily accessible at all times, including before and after a user begins to use the service ', ' NULL ', ' NULL', 'need a privacy policy']]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Your application or service must collect, store, process, or use end user data in compliance with the specified requirements.&gt;{#type1#,  &lt;Your application or service ; collects, stores, processes, uses ; end user data ; NULL ; NULL ; in compliance with the specified requirements&gt;  ,  &lt;need to comply with requirements&gt;}
-&lt;Description: You must have a privacy policy that clearly informs end users about the personal data collected and how it is used and shared, including for advertising purposes, with WeChat or Weixin and other third parties.&gt;{#type2#,  &lt; your privacy policy  ;  must inform  ;  personal data collected and how it is used and shared  ;  with WeChat or Weixin and other third parties  ;  for advertising purposes  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: WeChat or Weixin and other third parties&gt;}
-&lt;Description: The privacy policy must comply with and be consistent with the terms and requirements of the Agreement and the WeChat or Weixin Privacy Policy.&gt;{#type1#,  &lt;  The privacy policy  ;  comply with and be consistent with  ;  the terms and requirements of the Agreement and the WeChat or Weixin Privacy Policy  ;  NULL  ;  NULL  ; NULL&gt;  ,  &lt;need to comply with and be consistent&gt;}
+          <t xml:space="preserve">&lt;Description: You must have a privacy policy that clearly informs end users about the personal data collected and how it is used and shared, including for advertising purposes, with WeChat or Weixin and other third parties.&gt;{#type2#,  &lt; you  ;  must have  ;  a privacy policy  ;  NULL  ;  to clearly inform end users about the personal data collected and how it is used and shared  ;  including for advertising purposes, with WeChat or Weixin and other third parties&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: WeChat or Weixin and other third parties&gt;}
+&lt;Description: The privacy policy must comply with and be consistent with the terms and requirements of the Agreement and the WeChat or Weixin Privacy Policy.&gt;{#type1#,  &lt;  The privacy policy  ;   comply with and be consistent with   ;    the terms and requirements of the Agreement and the WeChat or Weixin Privacy Policy  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Your application or service must collect, store, process, or use end user data in compliance with the specified requirements.', 'Your application or service ', ' collects, stores, processes, uses ', ' end user data ', ' NULL ', ' NULL ', ' in compliance with the specified requirements', 'need to comply with requirements'], ['type2', 'Description: You must have a privacy policy that clearly informs end users about the personal data collected and how it is used and shared, including for advertising purposes, with WeChat or Weixin and other third parties.', ' your privacy policy  ', '  must inform  ', '  personal data collected and how it is used and shared  ', '  with WeChat or Weixin and other third parties  ', '  for advertising purposes  ', '  NULL', 'need to provide a link', 'Third party is: WeChat or Weixin and other third parties'], ['type1', 'Description: The privacy policy must comply with and be consistent with the terms and requirements of the Agreement and the WeChat or Weixin Privacy Policy.', '  The privacy policy  ', '  comply with and be consistent with  ', '  the terms and requirements of the Agreement and the WeChat or Weixin Privacy Policy  ', '  NULL  ', '  NULL  ', ' NULL', 'need to comply with and be consistent']]</t>
+          <t>[['type2', 'Description: You must have a privacy policy that clearly informs end users about the personal data collected and how it is used and shared, including for advertising purposes, with WeChat or Weixin and other third parties.', ' you  ', '  must have  ', '  a privacy policy  ', '  NULL  ', '  to clearly inform end users about the personal data collected and how it is used and shared  ', '  including for advertising purposes, with WeChat or Weixin and other third parties', 'NO link', 'Third party is: WeChat or Weixin and other third parties'], ['type1', 'Description: The privacy policy must comply with and be consistent with the terms and requirements of the Agreement and the WeChat or Weixin Privacy Policy.', '  The privacy policy  ', '   comply with and be consistent with   ', '    the terms and requirements of the Agreement and the WeChat or Weixin Privacy Policy  ', '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy']]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: If using the Platform to process Platform Data, a privacy policy must be provided and must be publicly available and easily accessible.&gt;{#type1#,  &lt;a privacy policy ; must be provided and made available ; Platform Data ; using the Platform ; NULL ; NULL&gt;  ,  &lt;must be publicly available and easily accessible&gt;}
-&lt;Description: Publicly available links to the privacy policies must be maintained in the privacy policy field in the App Dashboard settings and in any applicable App Store.&gt;{#type1#,  &lt;  Publicly available links  ;  must be maintained  ;  privacy policies  ;  in the privacy policy field in the App Dashboard settings and in any applicable App Store  ;  NULL  ;  NULL&gt;  ,  &lt;need to maintain publicly available links&gt;}
-&lt;Description: Ensure that the links to privacy policies remain current and up to date.&gt;{#type1#,  &lt;  privacy policies  ;  remain  ;  current and up to date    ;  NULL  ;  NULL  ; NULL&gt;  ,  &lt;links to privacy policies need to be current and up to date&gt;}
+          <t xml:space="preserve">&lt;Description: If using the Platform to process Platform Data, a privacy policy must be provided and made publicly available and easily accessible.&gt;{#type1#,  &lt;  a privacy policy  ;  must be provided and made  ;  publicly available and easily accessible  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: Publicly available links to the privacy policy must be maintained in the privacy policy field in the App Dashboard settings and in any applicable App Store.&gt;{#type1#,  &lt;  Publicly available links  ;  must be maintained  ;  the privacy policy  ;  in the privacy policy field in the App Dashboard settings and in any applicable App Store  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: Ensure that the links to the privacy policy remain current and up to date.&gt;{#type1#,  &lt;  The privacy policy  ;    Ensure    ;    links to the privacy policy remain current and up to date    ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: If using the Platform to process Platform Data, a privacy policy must be provided and must be publicly available and easily accessible.', 'a privacy policy ', ' must be provided and made available ', ' Platform Data ', ' using the Platform ', ' NULL ', ' NULL', 'must be publicly available and easily accessible'], ['type1', 'Description: Publicly available links to the privacy policies must be maintained in the privacy policy field in the App Dashboard settings and in any applicable App Store.', '  Publicly available links  ', '  must be maintained  ', '  privacy policies  ', '  in the privacy policy field in the App Dashboard settings and in any applicable App Store  ', '  NULL  ', '  NULL', 'need to maintain publicly available links'], ['type1', 'Description: Ensure that the links to privacy policies remain current and up to date.', '  privacy policies  ', '  remain  ', '  current and up to date    ', '  NULL  ', '  NULL  ', ' NULL', 'links to privacy policies need to be current and up to date']]</t>
+          <t>[['type1', 'Description: If using the Platform to process Platform Data, a privacy policy must be provided and made publicly available and easily accessible.', '  a privacy policy  ', '  must be provided and made  ', '  publicly available and easily accessible  ', '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: Publicly available links to the privacy policy must be maintained in the privacy policy field in the App Dashboard settings and in any applicable App Store.', '  Publicly available links  ', '  must be maintained  ', '  the privacy policy  ', '  in the privacy policy field in the App Dashboard settings and in any applicable App Store  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: Ensure that the links to the privacy policy remain current and up to date.', '  The privacy policy  ', '    Ensure    ', '    links to the privacy policy remain current and up to date    ', '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy']]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The developer must provide a full and accurate disclosure to the End Users regarding the privacy practices and policies applicable to the Application.&gt;{#type1#,  &lt;  The developer  ;  provides  ;  a full and accurate disclosure  ;  regarding the privacy practices and policies  ;  applicable to the Application  ;  NULL&gt;  ,  &lt;need to provide disclosure&gt;}
+          <t xml:space="preserve">&lt;Description: The developer must provide a full and accurate disclosure to their End Users regarding the privacy practices and policies applicable to the Application.&gt;{#type1#,  &lt;  The developer  ;  provide  ;  a full and accurate disclosure  ;  to their End Users  ;  regarding the privacy practices and policies applicable to the Application  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: The developer must provide a full and accurate disclosure to the End Users regarding the privacy practices and policies applicable to the Application.', '  The developer  ', '  provides  ', '  a full and accurate disclosure  ', '  regarding the privacy practices and policies  ', '  applicable to the Application  ', '  NULL', 'need to provide disclosure']]</t>
+          <t>[['type1', 'Description: The developer must provide a full and accurate disclosure to their End Users regarding the privacy practices and policies applicable to the Application.', '  The developer  ', '  provide  ', '  a full and accurate disclosure  ', '  to their End Users  ', '  regarding the privacy practices and policies applicable to the Application  ', '  NULL', 'need a privacy policy']]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must have a privacy policy for your Application that is easily accessible and linked from the Application.&gt;{#type1#,  &lt;  a privacy policy  ;  is  ;  easily accessible and linked  ;  from the Application  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: Your privacy policy should incorporate by reference and link to the Snap Privacy Policy.&gt;{#type2#,  &lt; your privacy policy  ;  should incorporate by reference and link   ;  the Snap Privacy Policy  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Snap&gt;}
-&lt;Description: The privacy policy must clearly and accurately describe to users what user information is accessed, collected, and stored by you and your Application.&gt;{#type1#,  &lt;  a privacy policy  ;  describe to users  ;  what user information is accessed, collected, and stored  ;  by you and your Application  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The policy should also explain how and why you and your Application use, process, and share that information with Snap and other third parties.&gt;{#type2#, &lt;your policy ; should explain ; how and why you and your Application use, process, and share information ; with Snap and other third parties ; to explain the use of information ; NULL&gt;, &lt;need to provide a link&gt;, &lt;Third party is: Snap and other third parties&gt;}
+          <t xml:space="preserve">&lt;Description: You must provide a privacy policy for your Application that is easily accessible and linked from the Application.&gt;{#type1#,  &lt;  a privacy policy  ;  provide  ;  your Application  ;  easily accessible and linked from the Application  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: The privacy policy must incorporate by reference and link to the Snap Privacy Policy.&gt;{#type2#,  &lt; your privacy policy  ;  must incorporate by reference and link  ;  the Snap Privacy Policy  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Snap&gt;}
+&lt;Description: The privacy policy must explain how and why the Application uses, processes, and shares user information with Snap and other third parties.&gt;{#type2#,  &lt; The privacy policy  ;  must explain  ;  how and why the Application uses, processes, and shares user information  ;  with Snap and other third parties  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: Snap&gt;}
 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must have a privacy policy for your Application that is easily accessible and linked from the Application.', '  a privacy policy  ', '  is  ', '  easily accessible and linked  ', '  from the Application  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type2', 'Description: Your privacy policy should incorporate by reference and link to the Snap Privacy Policy.', ' your privacy policy  ', '  should incorporate by reference and link   ', '  the Snap Privacy Policy  ', '  NULL  ', '  NULL  ', '  NULL', 'need to provide a link', 'Third party is: Snap'], ['type1', 'Description: The privacy policy must clearly and accurately describe to users what user information is accessed, collected, and stored by you and your Application.', '  a privacy policy  ', '  describe to users  ', '  what user information is accessed, collected, and stored  ', '  by you and your Application  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type2', 'Description: The policy should also explain how and why you and your Application use, process, and share that information with Snap and other third parties.', 'your policy ', ' should explain ', ' how and why you and your Application use, process, and share information ', ' with Snap and other third parties ', ' to explain the use of information ', ' NULL', 'need to provide a link', 'Third party is: Snap and other third parties']]</t>
+          <t>[['type1', 'Description: You must provide a privacy policy for your Application that is easily accessible and linked from the Application.', '  a privacy policy  ', '  provide  ', '  your Application  ', '  easily accessible and linked from the Application  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type2', 'Description: The privacy policy must incorporate by reference and link to the Snap Privacy Policy.', ' your privacy policy  ', '  must incorporate by reference and link  ', '  the Snap Privacy Policy  ', '  NULL  ', '  NULL  ', '  NULL', 'need to provide a link', 'Third party is: Snap'], ['type2', 'Description: The privacy policy must explain how and why the Application uses, processes, and shares user information with Snap and other third parties.', ' The privacy policy  ', '  must explain  ', '  how and why the Application uses, processes, and shares user information  ', '  with Snap and other third parties  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: Snap']]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The privacy policy must explain the use, collection, and sharing of mobile device advertising identifiers and other personal information by the company and its third-party service providers, vendors, or partners, such as Tapjoy.&gt;{#type2#,  &lt; the privacy policy  ;  must explain  ;  the use, collection, and sharing of mobile device advertising identifiers and other personal information  ;  by the company and its third-party service providers, vendors, or partners  ;  to inform users about data handling practices  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Tapjoy&gt;}
-&lt;Description: The privacy policy must cover the use of personal information for behaviorally targeted online advertising.&gt;{#type1#,  &lt;  a privacy policy  ;  cover  ;  the use of personal information  ;  for behaviorally targeted online advertising  ;  NULL  ;  NULL&gt;  ,  &lt;must cover the use of personal information for behaviorally targeted online advertising&gt;}
+          <t xml:space="preserve">&lt;Description: The privacy policy must explain the use, collection, and sharing of mobile device advertising identifiers and other personal information by the company and its third-party service providers, vendors, or partners, such as Tapjoy.&gt;{#type2#,  &lt; The privacy policy  ;  must explain  ;  the use, collection, and sharing of mobile device advertising identifiers and other personal information  ;  by the company and its third-party service providers, vendors, or partners  ;  such as Tapjoy  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: Tapjoy&gt;}
+&lt;Description: The privacy policy must cover the use of personal information for behaviorally targeted online advertising.&gt;{#type1#,  &lt;  a privacy policy  ;  cover  ;  the use of personal information  ;  for behaviorally targeted online advertising  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
 &lt;Description: The privacy policy must include an opt-out link that directs users to an industry-recognized platform for opting out of online behavioral advertising.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
 &lt;Description: The privacy policy must provide California users with the ability to opt-out from the sale of their personal information.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
 </t>
@@ -677,189 +674,185 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: The privacy policy must explain the use, collection, and sharing of mobile device advertising identifiers and other personal information by the company and its third-party service providers, vendors, or partners, such as Tapjoy.', ' the privacy policy  ', '  must explain  ', '  the use, collection, and sharing of mobile device advertising identifiers and other personal information  ', '  by the company and its third-party service providers, vendors, or partners  ', '  to inform users about data handling practices  ', '  NULL', 'need to provide a link', 'Third party is: Tapjoy'], ['type1', 'Description: The privacy policy must cover the use of personal information for behaviorally targeted online advertising.', '  a privacy policy  ', '  cover  ', '  the use of personal information  ', '  for behaviorally targeted online advertising  ', '  NULL  ', '  NULL', 'must cover the use of personal information for behaviorally targeted online advertising'], ['type3-Q1', 'Description: The privacy policy must include an opt-out link that directs users to an industry-recognized platform for opting out of online behavioral advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out'], ['type3-Q1', 'Description: The privacy policy must provide California users with the ability to opt-out from the sale of their personal information.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
+          <t>[['type2', 'Description: The privacy policy must explain the use, collection, and sharing of mobile device advertising identifiers and other personal information by the company and its third-party service providers, vendors, or partners, such as Tapjoy.', ' The privacy policy  ', '  must explain  ', '  the use, collection, and sharing of mobile device advertising identifiers and other personal information  ', '  by the company and its third-party service providers, vendors, or partners  ', '  such as Tapjoy  ', '  NULL', 'NO link', 'Third party is: Tapjoy'], ['type1', 'Description: The privacy policy must cover the use of personal information for behaviorally targeted online advertising.', '  a privacy policy  ', '  cover  ', '  the use of personal information  ', '  for behaviorally targeted online advertising  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type3-Q1', 'Description: The privacy policy must include an opt-out link that directs users to an industry-recognized platform for opting out of online behavioral advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out'], ['type3-Q1', 'Description: The privacy policy must provide California users with the ability to opt-out from the sale of their personal information.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You are responsible for notifying your users about the data collection and disclosure practices associated with the use of our Services.&gt;{#type1#,  &lt;you  ;  notifying  ;  users  ;  data collection and disclosure practices  ;  associated with the use of our Services  ;  NULL  ;  NULL&gt;  ,  &lt;need to notify users&gt;}
-&lt;Description: You must obtain user consent for the data collection and use practices related to our Services.&gt;{#type1#,  &lt;  Privacy Policy  ;  obtain user consent  ;  data collection and use practices  ;  related to our Services  ;  NULL  ;  NULL&gt;  ,  &lt;need to obtain user consent&gt;}
-&lt;Description: This includes obtaining consent for rewarding users for engagement with Campaign Content in incentivized campaigns and for behaviorally targeted online advertising.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
+          <t xml:space="preserve">&lt;Description: You are responsible for notifying your users about the data collection and disclosure practices associated with the use of our Services.&gt;{#type1#,  &lt;  you  ;  notifying  ;  your users  ;  about the data collection and disclosure practices associated with the use of our Services  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: You must obtain user consent for the data collection and use practices related to our Services.&gt;{#type1#,  &lt;  You  ;  obtain  ;  user consent  ;  for the data collection and use practices related to our Services  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
+&lt;Description: This includes obtaining consent for rewarding users for their engagement with Campaign Content in incentivized campaigns and for behaviorally targeted online advertising.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You are responsible for notifying your users about the data collection and disclosure practices associated with the use of our Services.', 'you  ', '  notifying  ', '  users  ', '  data collection and disclosure practices  ', '  associated with the use of our Services  ', '  NULL  ', '  NULL', 'need to notify users'], ['type1', 'Description: You must obtain user consent for the data collection and use practices related to our Services.', '  Privacy Policy  ', '  obtain user consent  ', '  data collection and use practices  ', '  related to our Services  ', '  NULL  ', '  NULL', 'need to obtain user consent'], ['type3-Q1', 'Description: This includes obtaining consent for rewarding users for engagement with Campaign Content in incentivized campaigns and for behaviorally targeted online advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
+          <t>[['type1', 'Description: You are responsible for notifying your users about the data collection and disclosure practices associated with the use of our Services.', '  you  ', '  notifying  ', '  your users  ', '  about the data collection and disclosure practices associated with the use of our Services  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: You must obtain user consent for the data collection and use practices related to our Services.', '  You  ', '  obtain  ', '  user consent  ', '  for the data collection and use practices related to our Services  ', '  NULL  ', '  NULL', 'NULL'], ['type3-Q1', 'Description: This includes obtaining consent for rewarding users for their engagement with Campaign Content in incentivized campaigns and for behaviorally targeted online advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Partner must post a privacy policy in their App that adheres to all applicable rules, laws, acts, and regulations.&gt;{#type1#,  &lt;Partner  ;  post  ;  a privacy policy  ;  in their App  ;  adheres to all applicable rules, laws, acts, and regulations  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must disclose to End Users any information that will be provided to ironSource or is accessible to ironSource in connection with the Services, as detailed in the IronSource Mobile Privacy Policy.&gt;{#type2#,  &lt; your privacy policy  ;  must disclose  ;  any information that will be provided to ironSource or is accessible to ironSource  ;  in connection with the Services  ;  NULL  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: ironSource&gt;}
-&lt;Description: If applicable, the privacy policy must include a mechanism for End Users to opt-out of receiving targeted ads based on their behavior and interests.&gt;{#type3#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
+          <t xml:space="preserve">&lt;Description: Partner must post a privacy policy in their App that complies with all applicable rules, laws, acts, and regulations.&gt;{#type1#,  &lt;  Partner  ;  post  ;  a privacy policy  ;  in their App  ;  complies with all applicable rules, laws, acts, and regulations  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: The privacy policy must disclose to End Users any information that will be provided to ironSource or is accessible to ironSource in connection with the Services, as detailed in the IronSource Mobile Privacy Policy.&gt;{#type2#,  &lt; The privacy policy  ;  must disclose  ;  any information that will be provided to ironSource or is accessible to ironSource  ;  in connection with the Services  ;  as detailed in the IronSource Mobile Privacy Policy  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: ironSource&gt;}
+&lt;Description: If applicable, the privacy policy must include a mechanism for End Users to opt-out of receiving targeted ads based on their behavior and interests.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Partner must post a privacy policy in their App that adheres to all applicable rules, laws, acts, and regulations.', 'Partner  ', '  post  ', '  a privacy policy  ', '  in their App  ', '  adheres to all applicable rules, laws, acts, and regulations  ', '  NULL', 'need a privacy policy'], ['type2', 'Description: The privacy policy must disclose to End Users any information that will be provided to ironSource or is accessible to ironSource in connection with the Services, as detailed in the IronSource Mobile Privacy Policy.', ' your privacy policy  ', '  must disclose  ', '  any information that will be provided to ironSource or is accessible to ironSource  ', '  in connection with the Services  ', '  NULL  ', '  NULL', 'need to provide a link', 'Third party is: ironSource'], ['type3', 'Description: If applicable, the privacy policy must include a mechanism for End Users to opt-out of receiving targeted ads based on their behavior and interests.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
+          <t>[['type1', 'Description: Partner must post a privacy policy in their App that complies with all applicable rules, laws, acts, and regulations.', '  Partner  ', '  post  ', '  a privacy policy  ', '  in their App  ', '  complies with all applicable rules, laws, acts, and regulations  ', '  NULL', 'need a privacy policy'], ['type2', 'Description: The privacy policy must disclose to End Users any information that will be provided to ironSource or is accessible to ironSource in connection with the Services, as detailed in the IronSource Mobile Privacy Policy.', ' The privacy policy  ', '  must disclose  ', '  any information that will be provided to ironSource or is accessible to ironSource  ', '  in connection with the Services  ', '  as detailed in the IronSource Mobile Privacy Policy  ', '  NULL', 'NO link', 'Third party is: ironSource'], ['type3-Q1', 'Description: If applicable, the privacy policy must include a mechanism for End Users to opt-out of receiving targeted ads based on their behavior and interests.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must provide clear, meaningful, and prominent notices to individuals whose data is collected, and obtain necessary consent or permission regarding the collection, disclosure, use, and security of such data.&gt;{#type1#,  &lt;  You  ;  provide  ;  clear, meaningful, and prominent notices  ;  to individuals whose data is collected  ;  obtain necessary consent or permission  ;  regarding the collection, disclosure, use, and security of such data&gt;  ,  &lt;need to provide notices and obtain consent&gt;}
-&lt;Description: You must maintain, display, and abide by a privacy policy that complies with all applicable privacy and data protection laws and regulations, and any requirements from platform providers.&gt;{#type1#,  &lt;  a privacy policy  ;  maintains, displays, and abides by  ;  all applicable privacy and data protection laws and regulations, and any requirements from platform providers  ;  NULL  ;  NULL  ; NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must explain that Services Data can be processed as per the Terms and as detailed in the Unity Privacy Policy or ironSource Privacy Policy, depending on the context.&gt;{#type2#,  &lt; The privacy policy  ;  must explain  ;  Services Data can be processed  ;  as per the Terms and as detailed in the Unity Privacy Policy or ironSource Privacy Policy  ;  depending on the context  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Unity or ironSource&gt;}
-&lt;Description: The privacy policy must disclose the use of tracking pixels, agents, or other technologies that collect, use, share, and store data about end users of your Application.&gt;{#type1#,  &lt;  The privacy policy  ;  disclose  ;  the use of tracking pixels, agents, or other technologies  ;  that collect, use, share, and store data about end users  ;  NULL  ;  NULL&gt;  ,  &lt;disclose the use of tracking pixels, agents, or other technologies&gt;}
-&lt;Description: The privacy policy should include a link to the Unity Privacy Policy or ironSource Privacy Policy, as applicable.&gt;{#type2#,  &lt; your privacy policy  ;  should include  ;  a link to the Unity Privacy Policy or ironSource Privacy Policy  ;  NULL  ;  NULL  ;  as applicable&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Unity or ironSource&gt;}
-&lt;Description: If applicable, the privacy policy must explain how End-Users can opt out of the Offerings.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;NULL&gt;}
+          <t xml:space="preserve">&lt;Description: You must provide clear, meaningful, and prominent notices to individuals regarding the collection, disclosure, use, and security of their personal data.&gt;{#type1#,  &lt;  You  ;  provide  ;  clear, meaningful, and prominent notices  ;  regarding the collection, disclosure, use, and security of their personal data  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: You must obtain necessary consent or permission from individuals before collecting their personal data.&gt;{#type1#,  &lt;  You  ;  obtain necessary consent or permission  ;  personal data  ;  from individuals  ;  before collecting  ;  NULL&gt;  ,  &lt;NULL&gt;}
+&lt;Description: You must maintain, display, and abide by a privacy policy that complies with all applicable privacy and data protection laws and regulations, and any requirements from platform providers.&gt;{#type1#,  &lt;  a privacy policy  ;  complies with  ;  all applicable privacy and data protection laws and regulations  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: The privacy policy must explain that Services Data can be processed in accordance with the Terms and the Unity Privacy Policy or ironSource Privacy Policy, as applicable.&gt;{#type2#,  &lt;The privacy policy  ;  must explain  ;  Services Data can be processed  ;  in accordance with the Terms and the Unity Privacy Policy or ironSource Privacy Policy  ;  NULL  ;  as applicable&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: Unity Privacy Policy, ironSource Privacy Policy&gt;}
+&lt;Description: The privacy policy must notify users of your use of tracking technologies and provide a link to the Unity Privacy Policy or ironSource Privacy Policy, as applicable.&gt;{#type2#,  &lt; The privacy policy  ;  must notify  ;  users of your use of tracking technologies  ;  NULL  ;  provide a link to the Unity Privacy Policy or ironSource Privacy Policy  ;  as applicable&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Unity Privacy Policy or ironSource Privacy Policy&gt;}
+&lt;Description: If applicable, the privacy policy must explain how End-Users can opt out of the Offerings.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must provide clear, meaningful, and prominent notices to individuals whose data is collected, and obtain necessary consent or permission regarding the collection, disclosure, use, and security of such data.', '  You  ', '  provide  ', '  clear, meaningful, and prominent notices  ', '  to individuals whose data is collected  ', '  obtain necessary consent or permission  ', '  regarding the collection, disclosure, use, and security of such data', 'need to provide notices and obtain consent'], ['type1', 'Description: You must maintain, display, and abide by a privacy policy that complies with all applicable privacy and data protection laws and regulations, and any requirements from platform providers.', '  a privacy policy  ', '  maintains, displays, and abides by  ', '  all applicable privacy and data protection laws and regulations, and any requirements from platform providers  ', '  NULL  ', '  NULL  ', ' NULL', 'need a privacy policy'], ['type2', 'Description: The privacy policy must explain that Services Data can be processed as per the Terms and as detailed in the Unity Privacy Policy or ironSource Privacy Policy, depending on the context.', ' The privacy policy  ', '  must explain  ', '  Services Data can be processed  ', '  as per the Terms and as detailed in the Unity Privacy Policy or ironSource Privacy Policy  ', '  depending on the context  ', '  NULL', 'need to provide a link', 'Third party is: Unity or ironSource'], ['type1', 'Description: The privacy policy must disclose the use of tracking pixels, agents, or other technologies that collect, use, share, and store data about end users of your Application.', '  The privacy policy  ', '  disclose  ', '  the use of tracking pixels, agents, or other technologies  ', '  that collect, use, share, and store data about end users  ', '  NULL  ', '  NULL', 'disclose the use of tracking pixels, agents, or other technologies'], ['type2', 'Description: The privacy policy should include a link to the Unity Privacy Policy or ironSource Privacy Policy, as applicable.', ' your privacy policy  ', '  should include  ', '  a link to the Unity Privacy Policy or ironSource Privacy Policy  ', '  NULL  ', '  NULL  ', '  as applicable', 'need to provide a link', 'Third party is: Unity or ironSource'], ['type3-Q1', 'Description: If applicable, the privacy policy must explain how End-Users can opt out of the Offerings.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'NULL']]</t>
+          <t>[['type1', 'Description: You must provide clear, meaningful, and prominent notices to individuals regarding the collection, disclosure, use, and security of their personal data.', '  You  ', '  provide  ', '  clear, meaningful, and prominent notices  ', '  regarding the collection, disclosure, use, and security of their personal data  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: You must obtain necessary consent or permission from individuals before collecting their personal data.', '  You  ', '  obtain necessary consent or permission  ', '  personal data  ', '  from individuals  ', '  before collecting  ', '  NULL', 'NULL'], ['type1', 'Description: You must maintain, display, and abide by a privacy policy that complies with all applicable privacy and data protection laws and regulations, and any requirements from platform providers.', '  a privacy policy  ', '  complies with  ', '  all applicable privacy and data protection laws and regulations  ', '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type2', 'Description: The privacy policy must explain that Services Data can be processed in accordance with the Terms and the Unity Privacy Policy or ironSource Privacy Policy, as applicable.', 'The privacy policy  ', '  must explain  ', '  Services Data can be processed  ', '  in accordance with the Terms and the Unity Privacy Policy or ironSource Privacy Policy  ', '  NULL  ', '  as applicable', 'NO link', 'Third party is: Unity Privacy Policy, ironSource Privacy Policy'], ['type2', 'Description: The privacy policy must notify users of your use of tracking technologies and provide a link to the Unity Privacy Policy or ironSource Privacy Policy, as applicable.', ' The privacy policy  ', '  must notify  ', '  users of your use of tracking technologies  ', '  NULL  ', '  provide a link to the Unity Privacy Policy or ironSource Privacy Policy  ', '  as applicable', 'need to provide a link', 'Third party is: Unity Privacy Policy or ironSource Privacy Policy'], ['type3-Q1', 'Description: If applicable, the privacy policy must explain how End-Users can opt out of the Offerings.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The user must have a privacy policy that is clearly labeled and easily accessible.&gt;{#type1#,  &lt;  a privacy policy  ;  is labeled and accessible   ;  NULL    ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy should provide end users with clear and comprehensive information about cookies.&gt;{#type1#,  &lt;  a privacy policy  ;  provides  ;  clear and comprehensive information  ;  about cookies  ;  NULL  ;  NULL&gt;  ,  &lt;should provide end users&gt;}
-&lt;Description: The policy must also detail device-specific information, location information, and other data stored, accessed, or collected from end users' devices.&gt;{#type1#,  &lt;  The policy  ;  detail  ;  device-specific information, location information, and other data  ;  from end users' devices  ;  NULL  ;  NULL&gt;  ,  &lt;need to detail device-specific information, location information, and other data&gt;}
-&lt;Description: Information should be provided in connection with the Services, including options for end users to manage cookies.&gt;{#type1#, &lt;Information ; should be provided ; options for end users to manage cookies ; in connection with the Services ; NULL ; NULL&gt;, &lt;need to provide information&gt;}
+          <t xml:space="preserve">&lt;Description: The user must have a privacy policy that is clearly labeled and easily accessible at all times when using the Services.&gt;{#type1#,  &lt;  a privacy policy  ;  is labeled and accessible  ;  NULL  ;  NULL  ;  NULL  ;  when using the Services&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: The privacy policy must provide end users with clear and comprehensive information about cookies, device-specific information, location information, and other data stored on, accessed on, or collected from end users' devices.&gt;{#type1#,  &lt;  a privacy policy  ;  provide  ;  clear and comprehensive information about cookies, device-specific information, location information, and other data  ;  to end users  ;  stored on, accessed on, or collected from end users' devices  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: The policy should include information about end users' options for cookie management.&gt;{#type1#,  &lt;  The policy  ;  include information  ;  end users' options for cookie management  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: The user must have a privacy policy that is clearly labeled and easily accessible.', '  a privacy policy  ', '  is labeled and accessible   ', '  NULL    ', '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policy should provide end users with clear and comprehensive information about cookies.', '  a privacy policy  ', '  provides  ', '  clear and comprehensive information  ', '  about cookies  ', '  NULL  ', '  NULL', 'should provide end users'], ['type1', "Description: The policy must also detail device-specific information, location information, and other data stored, accessed, or collected from end users' devices.", '  The policy  ', '  detail  ', '  device-specific information, location information, and other data  ', "  from end users' devices  ", '  NULL  ', '  NULL', 'need to detail device-specific information, location information, and other data'], ['type1', 'Description: Information should be provided in connection with the Services, including options for end users to manage cookies.', 'Information ', ' should be provided ', ' options for end users to manage cookies ', ' in connection with the Services ', ' NULL ', ' NULL', 'need to provide information']]</t>
+          <t>[['type1', 'Description: The user must have a privacy policy that is clearly labeled and easily accessible at all times when using the Services.', '  a privacy policy  ', '  is labeled and accessible  ', '  NULL  ', '  NULL  ', '  NULL  ', '  when using the Services', 'need a privacy policy'], ['type1', "Description: The privacy policy must provide end users with clear and comprehensive information about cookies, device-specific information, location information, and other data stored on, accessed on, or collected from end users' devices.", '  a privacy policy  ', '  provide  ', '  clear and comprehensive information about cookies, device-specific information, location information, and other data  ', '  to end users  ', "  stored on, accessed on, or collected from end users' devices  ", '  NULL', 'need a privacy policy'], ['type1', "Description: The policy should include information about end users' options for cookie management.", '  The policy  ', '  include information  ', "  end users' options for cookie management  ", '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy']]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must ensure that the Properties have a privacy policy that is clearly labeled and easily accessible.&gt;{#type1#,  &lt;  a privacy policy  ;  is labeled and accessible   ;  NULL    ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must provide end users with clear and comprehensive information about cookies, device-specific information, location information, and other data collected from end users' devices.&gt;{#type1#,  &lt;  a privacy policy  ;  provides end users  ;  clear and comprehensive information  ;  about cookies, device-specific information, location information, and other data collected from end users' devices  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must inform end users about their options for managing cookies.&gt;{#type3-Q1#, &lt;  NULL  ;  NULL  ;  NULL  ;  NULL  ;  NULL  ;  NULL  &gt;  ,  &lt;need to mention opt-out&gt;  ,  &lt;NULL&gt; }
+          <t xml:space="preserve">&lt;Description: You must ensure that the Properties have a privacy policy that is clearly labeled and easily accessible.&gt;{#type1#,  &lt;  The Properties  ;  have  ;  a privacy policy  ;  clearly labeled and easily accessible  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: The privacy policy must inform end users about their options for managing cookies.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must ensure that the Properties have a privacy policy that is clearly labeled and easily accessible.', '  a privacy policy  ', '  is labeled and accessible   ', '  NULL    ', '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', "Description: The privacy policy must provide end users with clear and comprehensive information about cookies, device-specific information, location information, and other data collected from end users' devices.", '  a privacy policy  ', '  provides end users  ', '  clear and comprehensive information  ', "  about cookies, device-specific information, location information, and other data collected from end users' devices  ", '  NULL  ', '  NULL', 'need a privacy policy'], ['type3-Q1', 'Description: The privacy policy must inform end users about their options for managing cookies.', '  NULL  ', '  NULL  ', '  NULL  ', '  NULL  ', '  NULL  ', '  NULL  ', 'need to mention opt-out', 'NULL']]</t>
+          <t>[['type1', 'Description: You must ensure that the Properties have a privacy policy that is clearly labeled and easily accessible.', '  The Properties  ', '  have  ', '  a privacy policy  ', '  clearly labeled and easily accessible  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type3-Q1', 'Description: The privacy policy must inform end users about their options for managing cookies.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'NULL']]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Developer must post a privacy notice within the Developer App that meets the transparency and information requirements of the Privacy Requirements and the Agreement.&gt;{#type1#,  &lt;Developer  ;  post  ;  a privacy notice  ;  within the Developer App  ;  meets the transparency and information requirements  ;  of the Privacy Requirements and the Agreement&gt;  ,  &lt;need a privacy notice&gt;}
-&lt;Description: The notice must include information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data.&gt;{#type2#, &lt;The notice ; must include ; information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data ; NULL ; to inform users about data collection, use, and sharing ; NULL&gt;, &lt;need to provide a link&gt;, &lt;Third party is: Vungle and its Demand Partner&gt;}
-&lt;Description: The notice must state that third parties may collect or receive Personal Data and use it for measurement services and targeted ads.&gt;{#type2#,  &lt; The notice  ;  must state  ;  that third parties may collect or receive Personal Data and use it for measurement services and targeted ads  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: third parties&gt;}
-&lt;Description: A conspicuous link or description for users to opt-out of collection and use of information for ad targeting must be provided.&gt;{#type3#,&lt;  NULL  ;  NULL  ;  NULL  ;  NULL  ;  NULL  ;  NULL  &gt;  ,  &lt;need to mention opt-out&gt;  ,  &lt;need link to guide how to opt-out&gt; }
+          <t xml:space="preserve">&lt;Description: Developer must post a privacy notice within the Developer App that meets the transparency and information requirements of the Privacy Requirements and the Agreement.&gt;{#type1#,  &lt;  Developer  ;  post  ;  a privacy notice  ;  within the Developer App  ;  meets the transparency and information requirements of the Privacy Requirements and the Agreement  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: The notice must include information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data.&gt;{#type2#,  &lt; The notice  ;  must include  ;  information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: Vungle and its Demand Partner&gt;}
+&lt;Description: The notice must disclose that third parties may collect or receive Personal Data and use it for measurement services and targeted ads.&gt;{#type2#,  &lt; The notice  ;  must disclose  ;  that third parties may collect or receive Personal Data and use it  ;  for measurement services and targeted ads  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: NULL&gt;}
+&lt;Description: A conspicuous link or description for users to opt-out of collection and use of information for ad targeting must be provided.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Developer must post a privacy notice within the Developer App that meets the transparency and information requirements of the Privacy Requirements and the Agreement.', 'Developer  ', '  post  ', '  a privacy notice  ', '  within the Developer App  ', '  meets the transparency and information requirements  ', '  of the Privacy Requirements and the Agreement', 'need a privacy notice'], ['type2', "Description: The notice must include information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data.", 'The notice ', ' must include ', " information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data ", ' NULL ', ' to inform users about data collection, use, and sharing ', ' NULL', 'need to provide a link', 'Third party is: Vungle and its Demand Partner'], ['type2', 'Description: The notice must state that third parties may collect or receive Personal Data and use it for measurement services and targeted ads.', ' The notice  ', '  must state  ', '  that third parties may collect or receive Personal Data and use it for measurement services and targeted ads  ', '  NULL  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: third parties'], ['type3', 'Description: A conspicuous link or description for users to opt-out of collection and use of information for ad targeting must be provided.', '  NULL  ', '  NULL  ', '  NULL  ', '  NULL  ', '  NULL  ', '  NULL  ', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
+          <t>[['type1', 'Description: Developer must post a privacy notice within the Developer App that meets the transparency and information requirements of the Privacy Requirements and the Agreement.', '  Developer  ', '  post  ', '  a privacy notice  ', '  within the Developer App  ', '  meets the transparency and information requirements of the Privacy Requirements and the Agreement  ', '  NULL', 'need a privacy policy'], ['type2', "Description: The notice must include information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data.", ' The notice  ', '  must include  ', "  information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data  ", '  NULL  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: Vungle and its Demand Partner'], ['type2', 'Description: The notice must disclose that third parties may collect or receive Personal Data and use it for measurement services and targeted ads.', ' The notice  ', '  must disclose  ', '  that third parties may collect or receive Personal Data and use it  ', '  for measurement services and targeted ads  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: NULL'], ['type3-Q1', 'Description: A conspicuous link or description for users to opt-out of collection and use of information for ad targeting must be provided.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The Publisher Network must post a privacy policy that is both conspicuous and legally adequate on each application and/or service.&gt;{#type1#,  &lt;The Publisher Network ; posts ; a privacy policy ; conspicuously and legally adequately ; on each application and/or service ; NULL ; NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must disclose the collection of Service Data by third parties like MoPub for the purpose of personalized advertising.&gt;{#type2#,  &lt; your privacy policy  ;  must disclose  ;  the collection of Service Data by third parties like MoPub  ;  for the purpose of personalized advertising  ;  NULL  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: MoPub&gt;}
+          <t xml:space="preserve">&lt;Description: The Publisher must post a privacy policy that is both conspicuous and legally adequate on each application and/or service within the Publisher Network.&gt;{#type1#,  &lt;  The Publisher  ;  post  ;  a privacy policy  ;  on each application and/or service within the Publisher Network  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: The privacy policy must disclose the collection of Service Data by third parties such as MoPub for the purpose of personalized advertising.&gt;{#type1#,  &lt;The privacy policy  ;  must disclose  ;  the collection of Service Data by third parties such as MoPub  ;  NULL  ;  for the purpose of personalized advertising  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: MoPub&gt;}
 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: The Publisher Network must post a privacy policy that is both conspicuous and legally adequate on each application and/or service.', 'The Publisher Network ', ' posts ', ' a privacy policy ', ' conspicuously and legally adequately ', ' on each application and/or service ', ' NULL ', ' NULL', 'need a privacy policy'], ['type2', 'Description: The privacy policy must disclose the collection of Service Data by third parties like MoPub for the purpose of personalized advertising.', ' your privacy policy  ', '  must disclose  ', '  the collection of Service Data by third parties like MoPub  ', '  for the purpose of personalized advertising  ', '  NULL  ', '  NULL', 'need to provide a link', 'Third party is: MoPub']]</t>
+          <t>[['type1', 'Description: The Publisher must post a privacy policy that is both conspicuous and legally adequate on each application and/or service within the Publisher Network.', '  The Publisher  ', '  post  ', '  a privacy policy  ', '  on each application and/or service within the Publisher Network  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policy must disclose the collection of Service Data by third parties such as MoPub for the purpose of personalized advertising.', 'The privacy policy  ', '  must disclose  ', '  the collection of Service Data by third parties such as MoPub  ', '  NULL  ', '  for the purpose of personalized advertising  ', '  NULL', 'NO link', 'Third party is: MoPub']]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The Publisher must comply with the App Store Terms, including obtaining user consent and disclosing data collection practices.&gt;{#type1#,  &lt;The Publisher  ;  comply  ;  App Store Terms  ;  NULL  ;  obtaining user consent and disclosing data collection practices  ;  NULL&gt;  ,  &lt;need to comply with App Store Terms&gt;}
-&lt;Description: The Publisher must provide options for users to opt-out as required by the App Store Terms.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;NULL&gt;}
+          <t xml:space="preserve">&lt;Description: The Publisher must comply with the App Store Terms, including obtaining user consent, disclosing data collection practices, and providing options to opt-out.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: The Publisher must comply with the App Store Terms, including obtaining user consent and disclosing data collection practices.', 'The Publisher  ', '  comply  ', '  App Store Terms  ', '  NULL  ', '  obtaining user consent and disclosing data collection practices  ', '  NULL', 'need to comply with App Store Terms'], ['type3-Q1', 'Description: The Publisher must provide options for users to opt-out as required by the App Store Terms.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'NULL']]</t>
+          <t>[['type3-Q1', 'Description: The Publisher must comply with the App Store Terms, including obtaining user consent, disclosing data collection practices, and providing options to opt-out.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must disclose in your app privacy policy all types of data collected by your app, including data sent to Sentry.&gt;{#type1#,  &lt;  your app privacy policy  ;  disclose  ;  all types of data collected by your app  ;  including data sent to Sentry  ;  NULL  ;  NULL&gt;  ,  &lt;need to disclose all types of data&gt;}
+          <t xml:space="preserve">&lt;Description: Users must disclose all data collection practices in their app's privacy policy, including the data sent to Sentry.&gt;{#type1#,  &lt;  Users  ;  disclose  ;  all data collection practices  ;  in their app's privacy policy  ;  including the data sent to Sentry  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must disclose in your app privacy policy all types of data collected by your app, including data sent to Sentry.', '  your app privacy policy  ', '  disclose  ', '  all types of data collected by your app  ', '  including data sent to Sentry  ', '  NULL  ', '  NULL', 'need to disclose all types of data']]</t>
+          <t>[['type1', "Description: Users must disclose all data collection practices in their app's privacy policy, including the data sent to Sentry.", '  Users  ', '  disclose  ', '  all data collection practices  ', "  in their app's privacy policy  ", '  including the data sent to Sentry  ', '  NULL', 'need a privacy policy']]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Developer must ensure User Data is handled in compliance with a privacy policy.&gt;{#type1#,  &lt;Developer  ;  ensure  ;  User Data is handled  ;  in compliance with a privacy policy  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must be made available to Users.&gt;{#type1#,  &lt;  The privacy policy  ;  must be made available  ;  Users    ;  NULL  ;  NULL  ; NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must clearly and accurately describe what user information is collected by Developer.&gt;{#type1#,  &lt;  a privacy policy  ;  describe  ;  user information  ;  by Developer  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must also describe how Developer uses and shares the collected user information.&gt;{#type1#,  &lt;  a privacy policy  ;  describes  ;  how Developer uses and shares the collected user information    ;  NULL  ;  NULL  ; NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: Developer must ensure that User Data is handled in compliance with a privacy policy.&gt;{#type1#,  &lt;  Developer  ;  ensure  ;  User Data is handled  ;  in compliance with a privacy policy  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: The privacy policy must be made available to Users.&gt;{#type1#,  &lt;  The privacy policy  ;    be made available  ;   NULL  ;  Users  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: The privacy policy must clearly and accurately describe what user information is collected by Developer.&gt;{#type1#,  &lt;  a privacy policy  ;  describe  ;  user information collected by Developer  ;  NULL  ;  clearly and accurately  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;Description: The privacy policy must also describe how Developer uses and shares the collected user information.&gt;{#type1#,  &lt;  a privacy policy  ;  describe  ;  how Developer uses and shares the collected user information  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Developer must ensure User Data is handled in compliance with a privacy policy.', 'Developer  ', '  ensure  ', '  User Data is handled  ', '  in compliance with a privacy policy  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policy must be made available to Users.', '  The privacy policy  ', '  must be made available  ', '  Users    ', '  NULL  ', '  NULL  ', ' NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policy must clearly and accurately describe what user information is collected by Developer.', '  a privacy policy  ', '  describe  ', '  user information  ', '  by Developer  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policy must also describe how Developer uses and shares the collected user information.', '  a privacy policy  ', '  describes  ', '  how Developer uses and shares the collected user information    ', '  NULL  ', '  NULL  ', ' NULL', 'need a privacy policy']]</t>
+          <t>[['type1', 'Description: Developer must ensure that User Data is handled in compliance with a privacy policy.', '  Developer  ', '  ensure  ', '  User Data is handled  ', '  in compliance with a privacy policy  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policy must be made available to Users.', '  The privacy policy  ', '    be made available  ', '   NULL  ', '  Users  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policy must clearly and accurately describe what user information is collected by Developer.', '  a privacy policy  ', '  describe  ', '  user information collected by Developer  ', '  NULL  ', '  clearly and accurately  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policy must also describe how Developer uses and shares the collected user information.', '  a privacy policy  ', '  describe  ', '  how Developer uses and shares the collected user information  ', '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy']]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must provide your own Terms of Service, Privacy Policy, and support information when submitting your App to the Zoom Marketplace.&gt;{#type1#,  &lt;  You  ;  provide  ;  Terms of Service, Privacy Policy, support information  ;  when submitting your App  ;  to the Zoom Marketplace  ;  NULL&gt;  ,  &lt;need to provide Terms of Service, Privacy Policy, and support information&gt;}
-&lt;Description: Your Privacy Policy must explain how you collect, use, protect, and share users' personal information.&gt;{#type1#,  &lt;Your Privacy Policy  ;  explains  ;  how you collect, use, protect, and share users' personal information  ;  NULL  ;  NULL  ; NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: You must provide your own terms of service, privacy policy, and support information when submitting your App to the Zoom Marketplace.&gt;{#type1#,  &lt;  you  ;  provide  ;  your own terms of service, privacy policy, and support information  ;  when submitting your App to the Zoom Marketplace  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must provide your own Terms of Service, Privacy Policy, and support information when submitting your App to the Zoom Marketplace.', '  You  ', '  provide  ', '  Terms of Service, Privacy Policy, support information  ', '  when submitting your App  ', '  to the Zoom Marketplace  ', '  NULL', 'need to provide Terms of Service, Privacy Policy, and support information'], ['type1', "Description: Your Privacy Policy must explain how you collect, use, protect, and share users' personal information.", 'Your Privacy Policy  ', '  explains  ', "  how you collect, use, protect, and share users' personal information  ", '  NULL  ', '  NULL  ', ' NULL', 'need a privacy policy']]</t>
+          <t>[['type1', 'Description: You must provide your own terms of service, privacy policy, and support information when submitting your App to the Zoom Marketplace.', '  you  ', '  provide  ', '  your own terms of service, privacy policy, and support information  ', '  when submitting your App to the Zoom Marketplace  ', '  NULL  ', '  NULL', 'need a privacy policy']]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: A privacy policy must be provided by each Party, which is conspicuous and complies with applicable privacy laws.&gt;{#type1#,  &lt;a privacy policy  ;  complies  ;  applicable privacy laws    ;  NULL  ;  NULL  ; NULL&gt;  ,  &lt;must be provided by each Party&gt;}
-&lt;Description: The privacy policy must explicitly state that personal data will be shared with certain third parties for specific use cases.&gt;{#type2#,  &lt;privacy policy  ;  must explicitly state  ;  personal data will be shared with certain third parties for specific use cases  ;  certain third parties  ;  for specific use cases  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: certain third parties&gt;}
-&lt;Description: If applicable, privacy laws such as CCPA, CPRA, or other US state privacy laws require providing sufficient notice about End Users' rights regarding their personal information and mechanisms for Opt Out elections.&gt;{#type3-Q1#, &lt;  NULL  ;  NULL  ;  NULL  ;  NULL  ;  NULL  ;  NULL  &gt;  ,  &lt;need to mention opt-out&gt;  ,  &lt;NULL&gt; }
-&lt;Description: The privacy policy should mention the use of third parties and cookies for attribution and/or serving targeted advertisements.&gt;{#type2#,  &lt; privacy policy  ;  should mention  ;  the use of third parties and cookies  ;  for attribution and/or serving targeted advertisements  ;  NULL  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: third parties&gt;}
+          <t xml:space="preserve">&lt;Description: Each Party is required to have a privacy policy that is compliant with applicable privacy laws and is prominently displayed.&gt;{#type1#,  &lt;  Each Party  ;  have  ;  a privacy policy  ;  NULL  ;  compliant with applicable privacy laws  ;  prominently displayed&gt;  ,  &lt;need a privacy policy&gt;}
+&lt;{#type2#,  &lt;privacy policy  ;  must include  ;  a clear description of the data sets collected or allowed to be collected, and the use cases related to personal data  ;  mentioning that such data will be shared with certain third parties for specific use cases  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: certain third parties&gt;}&gt;{#type2#,  &lt;privacy policy  ;  must include  ;  a clear description of the data sets collected or allowed to be collected, and the use cases related to personal data  ;  mentioning that such data will be shared with certain third parties for specific use cases  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: certain third parties&gt;}
+&lt;Description: Privacy laws such as CCPA, CPRA, and other relevant US state privacy laws may require providing sufficient notice about End Users' rights to their personal information and mechanisms for opting out of data usage.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
+&lt;Description: The privacy policy should also disclose the use of third parties and cookies for attribution purposes and/or serving targeted advertisements.&gt;{#type1#,  &lt;The privacy policy  ;  should disclose  ;  the use of third parties and cookies  ;  for attribution purposes and/or serving targeted advertisements  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: A privacy policy must be provided by each Party, which is conspicuous and complies with applicable privacy laws.', 'a privacy policy  ', '  complies  ', '  applicable privacy laws    ', '  NULL  ', '  NULL  ', ' NULL', 'must be provided by each Party'], ['type2', 'Description: The privacy policy must explicitly state that personal data will be shared with certain third parties for specific use cases.', 'privacy policy  ', '  must explicitly state  ', '  personal data will be shared with certain third parties for specific use cases  ', '  certain third parties  ', '  for specific use cases  ', '  NULL', 'need to provide a link', 'Third party is: certain third parties'], ['type3-Q1', "Description: If applicable, privacy laws such as CCPA, CPRA, or other US state privacy laws require providing sufficient notice about End Users' rights regarding their personal information and mechanisms for Opt Out elections.", '  NULL  ', '  NULL  ', '  NULL  ', '  NULL  ', '  NULL  ', '  NULL  ', 'need to mention opt-out', 'NULL'], ['type2', 'Description: The privacy policy should mention the use of third parties and cookies for attribution and/or serving targeted advertisements.', ' privacy policy  ', '  should mention  ', '  the use of third parties and cookies  ', '  for attribution and/or serving targeted advertisements  ', '  NULL  ', '  NULL', 'need to provide a link', 'Third party is: third parties']]</t>
+          <t>[['type1', 'Description: Each Party is required to have a privacy policy that is compliant with applicable privacy laws and is prominently displayed.', '  Each Party  ', '  have  ', '  a privacy policy  ', '  NULL  ', '  compliant with applicable privacy laws  ', '  prominently displayed', 'need a privacy policy'], ['type2', 'type2', '{#type2#,  &lt;privacy policy  ', '  must include  ', '  a clear description of the data sets collected or allowed to be collected, and the use cases related to personal data  ', '  mentioning that such data will be shared with certain third parties for specific use cases  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: certain third parties', 'privacy policy  ', '  must include  ', '  a clear description of the data sets collected or allowed to be collected, and the use cases related to personal data  ', '  mentioning that such data will be shared with certain third parties for specific use cases  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: certain third parties'], ['type3-Q1', "Description: Privacy laws such as CCPA, CPRA, and other relevant US state privacy laws may require providing sufficient notice about End Users' rights to their personal information and mechanisms for opting out of data usage.", 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out'], ['type1', 'Description: The privacy policy should also disclose the use of third parties and cookies for attribution purposes and/or serving targeted advertisements.', 'The privacy policy  ', '  should disclose  ', '  the use of third parties and cookies  ', '  for attribution purposes and/or serving targeted advertisements  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: NULL']]</t>
         </is>
       </c>
     </row>

--- a/definition测试/【1】Tos2PP/output.xlsx
+++ b/definition测试/【1】Tos2PP/output.xlsx
@@ -448,411 +448,432 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Mixpanel's tracking and use of information about the Customer on Mixpanel Sites are governed by the Mixpanel Privacy Statement.&gt;{#type2#,  &lt;Mixpanel's Privacy Statement  ;  governs  ;  tracking and use of information about the Customer on Mixpanel Sites  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: Mixpanel&gt;}
-&lt;Description: The Mixpanel Privacy Statement is available at https://mixpanel.com/legal/privacy-policy/.&gt;{#type1#,  &lt;  The Mixpanel Privacy Statement  ;    available    ;    NULL  ;  https://mixpanel.com/legal/privacy-policy/  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
-&lt;Description: It is the Customer's obligation to provide their own privacy statement or notice to their End Users.&gt;{#type1#,  &lt;  Customer  ;  provide  ;  privacy statement or notice  ;  to their End Users  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: Customer must provide its own privacy statement or notice to its End Users&gt;{#type2#,  &lt;Customer  ;  must provide  ;  privacy statement or notice  ;  to its End Users  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['type2', "Description: Mixpanel's tracking and use of information about the Customer on Mixpanel Sites are governed by the Mixpanel Privacy Statement.", "Mixpanel's Privacy Statement  ", '  governs  ', '  tracking and use of information about the Customer on Mixpanel Sites  ', '  NULL  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: Mixpanel'], ['type1', 'Description: The Mixpanel Privacy Statement is available at https://mixpanel.com/legal/privacy-policy/.', '  The Mixpanel Privacy Statement  ', '    available    ', '    NULL  ', '  https://mixpanel.com/legal/privacy-policy/  ', '  NULL  ', '  NULL', 'NULL'], ['type1', "Description: It is the Customer's obligation to provide their own privacy statement or notice to their End Users.", '  Customer  ', '  provide  ', '  privacy statement or notice  ', '  to their End Users  ', '  NULL  ', '  NULL', 'need a privacy policy']]</t>
+          <t>[['type2', 'Description: Customer must provide its own privacy statement or notice to its End Users', 'Customer  ', '  must provide  ', '  privacy statement or notice  ', '  to its End Users  ', '  NULL  ', '  NULL', 'NULL']]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The Customer must also ensure compliance with any privacy policies, agreements, or other obligations they have with their end users.&gt;{#type1#,  &lt;  The Customer  ;  ensure compliance  ;  privacy policies, agreements, or other obligations  ;  with their end users  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
+          <t xml:space="preserve">&lt;Description: Customer must comply with any privacy policies, agreements, or other obligations it maintains or enters into with its end users&gt;{#type2#, &lt;Customer  ;  must comply with  ;  privacy policies, agreements, or other obligations  ;  with its end users  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
+&lt;Description: Customer can collect, submit, and use data only if it obtains all legally required consents and permissions&gt;{#type1#, &lt;Customer ; collect, submit, and use ; data ; from user ; NULL ; if it obtains all legally required consents and permissions&gt;}
 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: The Customer must also ensure compliance with any privacy policies, agreements, or other obligations they have with their end users.', '  The Customer  ', '  ensure compliance  ', '  privacy policies, agreements, or other obligations  ', '  with their end users  ', '  NULL  ', '  NULL', 'NULL']]</t>
+          <t>[['type2', 'Description: Customer must comply with any privacy policies, agreements, or other obligations it maintains or enters into with its end users', 'Customer  ', '  must comply with  ', '  privacy policies, agreements, or other obligations  ', '  with its end users  ', '  NULL  ', '  NULL', 'NULL'], ['type1', 'Description: Customer can collect, submit, and use data only if it obtains all legally required consents and permissions', 'Customer ', ' collect, submit, and use ', ' data ', ' from user ', ' NULL ', ' if it obtains all legally required consents and permissions']]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must have and adhere to an appropriate Privacy Policy that complies with all relevant laws, policies, and regulations regarding the collection of user information.&gt;{#type1#,  &lt;  a Privacy Policy  ;  complies with  ;  all relevant laws, policies, and regulations  ;  regarding the collection of user information  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: Your Privacy Policy must inform users about your use of cookies, mobile device identifiers, or similar technologies for data collection.&gt;{#type1#,  &lt;Your Privacy Policy ; informs users ; your use of cookies, mobile device identifiers, or similar technologies ; for data collection ; NULL ; NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: You must disclose your use of Google Analytics and how it collects and processes data, potentially by linking to Google's privacy policy for partners.&gt;{#type2#,  &lt; you  ;  must disclose  ;  your use of Google Analytics and how it collects and processes data  ;  NULL  ;  potentially by linking to Google's privacy policy for partners  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Google&gt;}
-&lt;Description: You are required to provide clear and comprehensive information about, and obtain consent for, storing and accessing cookies or other information on users' devices where required by law.&gt;{#type1#,  &lt;  You  ;  provide information and obtain consent  ;  storing and accessing cookies or other information  ;  on users' devices  ;  where required by law  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: You must have and abide by an appropriate Privacy Policy that complies with all applicable laws, policies, and regulations regarding the collection of information from Users.&gt;{#type1#, &lt;You ; must have and abide by ; an appropriate Privacy Policy ; from Users ; to comply with all applicable laws, policies, and regulations regarding the collection of information ; NULL&gt;}
+&lt;Description: Your Privacy Policy must disclose Your use of cookies, mobile device identifiers, or similar technology used to collect data.&gt;{#type2#, &lt;Your Privacy Policy ; must disclose ; Your use of cookies, mobile device identifiers, or similar technology used to collect data ; NULL ; NULL ; NULL&gt;, &lt;NULL&gt;}
+&lt;Description: You must disclose the use of Google Analytics and how it collects and processes data, including by providing a prominent link to Google's privacy policy for partners.&gt;{#type2#, &lt;You ; must disclose ; the use of Google Analytics and how it collects and processes data ; NULL ; NULL ; providing a prominent link to Google's privacy policy for partners&gt;}, &lt;Third party is: Google Analytics&gt;
 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must have and adhere to an appropriate Privacy Policy that complies with all relevant laws, policies, and regulations regarding the collection of user information.', '  a Privacy Policy  ', '  complies with  ', '  all relevant laws, policies, and regulations  ', '  regarding the collection of user information  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: Your Privacy Policy must inform users about your use of cookies, mobile device identifiers, or similar technologies for data collection.', 'Your Privacy Policy ', ' informs users ', ' your use of cookies, mobile device identifiers, or similar technologies ', ' for data collection ', ' NULL ', ' NULL', 'need a privacy policy'], ['type2', "Description: You must disclose your use of Google Analytics and how it collects and processes data, potentially by linking to Google's privacy policy for partners.", ' you  ', '  must disclose  ', '  your use of Google Analytics and how it collects and processes data  ', '  NULL  ', "  potentially by linking to Google's privacy policy for partners  ", '  NULL', 'need to provide a link', 'Third party is: Google'], ['type1', "Description: You are required to provide clear and comprehensive information about, and obtain consent for, storing and accessing cookies or other information on users' devices where required by law.", '  You  ', '  provide information and obtain consent  ', '  storing and accessing cookies or other information  ', "  on users' devices  ", '  where required by law  ', '  NULL', 'need a privacy policy']]</t>
+          <t>[['type1', 'Description: You must have and abide by an appropriate Privacy Policy that complies with all applicable laws, policies, and regulations regarding the collection of information from Users.', 'You ', ' must have and abide by ', ' an appropriate Privacy Policy ', ' from Users ', ' to comply with all applicable laws, policies, and regulations regarding the collection of information ', ' NULL'], ['type2', 'Description: Your Privacy Policy must disclose Your use of cookies, mobile device identifiers, or similar technology used to collect data.', 'Your Privacy Policy ', ' must disclose ', ' Your use of cookies, mobile device identifiers, or similar technology used to collect data ', ' NULL ', ' NULL ', ' NULL', 'NULL'], ['type2', "Description: You must disclose the use of Google Analytics and how it collects and processes data, including by providing a prominent link to Google's privacy policy for partners.", 'You ', ' must disclose ', ' the use of Google Analytics and how it collects and processes data ', ' NULL ', ' NULL ', " providing a prominent link to Google's privacy policy for partners", 'Third party is: Google Analytics']]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: If End Users provide You with, or You gather or access End User Information, You must inform the End Users that certain information will be available to You.&gt;{#type1#,  &lt;  You  ;  inform  ;  certain information will be available to You  ;  End Users  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: You must provide a legally adequate privacy notice to End Users regarding the End User Information.&gt;{#type1#,  &lt;  a legally adequate privacy notice  ;  provide  ;  End User Information  ;  to End Users  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: You must obtain the End User鈥檚 permission to gather and use End User Information.&gt;{#type1#,  &lt;  You  ;  obtain  ;  End User's permission  ;  NULL  ;  to gather and use End User Information  ;  NULL&gt;  ,  &lt;NULL&gt;}
+          <t xml:space="preserve">&lt;Description: You must provide a legally adequate privacy notice to End Users about it&gt;{#type2#, &lt;You ; must provide ; a legally adequate privacy notice ; to End Users ; NULL ; NULL&gt;, &lt;NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: If End Users provide You with, or You gather or access End User Information, You must inform the End Users that certain information will be available to You.', '  You  ', '  inform  ', '  certain information will be available to You  ', '  End Users  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: You must provide a legally adequate privacy notice to End Users regarding the End User Information.', '  a legally adequate privacy notice  ', '  provide  ', '  End User Information  ', '  to End Users  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: You must obtain the End User鈥檚 permission to gather and use End User Information.', '  You  ', '  obtain  ', "  End User's permission  ", '  NULL  ', '  to gather and use End User Information  ', '  NULL', 'NULL']]</t>
+          <t>[['type2', 'Description: You must provide a legally adequate privacy notice to End Users about it', 'You ', ' must provide ', ' a legally adequate privacy notice ', ' to End Users ', ' NULL ', ' NULL', 'NULL']]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must adhere to a privacy policy that complies with all applicable laws and industry standards.&gt;{#type1#,  &lt;  a privacy policy  ;  complies with  ;  all applicable laws and industry standards  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: You must post a privacy policy clearly and conspicuously within your application, in any store, and on any website where the application may be acquired.&gt;{#type1#,  &lt;  a privacy policy  ;  post  ;  clearly and conspicuously  ;  within your application, in any store, and on any website  ;  where the application may be acquired  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must contain a link to Flurry鈥檚 Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry鈥檚 use of User Data.&gt;{#type2#,  &lt; your privacy policy  ;  must contain  ;  a link to Flurry's Privacy Policy  ;  NULL  ;  to describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Flurry&gt;}
-&lt;Description: The privacy policy must include a statement advising users on how to opt-out of targeted ads on a device by device basis and provide active links to opt-out resources.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
+          <t xml:space="preserve">&lt;Description: Your privacy policy must comply with all applicable laws and industry standards.&gt;{#type1#, &lt;Your privacy policy ; must comply ; with all applicable laws and industry standards ; NULL ; NULL ; NULL&gt;}
+&lt;Description: Your privacy policy must be clearly and conspicuously posted within your application, in any store, and on any website where the application may be acquired.&gt;{#type2#, &lt;Your privacy policy ; must be posted ; within your application, in any store, and on any website where the application may be acquired ; from user ; NULL ; NULL&gt;}
+&lt;Description: Your privacy policy must provide notice of your use of tracking pixels, agents or other visitor identification technologies that collect, use, share and store data about end users.&gt;{#type2#,  &lt;Your privacy policy  ;  must provide notice  ;  your use of tracking pixels, agents or other visitor identification technologies that collect, use, share and store data  ;  about end users  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: NULL&gt; }
+&lt;Description: Your privacy policy must contain a link to Flurry's Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data.&gt;{#type2#,  &lt;Your privacy policy  ;  must contain  ;  a link to Flurry锟斤拷s Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry锟斤拷s use of User Data  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: Flurry&gt; }
+&lt;Description: You must advise users who wish to opt-out that they may do so on a device by device basis by enabling 'Limit Ad Tracking' and provide active links to opt-out resources.&gt;{#type3-Q1#, &lt;NULL ; NULL ; NULL ; NULL ; NULL ; NULL&gt; , &lt;mention opt-out : Limit Ad Tracking&gt; , &lt;need link to guide how to opt-out&gt;}
 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must adhere to a privacy policy that complies with all applicable laws and industry standards.', '  a privacy policy  ', '  complies with  ', '  all applicable laws and industry standards  ', '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: You must post a privacy policy clearly and conspicuously within your application, in any store, and on any website where the application may be acquired.', '  a privacy policy  ', '  post  ', '  clearly and conspicuously  ', '  within your application, in any store, and on any website  ', '  where the application may be acquired  ', '  NULL', 'need a privacy policy'], ['type2', 'Description: The privacy policy must contain a link to Flurry鈥檚 Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry鈥檚 use of User Data.', ' your privacy policy  ', '  must contain  ', "  a link to Flurry's Privacy Policy  ", '  NULL  ', "  to describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data  ", '  NULL', 'need to provide a link', 'Third party is: Flurry'], ['type3-Q1', 'Description: The privacy policy must include a statement advising users on how to opt-out of targeted ads on a device by device basis and provide active links to opt-out resources.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
+          <t>[['type1', 'Description: Your privacy policy must comply with all applicable laws and industry standards.', 'Your privacy policy ', ' must comply ', ' with all applicable laws and industry standards ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy policy must be clearly and conspicuously posted within your application, in any store, and on any website where the application may be acquired.', 'Your privacy policy ', ' must be posted ', ' within your application, in any store, and on any website where the application may be acquired ', ' from user ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy policy must provide notice of your use of tracking pixels, agents or other visitor identification technologies that collect, use, share and store data about end users.', 'Your privacy policy  ', '  must provide notice  ', '  your use of tracking pixels, agents or other visitor identification technologies that collect, use, share and store data  ', '  about end users  ', '  NULL  ', '  NULL', 'Third party is: NULL'], ['type2', "Description: Your privacy policy must contain a link to Flurry's Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data.", 'Your privacy policy  ', '  must contain  ', '  a link to Flurry锟斤拷s Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry锟斤拷s use of User Data  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: Flurry'], ['type3-Q1', "Description: You must advise users who wish to opt-out that they may do so on a device by device basis by enabling 'Limit Ad Tracking' and provide active links to opt-out resources.", 'NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL', 'mention opt-out : Limit Ad Tracking', 'need link to guide how to opt-out']]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Licensee is responsible for obtaining necessary consents to allow OneSignal to collect information from End Users' devices or browsers.&gt;{#type1#,  &lt;  Licensee  ;  obtaining necessary consents  ;  allow OneSignal to collect information  ;  from End Users' devices or browsers  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
-&lt;Description: Licensee must publish privacy policies and disclosures for the Properties that are in compliance with applicable laws and the terms of this EULA.&gt;{#type1#,  &lt;  Licensee  ;  publish  ;  privacy policies and disclosures  ;  for the Properties  ;  in compliance with applicable laws and the terms of this EULA  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policies must clearly disclose the collection of SDK Information and its intended use, as detailed in Section 5 of the EULA.&gt;{#type1#, &lt;The privacy policies ; must disclose ; the collection of SDK Information and its intended use ; NULL ; as detailed in Section 5 of the EULA ; NULL&gt;, &lt;NO link&gt;, &lt;Third party is: NULL&gt;}
+          <t xml:space="preserve">&lt;Description: Licensee must publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA&gt;{#type2#, &lt;Licensee  ;  must publish  ;  privacy policies and disclosures  ;  for the Properties  ;  comply with applicable law and the terms of this EULA  ;  NULL&gt;  ,  &lt;NULL&gt;}
+&lt;Description: The privacy policies must clearly disclose that the SDK Information will be collected and specify its usage as set forth in Section 5&gt;{#type2#, &lt;The privacy policies ; must clearly disclose ; the SDK Information will be collected and specify its usage ; NULL ; as set forth in Section 5 ; NULL&gt; , &lt;Third party is: NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[['type1', "Description: Licensee is responsible for obtaining necessary consents to allow OneSignal to collect information from End Users' devices or browsers.", '  Licensee  ', '  obtaining necessary consents  ', '  allow OneSignal to collect information  ', "  from End Users' devices or browsers  ", '  NULL  ', '  NULL', 'NULL'], ['type1', 'Description: Licensee must publish privacy policies and disclosures for the Properties that are in compliance with applicable laws and the terms of this EULA.', '  Licensee  ', '  publish  ', '  privacy policies and disclosures  ', '  for the Properties  ', '  in compliance with applicable laws and the terms of this EULA  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policies must clearly disclose the collection of SDK Information and its intended use, as detailed in Section 5 of the EULA.', 'The privacy policies ', ' must disclose ', ' the collection of SDK Information and its intended use ', ' NULL ', ' as detailed in Section 5 of the EULA ', ' NULL', 'NO link', 'Third party is: NULL']]</t>
+          <t>[['type2', 'Description: Licensee must publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA', 'Licensee  ', '  must publish  ', '  privacy policies and disclosures  ', '  for the Properties  ', '  comply with applicable law and the terms of this EULA  ', '  NULL', 'NULL'], ['type2', 'Description: The privacy policies must clearly disclose that the SDK Information will be collected and specify its usage as set forth in Section 5', 'The privacy policies ', ' must clearly disclose ', ' the SDK Information will be collected and specify its usage ', ' NULL ', ' as set forth in Section 5 ', ' NULL', 'Third party is: NULL']]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Each party is required to maintain a privacy policy on their website.&gt;{#type1#,  &lt;Each party  ;  maintain  ;  a privacy policy  ;  on their website  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must provide details on how End Users can opt out of interest-based advertising, such as online behavioral or mobile cross-app advertising.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
+          <t xml:space="preserve">&lt;Description: A privacy policy can only be posted on a website if it describes how the party collects, uses, and shares information.&gt;{#type2#, &lt;A privacy policy  ;  can be posted  ;  how the party collects, uses, and shares information  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: the party&gt; }
+&lt;Description: A privacy policy can only be posted on a website if it provides information about how an End User can opt out of interest-based advertising.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt out: interest-based advertising&gt;, &lt;need link to guide how to opt-out&gt;}
+&lt;Description: The opt-out information can only be provided if it includes methods for online behavioral or mobile cross-app advertising.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt out: online behavioral or mobile cross-app advertising&gt;, &lt;NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Each party is required to maintain a privacy policy on their website.', 'Each party  ', '  maintain  ', '  a privacy policy  ', '  on their website  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type3-Q1', 'Description: The privacy policy must provide details on how End Users can opt out of interest-based advertising, such as online behavioral or mobile cross-app advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
+          <t>[['type2', 'Description: A privacy policy can only be posted on a website if it describes how the party collects, uses, and shares information.', 'A privacy policy  ', '  can be posted  ', '  how the party collects, uses, and shares information  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: the party'], ['type3-Q1', 'Description: A privacy policy can only be posted on a website if it provides information about how an End User can opt out of interest-based advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt out: interest-based advertising', 'need link to guide how to opt-out'], ['type3-Q1', 'Description: The opt-out information can only be provided if it includes methods for online behavioral or mobile cross-app advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt out: online behavioral or mobile cross-app advertising', 'NULL']]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Ensure that the privacy notice or privacy policy for the Stripe Application is easily accessible to the Business User.&gt;{#type1#,  &lt;  a privacy notice or privacy policy  ;  is accessible  ;  the Stripe Application  ;  to the Business User  ;  NULL  ;  easily&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: Include a link to the privacy notice or privacy policy in the Stripe Application's listing within the Stripe Apps Marketplace.&gt;{#type1#,  &lt;  the Stripe Application's listing  ;  include  ;  a link to the privacy notice or privacy policy  ;  within the Stripe Apps Marketplace  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: Your Stripe Application can only be made available to the Business User if the privacy notice or privacy policy is readily accessible&gt;{#type2#, &lt;Your Stripe Application  ;  can be made available  ;  privacy notice or privacy policy  ;  from user  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: Stripe&gt;}
+&lt;Description: This includes providing a link in your Stripe App listing in the Stripe Apps Marketplace&gt;{#type2#, &lt;Your privacy policy ; providing a link ; in your Stripe App listing in the Stripe Apps Marketplace ; share to Stripe Apps Marketplace ; NULL ; NULL&gt;, &lt;Third party is: Stripe Apps Marketplace&gt;}
 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Ensure that the privacy notice or privacy policy for the Stripe Application is easily accessible to the Business User.', '  a privacy notice or privacy policy  ', '  is accessible  ', '  the Stripe Application  ', '  to the Business User  ', '  NULL  ', '  easily', 'need a privacy policy'], ['type1', "Description: Include a link to the privacy notice or privacy policy in the Stripe Application's listing within the Stripe Apps Marketplace.", "  the Stripe Application's listing  ", '  include  ', '  a link to the privacy notice or privacy policy  ', '  within the Stripe Apps Marketplace  ', '  NULL  ', '  NULL', 'need a privacy policy']]</t>
+          <t>[['type2', 'Description: Your Stripe Application can only be made available to the Business User if the privacy notice or privacy policy is readily accessible', 'Your Stripe Application  ', '  can be made available  ', '  privacy notice or privacy policy  ', '  from user  ', '  NULL  ', '  NULL', 'Third party is: Stripe'], ['type2', 'Description: This includes providing a link in your Stripe App listing in the Stripe Apps Marketplace', 'Your privacy policy ', ' providing a link ', ' in your Stripe App listing in the Stripe Apps Marketplace ', ' share to Stripe Apps Marketplace ', ' NULL ', ' NULL', 'Third party is: Stripe Apps Marketplace']]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Customer is responsible for making all necessary disclosures to their users and obtaining the required consents and authorizations for RevenueCat to perform the Services.&gt;{#type1#,  &lt;  Customer  ;  making all necessary disclosures  ;  required consents and authorizations  ;  to their users  ;  for RevenueCat to perform the Services  ;  NULL&gt;  ,  &lt;NULL&gt;}
-&lt;Description: This includes RevenueCat's and Stripe's processing of personally identifiable information of the users, which must be disclosed in Customer's privacy policy.&gt;{#type2#,  &lt; Customer's privacy policy  ;  must disclose  ;  RevenueCat's and Stripe's processing of personally identifiable information of the users  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: RevenueCat and Stripe&gt;}
-&lt;Description: The disclosure should be made in a reasonable and industry-standard manner within the Customer's privacy policy.&gt;{#type1#,  &lt;  The disclosure  ;  should be made  ;  a reasonable and industry-standard manner  ;  within the Customer's privacy policy  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: Customer's data collection and use practices can only be implemented if all necessary disclosures are made to, and consents and authorizations are obtained from, Customer's users.&gt;{#type2#, &lt;Customer's privacy policy ; must implement data collection and use practices ; necessary disclosures, consents and authorizations ; from Customer's users ; NULL ; NULL&gt;}
+&lt;Description: RevenueCat's and Stripe's processing of personally identifiable information relating to users can only take place if Customer has made all necessary disclosures to, and obtained consents and authorizations from, its users.&gt;{#type2#,  &lt;Customer  ;  has made  ;  all necessary disclosures to, and obtained consents and authorizations from, its users  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: RevenueCat and Stripe&gt; }
+&lt;Description: Customer's privacy policy must disclose RevenueCat's and Stripe's processing of such information in a reasonable and industry-standard manner.&gt;{#type2#,  &lt;Customer's privacy policy  ;  must disclose  ;  RevenueCat's and Stripe's processing of such information  ;  NULL  ;  in a reasonable and industry-standard manner  ;  NULL&gt;  ,  &lt;Third party is: RevenueCat and Stripe&gt; }
+&lt;Description: Customer must make all necessary disclosures in a reasonable and industry-standard manner.&gt;{#type2#, &lt;Customer ; make all necessary disclosures ; in a reasonable and industry-standard manner ; NULL ; NULL ; NULL&gt;, &lt;NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Customer is responsible for making all necessary disclosures to their users and obtaining the required consents and authorizations for RevenueCat to perform the Services.', '  Customer  ', '  making all necessary disclosures  ', '  required consents and authorizations  ', '  to their users  ', '  for RevenueCat to perform the Services  ', '  NULL', 'NULL'], ['type2', "Description: This includes RevenueCat's and Stripe's processing of personally identifiable information of the users, which must be disclosed in Customer's privacy policy.", " Customer's privacy policy  ", '  must disclose  ', "  RevenueCat's and Stripe's processing of personally identifiable information of the users  ", '  NULL  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: RevenueCat and Stripe'], ['type1', "Description: The disclosure should be made in a reasonable and industry-standard manner within the Customer's privacy policy.", '  The disclosure  ', '  should be made  ', '  a reasonable and industry-standard manner  ', "  within the Customer's privacy policy  ", '  NULL  ', '  NULL', 'need a privacy policy']]</t>
+          <t>[['type2', "Description: Customer's data collection and use practices can only be implemented if all necessary disclosures are made to, and consents and authorizations are obtained from, Customer's users.", "Customer's privacy policy ", ' must implement data collection and use practices ', ' necessary disclosures, consents and authorizations ', " from Customer's users ", ' NULL ', ' NULL'], ['type2', "Description: RevenueCat's and Stripe's processing of personally identifiable information relating to users can only take place if Customer has made all necessary disclosures to, and obtained consents and authorizations from, its users.", 'Customer  ', '  has made  ', '  all necessary disclosures to, and obtained consents and authorizations from, its users  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: RevenueCat and Stripe'], ['type2', "Description: Customer's privacy policy must disclose RevenueCat's and Stripe's processing of such information in a reasonable and industry-standard manner.", "Customer's privacy policy  ", '  must disclose  ', "  RevenueCat's and Stripe's processing of such information  ", '  NULL  ', '  in a reasonable and industry-standard manner  ', '  NULL', 'Third party is: RevenueCat and Stripe'], ['type2', 'Description: Customer must make all necessary disclosures in a reasonable and industry-standard manner.', 'Customer ', ' make all necessary disclosures ', ' in a reasonable and industry-standard manner ', ' NULL ', ' NULL ', ' NULL', 'NULL']]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Display the service's privacy policy before allowing users to download, install, or sign up for the service.&gt;{#type1#, &lt;service's privacy policy; display; before allowing users to download, install, or sign up for the service; NULL; NULL; NULL&gt;, &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must include the information collected from users, how it is used and shared (including with X), and contact details for inquiries about their information.&gt;{#type2#,  &lt; privacy policy  ;  must include  ;  information collected from users, how it is used and shared (including with X), contact details  ;  shared with X  ;  for inquiries about their information  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: X&gt;}
+          <t xml:space="preserve">&lt;Description: People can only download, install, or sign up to your service if your service's privacy policy is displayed to them.&gt;{#type2#, &lt;your service's privacy policy ; is displayed ; People can only download, install, or sign up to your service ; from user ; NULL ; NULL&gt;}
+&lt;Description: Your privacy policy must disclose the information that you collect from people who use your service.&gt;{#type1#, &lt;Your privacy policy ; must disclose ; the information that you collect from people who use your service ; NULL ; NULL ; NULL&gt;}
+&lt;Description: Your privacy policy must explain how you use and share that information (including with X).&gt;{#type2#,  &lt;Your privacy policy  ;  must explain  ;  how you use and share that information (including with X)  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: X&gt; }
+&lt;Description: Your privacy policy must provide contact information for people to inquire and request regarding their information.&gt;{#type1#, &lt;Your privacy policy ; provide ; contact information for people to inquire and request regarding their information ; NULL ; NULL ; NULL&gt;}
+&lt;Description: Your privacy policy must be consistent with all applicable laws and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates.&gt;{#type2#, &lt;Your privacy policy ; must be consistent with ; all applicable laws and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates ; NULL ; NULL ; NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[['type1', "Description: Display the service's privacy policy before allowing users to download, install, or sign up for the service.", "service's privacy policy", ' display', ' before allowing users to download, install, or sign up for the service', ' NULL', ' NULL', ' NULL', 'need a privacy policy'], ['type2', 'Description: The privacy policy must include the information collected from users, how it is used and shared (including with X), and contact details for inquiries about their information.', ' privacy policy  ', '  must include  ', '  information collected from users, how it is used and shared (including with X), contact details  ', '  shared with X  ', '  for inquiries about their information  ', '  NULL', 'NO link', 'Third party is: X']]</t>
+          <t>[['type2', "Description: People can only download, install, or sign up to your service if your service's privacy policy is displayed to them.", "your service's privacy policy ", ' is displayed ', ' People can only download, install, or sign up to your service ', ' from user ', ' NULL ', ' NULL'], ['type1', 'Description: Your privacy policy must disclose the information that you collect from people who use your service.', 'Your privacy policy ', ' must disclose ', ' the information that you collect from people who use your service ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy policy must explain how you use and share that information (including with X).', 'Your privacy policy  ', '  must explain  ', '  how you use and share that information (including with X)  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: X'], ['type1', 'Description: Your privacy policy must provide contact information for people to inquire and request regarding their information.', 'Your privacy policy ', ' provide ', ' contact information for people to inquire and request regarding their information ', ' NULL ', ' NULL ', ' NULL'], ['type2', "Description: Your privacy policy must be consistent with all applicable laws and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates.", 'Your privacy policy ', ' must be consistent with ', " all applicable laws and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates ", ' NULL ', ' NULL ', ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Developers must ensure that privacy policies related to the Relevant Service are easily accessible at all times, including before and after a user begins to use the service.&gt;{#type1#,  &lt;Developers ; ensure ; privacy policies related to the Relevant Service ; easily accessible at all times, including before and after a user begins to use the service ; NULL ; NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: Relevant Service-related privacy policies can only be implemented if they are disclosed by developers&gt;{#type2#,  &lt;Relevant Service-related privacy policies  ;  can only be implemented  ;  they are disclosed  ;  by developers  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
+&lt;Description: Privacy policies can only be considered compliant if they are easily viewable to anyone at any time&gt;{#type2#, &lt;Privacy policies  ;  can be considered  ;  compliant  ;  easily viewable to anyone at any time ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
+&lt;Description: Privacy policies can only be considered compliant if they are available before and after a user starts to use the Relevant Service&gt;{#type2#, &lt;Privacy policies  ;  can be considered  ;  compliant  ;  NULL  ;  available before and after a user starts to use the Relevant Service  ;  NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Developers must ensure that privacy policies related to the Relevant Service are easily accessible at all times, including before and after a user begins to use the service.', 'Developers ', ' ensure ', ' privacy policies related to the Relevant Service ', ' easily accessible at all times, including before and after a user begins to use the service ', ' NULL ', ' NULL', 'need a privacy policy']]</t>
+          <t>[['type2', 'Description: Relevant Service-related privacy policies can only be implemented if they are disclosed by developers', 'Relevant Service-related privacy policies  ', '  can only be implemented  ', '  they are disclosed  ', '  by developers  ', '  NULL  ', '  NULL', 'NULL'], ['type2', 'Description: Privacy policies can only be considered compliant if they are easily viewable to anyone at any time', 'Privacy policies  ', '  can be considered  ', '  compliant  ', '  easily viewable to anyone at any time ', '  NULL  ', '  NULL', 'NULL'], ['type2', 'Description: Privacy policies can only be considered compliant if they are available before and after a user starts to use the Relevant Service', 'Privacy policies  ', '  can be considered  ', '  compliant  ', '  NULL  ', '  available before and after a user starts to use the Relevant Service  ', '  NULL']]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must have a privacy policy that clearly informs end users about the personal data collected and how it is used and shared, including for advertising purposes, with WeChat or Weixin and other third parties.&gt;{#type2#,  &lt; you  ;  must have  ;  a privacy policy  ;  NULL  ;  to clearly inform end users about the personal data collected and how it is used and shared  ;  including for advertising purposes, with WeChat or Weixin and other third parties&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: WeChat or Weixin and other third parties&gt;}
-&lt;Description: The privacy policy must comply with and be consistent with the terms and requirements of the Agreement and the WeChat or Weixin Privacy Policy.&gt;{#type1#,  &lt;  The privacy policy  ;   comply with and be consistent with   ;    the terms and requirements of the Agreement and the WeChat or Weixin Privacy Policy  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: Your application or service can only collect, store, process or use data of end users (including any personal data or information) if it complies with the privacy policy and other requirements&gt;{#type2#,  &lt;Your application or service  ;  can collect, store, process or use  ;  data of end users (including any personal data or information)  ;  from end users  ;  NULL  ;  if it complies with the privacy policy and other requirements&gt;  ,  &lt;NULL&gt;}
+&lt;Description: You must establish a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information&gt;{#type1#, &lt;You ; establish a privacy policy ; a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information ; from end users ; NULL ; NULL&gt;}
+&lt;Description: Your privacy policy must comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy&gt;{#type2#, &lt;Your privacy policy ; must comply with and be consistent with ; the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy ; NULL ; NULL ; NULL&gt; , &lt;Third party is: WeChat or Weixin&gt;}
 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: You must have a privacy policy that clearly informs end users about the personal data collected and how it is used and shared, including for advertising purposes, with WeChat or Weixin and other third parties.', ' you  ', '  must have  ', '  a privacy policy  ', '  NULL  ', '  to clearly inform end users about the personal data collected and how it is used and shared  ', '  including for advertising purposes, with WeChat or Weixin and other third parties', 'NO link', 'Third party is: WeChat or Weixin and other third parties'], ['type1', 'Description: The privacy policy must comply with and be consistent with the terms and requirements of the Agreement and the WeChat or Weixin Privacy Policy.', '  The privacy policy  ', '   comply with and be consistent with   ', '    the terms and requirements of the Agreement and the WeChat or Weixin Privacy Policy  ', '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy']]</t>
+          <t>[['type2', 'Description: Your application or service can only collect, store, process or use data of end users (including any personal data or information) if it complies with the privacy policy and other requirements', 'Your application or service  ', '  can collect, store, process or use  ', '  data of end users (including any personal data or information)  ', '  from end users  ', '  NULL  ', '  if it complies with the privacy policy and other requirements', 'NULL'], ['type1', 'Description: You must establish a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information', 'You ', ' establish a privacy policy ', ' a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information ', ' from end users ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy policy must comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy', 'Your privacy policy ', ' must comply with and be consistent with ', ' the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy ', ' NULL ', ' NULL ', ' NULL', 'Third party is: WeChat or Weixin']]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: If using the Platform to process Platform Data, a privacy policy must be provided and made publicly available and easily accessible.&gt;{#type1#,  &lt;  a privacy policy  ;  must be provided and made  ;  publicly available and easily accessible  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: Publicly available links to the privacy policy must be maintained in the privacy policy field in the App Dashboard settings and in any applicable App Store.&gt;{#type1#,  &lt;  Publicly available links  ;  must be maintained  ;  the privacy policy  ;  in the privacy policy field in the App Dashboard settings and in any applicable App Store  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: Ensure that the links to the privacy policy remain current and up to date.&gt;{#type1#,  &lt;  The privacy policy  ;    Ensure    ;    links to the privacy policy remain current and up to date    ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: You can only use the Platform to Process Platform Data if you provide and comply with a publicly available and easily accessible privacy policy.&gt;{#type1#, &lt;You  ;  use the Platform  ;  Process Platform Data  ;  NULL  ;  comply with a publicly available and easily accessible privacy policy  ;  NULL&gt;}
+&lt;Description: Your privacy policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.&gt;{#type2#, &lt;Your privacy policy ; must comply with ; applicable law and regulations ; NULL ; accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data ; NULL&gt;}
+&lt;Description: You must maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.&gt;{#type2#, &lt;You ; must maintain publicly available links ; to your privacy policies ; in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable ; to ensure the links remain current and up to date ; NULL&gt;, &lt;NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: If using the Platform to process Platform Data, a privacy policy must be provided and made publicly available and easily accessible.', '  a privacy policy  ', '  must be provided and made  ', '  publicly available and easily accessible  ', '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: Publicly available links to the privacy policy must be maintained in the privacy policy field in the App Dashboard settings and in any applicable App Store.', '  Publicly available links  ', '  must be maintained  ', '  the privacy policy  ', '  in the privacy policy field in the App Dashboard settings and in any applicable App Store  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: Ensure that the links to the privacy policy remain current and up to date.', '  The privacy policy  ', '    Ensure    ', '    links to the privacy policy remain current and up to date    ', '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy']]</t>
+          <t>[['type1', 'Description: You can only use the Platform to Process Platform Data if you provide and comply with a publicly available and easily accessible privacy policy.', 'You  ', '  use the Platform  ', '  Process Platform Data  ', '  NULL  ', '  comply with a publicly available and easily accessible privacy policy  ', '  NULL'], ['type2', 'Description: Your privacy policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.', 'Your privacy policy ', ' must comply with ', ' applicable law and regulations ', ' NULL ', ' accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data ', ' NULL'], ['type2', 'Description: You must maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.', 'You ', ' must maintain publicly available links ', ' to your privacy policies ', ' in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable ', ' to ensure the links remain current and up to date ', ' NULL', 'NULL']]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The developer must provide a full and accurate disclosure to their End Users regarding the privacy practices and policies applicable to the Application.&gt;{#type1#,  &lt;  The developer  ;  provide  ;  a full and accurate disclosure  ;  to their End Users  ;  regarding the privacy practices and policies applicable to the Application  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: Your disclosure to End Users can only be complete and accurate if you provide all necessary information about the data collection and use practices associated with the Application.&gt;{#type1#, &lt;Your disclosure to End Users ; can be complete and accurate ; all necessary information about the data collection and use practices associated with the Application ; NULL ; NULL ; NULL&gt;}
+&lt;Description: Your privacy practices and policies applicable to the Application can only be disclosed if you provide clear and prominent notice to End Users about the collection, use, sharing, and storage of their personal information.&gt;{#type2#, &lt;Your privacy practices and policies  ;  can only be disclosed  ;  the collection, use, sharing, and storage of their personal information  ;  from End Users  ;  NULL  ;  NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: The developer must provide a full and accurate disclosure to their End Users regarding the privacy practices and policies applicable to the Application.', '  The developer  ', '  provide  ', '  a full and accurate disclosure  ', '  to their End Users  ', '  regarding the privacy practices and policies applicable to the Application  ', '  NULL', 'need a privacy policy']]</t>
+          <t>[['type1', 'Description: Your disclosure to End Users can only be complete and accurate if you provide all necessary information about the data collection and use practices associated with the Application.', 'Your disclosure to End Users ', ' can be complete and accurate ', ' all necessary information about the data collection and use practices associated with the Application ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy practices and policies applicable to the Application can only be disclosed if you provide clear and prominent notice to End Users about the collection, use, sharing, and storage of their personal information.', 'Your privacy practices and policies  ', '  can only be disclosed  ', '  the collection, use, sharing, and storage of their personal information  ', '  from End Users  ', '  NULL  ', '  NULL']]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must provide a privacy policy for your Application that is easily accessible and linked from the Application.&gt;{#type1#,  &lt;  a privacy policy  ;  provide  ;  your Application  ;  easily accessible and linked from the Application  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must incorporate by reference and link to the Snap Privacy Policy.&gt;{#type2#,  &lt; your privacy policy  ;  must incorporate by reference and link  ;  the Snap Privacy Policy  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Snap&gt;}
-&lt;Description: The privacy policy must explain how and why the Application uses, processes, and shares user information with Snap and other third parties.&gt;{#type2#,  &lt; The privacy policy  ;  must explain  ;  how and why the Application uses, processes, and shares user information  ;  with Snap and other third parties  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: Snap&gt;}
+          <t xml:space="preserve">&lt;Description: Your Application can only collect and process user data if you provide and adhere to a published privacy policy&gt;{#type2#, &lt;Your Application ; collect and process ; user data ; from user ; NULL ; if you provide and adhere to a published privacy policy&gt;, &lt;NULL&gt;}
+&lt;Description: Your privacy policy must be easily accessible and conspicuously linked from the Application&gt;{#type2#, &lt;Your privacy policy ; must be easily accessible and conspicuously linked ; from the Application ; from user ; NULL ; NULL&gt;, &lt;NULL&gt;}
+&lt;Description: Your privacy policy must incorporate by reference and link to the Snap Privacy Policy&gt;{#type2#,  &lt;Your privacy policy  ;  must incorporate by reference and link  ;  the Snap Privacy Policy  ;  NULL  ;  NULL  ;  NULL&gt;}
+&lt;Description: Your privacy policy must clearly and accurately describe to users what user information is accessed, collected, and stored by you and your Application&gt;{#type1#, &lt;Your privacy policy ; must clearly and accurately describe ; what user information is accessed, collected, and stored by you and your Application ; NULL ; NULL ; NULL&gt;}
+&lt;Description: Your privacy policy must explain how and why the user information is used, processed, and shared with Snap and other third parties&gt;{#type2#, &lt;Your privacy policy ; must explain ; how and why user information is used, processed, and shared ; with Snap and other third parties ; NULL ; NULL&gt; , &lt;Third party is: Snap and other third parties&gt; }
 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must provide a privacy policy for your Application that is easily accessible and linked from the Application.', '  a privacy policy  ', '  provide  ', '  your Application  ', '  easily accessible and linked from the Application  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type2', 'Description: The privacy policy must incorporate by reference and link to the Snap Privacy Policy.', ' your privacy policy  ', '  must incorporate by reference and link  ', '  the Snap Privacy Policy  ', '  NULL  ', '  NULL  ', '  NULL', 'need to provide a link', 'Third party is: Snap'], ['type2', 'Description: The privacy policy must explain how and why the Application uses, processes, and shares user information with Snap and other third parties.', ' The privacy policy  ', '  must explain  ', '  how and why the Application uses, processes, and shares user information  ', '  with Snap and other third parties  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: Snap']]</t>
+          <t>[['type2', 'Description: Your Application can only collect and process user data if you provide and adhere to a published privacy policy', 'Your Application ', ' collect and process ', ' user data ', ' from user ', ' NULL ', ' if you provide and adhere to a published privacy policy', 'NULL'], ['type2', 'Description: Your privacy policy must be easily accessible and conspicuously linked from the Application', 'Your privacy policy ', ' must be easily accessible and conspicuously linked ', ' from the Application ', ' from user ', ' NULL ', ' NULL', 'NULL'], ['type2', 'Description: Your privacy policy must incorporate by reference and link to the Snap Privacy Policy', 'Your privacy policy  ', '  must incorporate by reference and link  ', '  the Snap Privacy Policy  ', '  NULL  ', '  NULL  ', '  NULL'], ['type1', 'Description: Your privacy policy must clearly and accurately describe to users what user information is accessed, collected, and stored by you and your Application', 'Your privacy policy ', ' must clearly and accurately describe ', ' what user information is accessed, collected, and stored by you and your Application ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy policy must explain how and why the user information is used, processed, and shared with Snap and other third parties', 'Your privacy policy ', ' must explain ', ' how and why user information is used, processed, and shared ', ' with Snap and other third parties ', ' NULL ', ' NULL', 'Third party is: Snap and other third parties']]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The privacy policy must explain the use, collection, and sharing of mobile device advertising identifiers and other personal information by the company and its third-party service providers, vendors, or partners, such as Tapjoy.&gt;{#type2#,  &lt; The privacy policy  ;  must explain  ;  the use, collection, and sharing of mobile device advertising identifiers and other personal information  ;  by the company and its third-party service providers, vendors, or partners  ;  such as Tapjoy  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: Tapjoy&gt;}
-&lt;Description: The privacy policy must cover the use of personal information for behaviorally targeted online advertising.&gt;{#type1#,  &lt;  a privacy policy  ;  cover  ;  the use of personal information  ;  for behaviorally targeted online advertising  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must include an opt-out link that directs users to an industry-recognized platform for opting out of online behavioral advertising.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
-&lt;Description: The privacy policy must provide California users with the ability to opt-out from the sale of their personal information.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
+          <t xml:space="preserve">&lt;Description: Your use, collection, and sharing of mobile device advertising identifiers and other personal information can only be implemented if your privacy policy describes these practices.&gt;{#type2#, &lt;Your privacy policy ; describes ; your use, collection, and sharing of mobile device advertising identifiers and other personal information ; NULL ; NULL ; NULL&gt;, &lt;Third party is: NULL&gt;}
+&lt;Description: Your privacy policy must include the use of information for behaviorally targeted online advertising.&gt;{#type1#, &lt;Your privacy policy ; include ; the use of information for behaviorally targeted online advertising ; NULL ; NULL ; NULL&gt;}
+&lt;Description: Your privacy policy must provide an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
+&lt;Description: You must provide California users the ability to opt-out from the sale of their information.&gt;{#type3-Q1#, &lt;NULL ; NULL ; NULL ; NULL ; NULL ; NULL&gt; , &lt;mention opt-out : sale of their information&gt; , &lt;NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: The privacy policy must explain the use, collection, and sharing of mobile device advertising identifiers and other personal information by the company and its third-party service providers, vendors, or partners, such as Tapjoy.', ' The privacy policy  ', '  must explain  ', '  the use, collection, and sharing of mobile device advertising identifiers and other personal information  ', '  by the company and its third-party service providers, vendors, or partners  ', '  such as Tapjoy  ', '  NULL', 'NO link', 'Third party is: Tapjoy'], ['type1', 'Description: The privacy policy must cover the use of personal information for behaviorally targeted online advertising.', '  a privacy policy  ', '  cover  ', '  the use of personal information  ', '  for behaviorally targeted online advertising  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type3-Q1', 'Description: The privacy policy must include an opt-out link that directs users to an industry-recognized platform for opting out of online behavioral advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out'], ['type3-Q1', 'Description: The privacy policy must provide California users with the ability to opt-out from the sale of their personal information.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
+          <t>[['type2', 'Description: Your use, collection, and sharing of mobile device advertising identifiers and other personal information can only be implemented if your privacy policy describes these practices.', 'Your privacy policy ', ' describes ', ' your use, collection, and sharing of mobile device advertising identifiers and other personal information ', ' NULL ', ' NULL ', ' NULL', 'Third party is: NULL'], ['type1', 'Description: Your privacy policy must include the use of information for behaviorally targeted online advertising.', 'Your privacy policy ', ' include ', ' the use of information for behaviorally targeted online advertising ', ' NULL ', ' NULL ', ' NULL'], ['type3-Q1', 'Description: Your privacy policy must provide an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt-out', 'need link to guide how to opt-out'], ['type3-Q1', 'Description: You must provide California users the ability to opt-out from the sale of their information.', 'NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL', 'mention opt-out : sale of their information', 'NULL']]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You are responsible for notifying your users about the data collection and disclosure practices associated with the use of our Services.&gt;{#type1#,  &lt;  you  ;  notifying  ;  your users  ;  about the data collection and disclosure practices associated with the use of our Services  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: You must obtain user consent for the data collection and use practices related to our Services.&gt;{#type1#,  &lt;  You  ;  obtain  ;  user consent  ;  for the data collection and use practices related to our Services  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
-&lt;Description: This includes obtaining consent for rewarding users for their engagement with Campaign Content in incentivized campaigns and for behaviorally targeted online advertising.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
+          <t xml:space="preserve">&lt;Description: Your use of our Services can only be implemented if you provide notice to your users of the data collection and disclosure practices involved and obtain their consent.&gt;{#type2#, &lt;Your use of our Services  ;  can only be implemented  ;  provide notice to your users of the data collection and disclosure practices involved and obtain their consent  ;  NULL  ;  NULL  ;  NULL&gt;}
+&lt;Description: Using our Services is only permissible if you provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services.&gt;{#type2#, &lt;You ; provide ; appropriate notices to users of your application(s) ; about data collection and use practices related to your use of our Services ; NULL ; NULL&gt;, &lt;Third party is: NULL&gt;}
+&lt;Description: Our Services can only be used if you obtain user consent to the data collection and use practices, including for rewarding user engagement and behaviorally targeted online advertising.&gt;{#type2#, &lt;Our Services  ;  can only be used  ;  user consent to the data collection and use practices, including for rewarding user engagement and behaviorally targeted online advertising  ;  from user  ;  NULL  ;  NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You are responsible for notifying your users about the data collection and disclosure practices associated with the use of our Services.', '  you  ', '  notifying  ', '  your users  ', '  about the data collection and disclosure practices associated with the use of our Services  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: You must obtain user consent for the data collection and use practices related to our Services.', '  You  ', '  obtain  ', '  user consent  ', '  for the data collection and use practices related to our Services  ', '  NULL  ', '  NULL', 'NULL'], ['type3-Q1', 'Description: This includes obtaining consent for rewarding users for their engagement with Campaign Content in incentivized campaigns and for behaviorally targeted online advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
+          <t>[['type2', 'Description: Your use of our Services can only be implemented if you provide notice to your users of the data collection and disclosure practices involved and obtain their consent.', 'Your use of our Services  ', '  can only be implemented  ', '  provide notice to your users of the data collection and disclosure practices involved and obtain their consent  ', '  NULL  ', '  NULL  ', '  NULL'], ['type2', 'Description: Using our Services is only permissible if you provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services.', 'You ', ' provide ', ' appropriate notices to users of your application(s) ', ' about data collection and use practices related to your use of our Services ', ' NULL ', ' NULL', 'Third party is: NULL'], ['type2', 'Description: Our Services can only be used if you obtain user consent to the data collection and use practices, including for rewarding user engagement and behaviorally targeted online advertising.', 'Our Services  ', '  can only be used  ', '  user consent to the data collection and use practices, including for rewarding user engagement and behaviorally targeted online advertising  ', '  from user  ', '  NULL  ', '  NULL']]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Partner must post a privacy policy in their App that complies with all applicable rules, laws, acts, and regulations.&gt;{#type1#,  &lt;  Partner  ;  post  ;  a privacy policy  ;  in their App  ;  complies with all applicable rules, laws, acts, and regulations  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must disclose to End Users any information that will be provided to ironSource or is accessible to ironSource in connection with the Services, as detailed in the IronSource Mobile Privacy Policy.&gt;{#type2#,  &lt; The privacy policy  ;  must disclose  ;  any information that will be provided to ironSource or is accessible to ironSource  ;  in connection with the Services  ;  as detailed in the IronSource Mobile Privacy Policy  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: ironSource&gt;}
-&lt;Description: If applicable, the privacy policy must include a mechanism for End Users to opt-out of receiving targeted ads based on their behavior and interests.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
+          <t xml:space="preserve">&lt;Description: The Partner must post a privacy policy in their App that adheres to all applicable rules, laws, acts, and regulations&gt;{#type2#, &lt;The Partner  ;  must post  ;  a privacy policy  ;  in their App  ;  adheres to all applicable rules, laws, acts, and regulations  ;  NULL&gt;}
+&lt;Description: Any information relating to End Users that will be provided or is accessible to ironSource must be legally disclosed in the privacy policy&gt;{#type2#, &lt;privacy policy ; must be legally disclosed ; any information relating to End Users that will be provided or is accessible to ironSource ; from user ; NULL ; NULL&gt; , &lt;Third party is: ironSource&gt;}
+&lt;Description: The privacy policy should include an opt-out mechanism for End Users regarding targeted ads based on their behavior and interests&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt-out : targeted ads based on their behavior and interests&gt;, &lt;need link to guide how to opt-out&gt;}
+&lt;Description: The Partner confirms that their privacy policy is consistent with the IronSource Mobile Privacy Policy&gt;{#type2#, &lt;The Partner  ;  confirms  ;  their privacy policy is consistent with the IronSource Mobile Privacy Policy  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: IronSource Mobile Privacy Policy&gt; }
 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Partner must post a privacy policy in their App that complies with all applicable rules, laws, acts, and regulations.', '  Partner  ', '  post  ', '  a privacy policy  ', '  in their App  ', '  complies with all applicable rules, laws, acts, and regulations  ', '  NULL', 'need a privacy policy'], ['type2', 'Description: The privacy policy must disclose to End Users any information that will be provided to ironSource or is accessible to ironSource in connection with the Services, as detailed in the IronSource Mobile Privacy Policy.', ' The privacy policy  ', '  must disclose  ', '  any information that will be provided to ironSource or is accessible to ironSource  ', '  in connection with the Services  ', '  as detailed in the IronSource Mobile Privacy Policy  ', '  NULL', 'NO link', 'Third party is: ironSource'], ['type3-Q1', 'Description: If applicable, the privacy policy must include a mechanism for End Users to opt-out of receiving targeted ads based on their behavior and interests.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
+          <t>[['type2', 'Description: The Partner must post a privacy policy in their App that adheres to all applicable rules, laws, acts, and regulations', 'The Partner  ', '  must post  ', '  a privacy policy  ', '  in their App  ', '  adheres to all applicable rules, laws, acts, and regulations  ', '  NULL'], ['type2', 'Description: Any information relating to End Users that will be provided or is accessible to ironSource must be legally disclosed in the privacy policy', 'privacy policy ', ' must be legally disclosed ', ' any information relating to End Users that will be provided or is accessible to ironSource ', ' from user ', ' NULL ', ' NULL', 'Third party is: ironSource'], ['type3-Q1', 'Description: The privacy policy should include an opt-out mechanism for End Users regarding targeted ads based on their behavior and interests', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt-out : targeted ads based on their behavior and interests', 'need link to guide how to opt-out'], ['type2', 'Description: The Partner confirms that their privacy policy is consistent with the IronSource Mobile Privacy Policy', 'The Partner  ', '  confirms  ', '  their privacy policy is consistent with the IronSource Mobile Privacy Policy  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: IronSource Mobile Privacy Policy']]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must provide clear, meaningful, and prominent notices to individuals regarding the collection, disclosure, use, and security of their personal data.&gt;{#type1#,  &lt;  You  ;  provide  ;  clear, meaningful, and prominent notices  ;  regarding the collection, disclosure, use, and security of their personal data  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: You must obtain necessary consent or permission from individuals before collecting their personal data.&gt;{#type1#,  &lt;  You  ;  obtain necessary consent or permission  ;  personal data  ;  from individuals  ;  before collecting  ;  NULL&gt;  ,  &lt;NULL&gt;}
-&lt;Description: You must maintain, display, and abide by a privacy policy that complies with all applicable privacy and data protection laws and regulations, and any requirements from platform providers.&gt;{#type1#,  &lt;  a privacy policy  ;  complies with  ;  all applicable privacy and data protection laws and regulations  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must explain that Services Data can be processed in accordance with the Terms and the Unity Privacy Policy or ironSource Privacy Policy, as applicable.&gt;{#type2#,  &lt;The privacy policy  ;  must explain  ;  Services Data can be processed  ;  in accordance with the Terms and the Unity Privacy Policy or ironSource Privacy Policy  ;  NULL  ;  as applicable&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: Unity Privacy Policy, ironSource Privacy Policy&gt;}
-&lt;Description: The privacy policy must notify users of your use of tracking technologies and provide a link to the Unity Privacy Policy or ironSource Privacy Policy, as applicable.&gt;{#type2#,  &lt; The privacy policy  ;  must notify  ;  users of your use of tracking technologies  ;  NULL  ;  provide a link to the Unity Privacy Policy or ironSource Privacy Policy  ;  as applicable&gt;  ,  &lt;need to provide a link&gt;  ,  &lt;Third party is: Unity Privacy Policy or ironSource Privacy Policy&gt;}
-&lt;Description: If applicable, the privacy policy must explain how End-Users can opt out of the Offerings.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
+          <t xml:space="preserve">&lt;Description: A privacy policy making appropriate disclosures to End-Users must be maintained, displayed and adhered to at all times.&gt;{#type2#, &lt;A privacy policy  ;  making appropriate disclosures  ;  End-Users  ;  NULL  ;  NULL  ;  NULL&gt;}
+&lt;Description: Your privacy policy must comply with all applicable privacy and data protection laws, regulations, requirements, terms, and guidelines.&gt;{#type1#, &lt;Your privacy policy ; must comply with ; all applicable privacy and data protection laws, regulations, requirements, terms, and guidelines ; NULL ; NULL ; NULL&gt;}
+&lt;Description: Your privacy policy must explain that Services Data will be processed in accordance with these Terms and the Unity Privacy Policy or ironSource Privacy Policy.&gt;{#type2#, &lt;Your privacy policy ; must explain ; Services Data will be processed in accordance with these Terms and the Unity Privacy Policy or ironSource Privacy Policy ; NULL ; NULL ; NULL&gt; , &lt;Third party is: Unity Privacy Policy and ironSource Privacy Policy&gt; }
+&lt;Description: Your privacy policy must disclose the use of tracking pixels, agents or other technologies that collect, use, share and store data about end users.&gt;{#type2#, &lt;Your privacy policy ; must disclose ; the use of tracking pixels, agents or other technologies that collect, use, share and store data ; about end users ; NULL ; NULL&gt;, &lt;Third party is: NULL&gt;}
+&lt;Description: Your privacy policy must include a link to the Unity Privacy Policy or ironSource Privacy Policy, as applicable.&gt;{#type2#, &lt;Your privacy policy ; must include ; a link to the Unity Privacy Policy or ironSource Privacy Policy ; NULL ; NULL ; NULL&gt;, &lt;Third party is: Unity Privacy Policy or ironSource Privacy Policy&gt;}
+&lt;Description: Your privacy policy must explain how End-Users can opt out of the Offerings, if applicable.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt out&gt;, &lt;NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must provide clear, meaningful, and prominent notices to individuals regarding the collection, disclosure, use, and security of their personal data.', '  You  ', '  provide  ', '  clear, meaningful, and prominent notices  ', '  regarding the collection, disclosure, use, and security of their personal data  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: You must obtain necessary consent or permission from individuals before collecting their personal data.', '  You  ', '  obtain necessary consent or permission  ', '  personal data  ', '  from individuals  ', '  before collecting  ', '  NULL', 'NULL'], ['type1', 'Description: You must maintain, display, and abide by a privacy policy that complies with all applicable privacy and data protection laws and regulations, and any requirements from platform providers.', '  a privacy policy  ', '  complies with  ', '  all applicable privacy and data protection laws and regulations  ', '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type2', 'Description: The privacy policy must explain that Services Data can be processed in accordance with the Terms and the Unity Privacy Policy or ironSource Privacy Policy, as applicable.', 'The privacy policy  ', '  must explain  ', '  Services Data can be processed  ', '  in accordance with the Terms and the Unity Privacy Policy or ironSource Privacy Policy  ', '  NULL  ', '  as applicable', 'NO link', 'Third party is: Unity Privacy Policy, ironSource Privacy Policy'], ['type2', 'Description: The privacy policy must notify users of your use of tracking technologies and provide a link to the Unity Privacy Policy or ironSource Privacy Policy, as applicable.', ' The privacy policy  ', '  must notify  ', '  users of your use of tracking technologies  ', '  NULL  ', '  provide a link to the Unity Privacy Policy or ironSource Privacy Policy  ', '  as applicable', 'need to provide a link', 'Third party is: Unity Privacy Policy or ironSource Privacy Policy'], ['type3-Q1', 'Description: If applicable, the privacy policy must explain how End-Users can opt out of the Offerings.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
+          <t>[['type2', 'Description: A privacy policy making appropriate disclosures to End-Users must be maintained, displayed and adhered to at all times.', 'A privacy policy  ', '  making appropriate disclosures  ', '  End-Users  ', '  NULL  ', '  NULL  ', '  NULL'], ['type1', 'Description: Your privacy policy must comply with all applicable privacy and data protection laws, regulations, requirements, terms, and guidelines.', 'Your privacy policy ', ' must comply with ', ' all applicable privacy and data protection laws, regulations, requirements, terms, and guidelines ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy policy must explain that Services Data will be processed in accordance with these Terms and the Unity Privacy Policy or ironSource Privacy Policy.', 'Your privacy policy ', ' must explain ', ' Services Data will be processed in accordance with these Terms and the Unity Privacy Policy or ironSource Privacy Policy ', ' NULL ', ' NULL ', ' NULL', 'Third party is: Unity Privacy Policy and ironSource Privacy Policy'], ['type2', 'Description: Your privacy policy must disclose the use of tracking pixels, agents or other technologies that collect, use, share and store data about end users.', 'Your privacy policy ', ' must disclose ', ' the use of tracking pixels, agents or other technologies that collect, use, share and store data ', ' about end users ', ' NULL ', ' NULL', 'Third party is: NULL'], ['type2', 'Description: Your privacy policy must include a link to the Unity Privacy Policy or ironSource Privacy Policy, as applicable.', 'Your privacy policy ', ' must include ', ' a link to the Unity Privacy Policy or ironSource Privacy Policy ', ' NULL ', ' NULL ', ' NULL', 'Third party is: Unity Privacy Policy or ironSource Privacy Policy'], ['type3-Q1', 'Description: Your privacy policy must explain how End-Users can opt out of the Offerings, if applicable.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt out', 'NULL']]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The user must have a privacy policy that is clearly labeled and easily accessible at all times when using the Services.&gt;{#type1#,  &lt;  a privacy policy  ;  is labeled and accessible  ;  NULL  ;  NULL  ;  NULL  ;  when using the Services&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must provide end users with clear and comprehensive information about cookies, device-specific information, location information, and other data stored on, accessed on, or collected from end users' devices.&gt;{#type1#,  &lt;  a privacy policy  ;  provide  ;  clear and comprehensive information about cookies, device-specific information, location information, and other data  ;  to end users  ;  stored on, accessed on, or collected from end users' devices  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The policy should include information about end users' options for cookie management.&gt;{#type1#,  &lt;  The policy  ;  include information  ;  end users' options for cookie management  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: You can use the Services only if you have a clearly labeled and easily accessible privacy policy&gt;{#type2#, &lt;You  ;  can use  ;  the Services  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
+&lt;Description: Your privacy policy must comply with all applicable laws&gt;{#type2#, &lt;Your privacy policy ; must comply ; with all applicable laws ; NULL ; NULL ; NULL&gt;, &lt;NULL&gt;}
+&lt;Description: You must provide end users with clear and comprehensive information about cookies&gt;{#type2#, &lt;You ; provide ; clear and comprehensive information about cookies ; to end users ; NULL ; NULL&gt;, &lt;NULL&gt;}
+&lt;Description: You must provide end users with clear and comprehensive information about device-specific information&gt;{#type2#, &lt;You ; provide ; clear and comprehensive information about device-specific information ; to end users ; NULL ; NULL&gt;, &lt;NULL&gt;}
+&lt;Description: You must provide end users with clear and comprehensive information about location information&gt;{#type2#, &lt;You ; provide ; clear and comprehensive information about location information ; to end users ; NULL ; NULL&gt;, &lt;NULL&gt;}
+&lt;Description: You must provide end users with clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices in connection with the Services&gt;{#type2#, &lt;You ; provide ; clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices in connection with the Services ; from end users' devices ; NULL ; NULL&gt;, &lt;Third party is: Services&gt;}
+&lt;Description: You must provide end users with information about their options for cookie management, as applicable&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt-out : cookie management&gt;, &lt;need link to guidance how to opt-out&gt;}
 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: The user must have a privacy policy that is clearly labeled and easily accessible at all times when using the Services.', '  a privacy policy  ', '  is labeled and accessible  ', '  NULL  ', '  NULL  ', '  NULL  ', '  when using the Services', 'need a privacy policy'], ['type1', "Description: The privacy policy must provide end users with clear and comprehensive information about cookies, device-specific information, location information, and other data stored on, accessed on, or collected from end users' devices.", '  a privacy policy  ', '  provide  ', '  clear and comprehensive information about cookies, device-specific information, location information, and other data  ', '  to end users  ', "  stored on, accessed on, or collected from end users' devices  ", '  NULL', 'need a privacy policy'], ['type1', "Description: The policy should include information about end users' options for cookie management.", '  The policy  ', '  include information  ', "  end users' options for cookie management  ", '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy']]</t>
+          <t>[['type2', 'Description: You can use the Services only if you have a clearly labeled and easily accessible privacy policy', 'You  ', '  can use  ', '  the Services  ', '  NULL  ', '  NULL  ', '  NULL', 'NULL'], ['type2', 'Description: Your privacy policy must comply with all applicable laws', 'Your privacy policy ', ' must comply ', ' with all applicable laws ', ' NULL ', ' NULL ', ' NULL', 'NULL'], ['type2', 'Description: You must provide end users with clear and comprehensive information about cookies', 'You ', ' provide ', ' clear and comprehensive information about cookies ', ' to end users ', ' NULL ', ' NULL', 'NULL'], ['type2', 'Description: You must provide end users with clear and comprehensive information about device-specific information', 'You ', ' provide ', ' clear and comprehensive information about device-specific information ', ' to end users ', ' NULL ', ' NULL', 'NULL'], ['type2', 'Description: You must provide end users with clear and comprehensive information about location information', 'You ', ' provide ', ' clear and comprehensive information about location information ', ' to end users ', ' NULL ', ' NULL', 'NULL'], ['type2', "Description: You must provide end users with clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices in connection with the Services", 'You ', ' provide ', " clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices in connection with the Services ", " from end users' devices ", ' NULL ', ' NULL', 'Third party is: Services'], ['type3-Q1', 'Description: You must provide end users with information about their options for cookie management, as applicable', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt-out : cookie management', 'need link to guidance how to opt-out']]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must ensure that the Properties have a privacy policy that is clearly labeled and easily accessible.&gt;{#type1#,  &lt;  The Properties  ;  have  ;  a privacy policy  ;  clearly labeled and easily accessible  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must inform end users about their options for managing cookies.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;NULL&gt;}
+          <t xml:space="preserve">&lt;Description: The Services can only be used if the Properties have a clearly labeled and easily accessible privacy policy&gt;{#type2#, &lt;The Properties  ;  have  ;  a clearly labeled and easily accessible privacy policy  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
+&lt;Description: The privacy policy must provide end users with clear and comprehensive information about cookies&gt;{#type2#, &lt;The privacy policy ; provide end users ; with clear and comprehensive information about cookies ; from user ; NULL ; NULL&gt;, &lt;NULL&gt;}
+&lt;Description: The privacy policy must provide information about device-specific information&gt;{#type2#, &lt;The privacy policy ; provide information ; device-specific information ; NULL ; NULL ; NULL&gt;, &lt;NULL&gt;}
+&lt;Description: The privacy policy must provide information about location information&gt;{#type2#, &lt;The privacy policy ; provide information ; location information ; NULL ; NULL ; NULL&gt;, &lt;NULL&gt;}
+&lt;Description: The privacy policy must provide information about other information stored on, accessed on, or collected from end users' devices in connection with the Services&gt;{#type2#, &lt;The privacy policy ; provide information ; other information stored on, accessed on, or collected from end users' devices in connection with the Services ; from end users' devices ; NULL ; NULL&gt;, &lt;Third party is: Services&gt;}
+&lt;Description: The privacy policy must include information about end users' options for cookie management&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt-out : cookie management&gt;, &lt;need link to guidance how to opt-out&gt;}
 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must ensure that the Properties have a privacy policy that is clearly labeled and easily accessible.', '  The Properties  ', '  have  ', '  a privacy policy  ', '  clearly labeled and easily accessible  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type3-Q1', 'Description: The privacy policy must inform end users about their options for managing cookies.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'NULL']]</t>
+          <t>[['type2', 'Description: The Services can only be used if the Properties have a clearly labeled and easily accessible privacy policy', 'The Properties  ', '  have  ', '  a clearly labeled and easily accessible privacy policy  ', '  NULL  ', '  NULL  ', '  NULL', 'NULL'], ['type2', 'Description: The privacy policy must provide end users with clear and comprehensive information about cookies', 'The privacy policy ', ' provide end users ', ' with clear and comprehensive information about cookies ', ' from user ', ' NULL ', ' NULL', 'NULL'], ['type2', 'Description: The privacy policy must provide information about device-specific information', 'The privacy policy ', ' provide information ', ' device-specific information ', ' NULL ', ' NULL ', ' NULL', 'NULL'], ['type2', 'Description: The privacy policy must provide information about location information', 'The privacy policy ', ' provide information ', ' location information ', ' NULL ', ' NULL ', ' NULL', 'NULL'], ['type2', "Description: The privacy policy must provide information about other information stored on, accessed on, or collected from end users' devices in connection with the Services", 'The privacy policy ', ' provide information ', " other information stored on, accessed on, or collected from end users' devices in connection with the Services ", " from end users' devices ", ' NULL ', ' NULL', 'Third party is: Services'], ['type3-Q1', "Description: The privacy policy must include information about end users' options for cookie management", 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt-out : cookie management', 'need link to guidance how to opt-out']]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Developer must post a privacy notice within the Developer App that meets the transparency and information requirements of the Privacy Requirements and the Agreement.&gt;{#type1#,  &lt;  Developer  ;  post  ;  a privacy notice  ;  within the Developer App  ;  meets the transparency and information requirements of the Privacy Requirements and the Agreement  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The notice must include information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data.&gt;{#type2#,  &lt; The notice  ;  must include  ;  information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: Vungle and its Demand Partner&gt;}
-&lt;Description: The notice must disclose that third parties may collect or receive Personal Data and use it for measurement services and targeted ads.&gt;{#type2#,  &lt; The notice  ;  must disclose  ;  that third parties may collect or receive Personal Data and use it  ;  for measurement services and targeted ads  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: NULL&gt;}
-&lt;Description: A conspicuous link or description for users to opt-out of collection and use of information for ad targeting must be provided.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
+          <t xml:space="preserve">&lt;Description: A publicly accessible privacy notice within the Developer App can only be posted, maintained, and followed if it satisfies the transparency and information requirements of the Privacy Requirements and the Agreement.&gt;{#type2#, &lt;A publicly accessible privacy notice  ;  can be posted, maintained, and followed  ;  NULL  ;  NULL  ;  satisfies the transparency and information requirements of the Privacy Requirements and the Agreement  ;  NULL&gt;}
+&lt;Description: The privacy notice must satisfy the transparency and information requirements of the Privacy Requirements and the Agreement.&gt;{#type1#, &lt;The privacy notice ; must satisfy ; the transparency and information requirements ; NULL ; NULL ; NULL&gt;}
+&lt;Description: If notice cannot be provided in or around Vungle Ads, arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad must be made.&gt;{#type2#, &lt;Privacy Policy ; must arrange ; notice within the Developer App or on the landing page of the Vungle Ad ; from user ; to provide notice ; if notice cannot be provided in or around Vungle Ads&gt; , &lt;Third party is: Vungle&gt;}
+&lt;Description: The notice must state that third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads.&gt;{#type2#, &lt;The notice  ;  must state  ;  third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: third parties&gt; }
+&lt;Description: The notice must include a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting.&gt;{#type3-Q1#, &lt;NULL ; NULL ; NULL ; NULL ; NULL ; NULL&gt; , &lt;mention opt-out : collection and use of information for ad targeting&gt; , &lt;need link to guide how to opt-out&gt;}
+&lt;Description: The notice must describe the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred to third parties.&gt;{#type2#, &lt;The notice  ;  describe  ;  the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred  ;  to third parties  ;  NULL  ;  NULL&gt;}
+&lt;Description: If Ad Data is protected by EU Data Protection Law, the privacy notice must include the type of Personal Data collected, the purposes of processing, categories of individuals with access, legitimate interests pursued, the identity of the Controller(s), and any other information required by the EU Data Protection Law.&gt;{#type2#, &lt;privacy notice  ;  must include  ;  type of Personal Data collected, purposes of processing, categories of individuals with access, legitimate interests pursued, identity of the Controller(s), any other information  ;  NULL  ;  required by the EU Data Protection Law  ;  NULL&gt;  ,  &lt;Third party is: NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Developer must post a privacy notice within the Developer App that meets the transparency and information requirements of the Privacy Requirements and the Agreement.', '  Developer  ', '  post  ', '  a privacy notice  ', '  within the Developer App  ', '  meets the transparency and information requirements of the Privacy Requirements and the Agreement  ', '  NULL', 'need a privacy policy'], ['type2', "Description: The notice must include information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data.", ' The notice  ', '  must include  ', "  information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data  ", '  NULL  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: Vungle and its Demand Partner'], ['type2', 'Description: The notice must disclose that third parties may collect or receive Personal Data and use it for measurement services and targeted ads.', ' The notice  ', '  must disclose  ', '  that third parties may collect or receive Personal Data and use it  ', '  for measurement services and targeted ads  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: NULL'], ['type3-Q1', 'Description: A conspicuous link or description for users to opt-out of collection and use of information for ad targeting must be provided.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
+          <t>[['type2', 'Description: A publicly accessible privacy notice within the Developer App can only be posted, maintained, and followed if it satisfies the transparency and information requirements of the Privacy Requirements and the Agreement.', 'A publicly accessible privacy notice  ', '  can be posted, maintained, and followed  ', '  NULL  ', '  NULL  ', '  satisfies the transparency and information requirements of the Privacy Requirements and the Agreement  ', '  NULL'], ['type1', 'Description: The privacy notice must satisfy the transparency and information requirements of the Privacy Requirements and the Agreement.', 'The privacy notice ', ' must satisfy ', ' the transparency and information requirements ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: If notice cannot be provided in or around Vungle Ads, arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad must be made.', 'Privacy Policy ', ' must arrange ', ' notice within the Developer App or on the landing page of the Vungle Ad ', ' from user ', ' to provide notice ', ' if notice cannot be provided in or around Vungle Ads', 'Third party is: Vungle'], ['type2', 'Description: The notice must state that third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads.', 'The notice  ', '  must state  ', '  third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: third parties'], ['type3-Q1', 'Description: The notice must include a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting.', 'NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL', 'mention opt-out : collection and use of information for ad targeting', 'need link to guide how to opt-out'], ['type2', 'Description: The notice must describe the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred to third parties.', 'The notice  ', '  describe  ', '  the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred  ', '  to third parties  ', '  NULL  ', '  NULL'], ['type2', 'Description: If Ad Data is protected by EU Data Protection Law, the privacy notice must include the type of Personal Data collected, the purposes of processing, categories of individuals with access, legitimate interests pursued, the identity of the Controller(s), and any other information required by the EU Data Protection Law.', 'privacy notice  ', '  must include  ', '  type of Personal Data collected, purposes of processing, categories of individuals with access, legitimate interests pursued, identity of the Controller(s), any other information  ', '  NULL  ', '  required by the EU Data Protection Law  ', '  NULL', 'Third party is: NULL']]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The Publisher must post a privacy policy that is both conspicuous and legally adequate on each application and/or service within the Publisher Network.&gt;{#type1#,  &lt;  The Publisher  ;  post  ;  a privacy policy  ;  on each application and/or service within the Publisher Network  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must disclose the collection of Service Data by third parties such as MoPub for the purpose of personalized advertising.&gt;{#type1#,  &lt;The privacy policy  ;  must disclose  ;  the collection of Service Data by third parties such as MoPub  ;  NULL  ;  for the purpose of personalized advertising  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: MoPub&gt;}
+          <t xml:space="preserve">&lt;Description: You can only post a privacy policy if it is conspicuous and legally adequate&gt;{#type2#, &lt;You  ;  can post  ;  a privacy policy  ;  NULL  ;  conspicuous and legally adequate  ;  NULL&gt;}
+&lt;Description: Your privacy policy can only be posted on each application and/or service of the Publisher Network if it is conspicuous and legally adequate&gt;{#type2#, &lt;Your privacy policy  ;  can be posted  ;  on each application and/or service of the Publisher Network  ;  NULL  ;  NULL  ;  if it is conspicuous and legally adequate&gt;  ,  &lt;NULL&gt;}
+&lt;Description: Your data collection practices can only involve third parties such as MoPub if your privacy policy discloses this collection&gt;{#type2#,  &lt;Your privacy policy  ;  can only involve  ;  data collection practices  ;  from user, share to third parties  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: MoPub &gt; }
+&lt;Description: Your data collection practices can only be for personalized advertising purposes if your policy specifies this&gt;{#type1#, &lt;Your policy ; specifies ; data collection practices for personalized advertising ; NULL ; NULL ; NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: The Publisher must post a privacy policy that is both conspicuous and legally adequate on each application and/or service within the Publisher Network.', '  The Publisher  ', '  post  ', '  a privacy policy  ', '  on each application and/or service within the Publisher Network  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policy must disclose the collection of Service Data by third parties such as MoPub for the purpose of personalized advertising.', 'The privacy policy  ', '  must disclose  ', '  the collection of Service Data by third parties such as MoPub  ', '  NULL  ', '  for the purpose of personalized advertising  ', '  NULL', 'NO link', 'Third party is: MoPub']]</t>
+          <t>[['type2', 'Description: You can only post a privacy policy if it is conspicuous and legally adequate', 'You  ', '  can post  ', '  a privacy policy  ', '  NULL  ', '  conspicuous and legally adequate  ', '  NULL'], ['type2', 'Description: Your privacy policy can only be posted on each application and/or service of the Publisher Network if it is conspicuous and legally adequate', 'Your privacy policy  ', '  can be posted  ', '  on each application and/or service of the Publisher Network  ', '  NULL  ', '  NULL  ', '  if it is conspicuous and legally adequate', 'NULL'], ['type2', 'Description: Your data collection practices can only involve third parties such as MoPub if your privacy policy discloses this collection', 'Your privacy policy  ', '  can only involve  ', '  data collection practices  ', '  from user, share to third parties  ', '  NULL  ', '  NULL', 'Third party is: MoPub '], ['type1', 'Description: Your data collection practices can only be for personalized advertising purposes if your policy specifies this', 'Your policy ', ' specifies ', ' data collection practices for personalized advertising ', ' NULL ', ' NULL ', ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The Publisher must comply with the App Store Terms, including obtaining user consent, disclosing data collection practices, and providing options to opt-out.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
+          <t xml:space="preserve">&lt;Description: App Store Terms require obtaining user consent, disclosing data collection practices, and providing opt-out options for compliance.&gt;{#type3-Q1#, &lt; NULL ; NULL ; NULL ; NULL ; NULL ; NULL &gt; , &lt;mention opt-out&gt; , &lt;need link to guidance how to opt-out&gt; }
 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[['type3-Q1', 'Description: The Publisher must comply with the App Store Terms, including obtaining user consent, disclosing data collection practices, and providing options to opt-out.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out']]</t>
+          <t>[['type3-Q1', 'Description: App Store Terms require obtaining user consent, disclosing data collection practices, and providing opt-out options for compliance.', ' NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL ', 'mention opt-out', 'need link to guidance how to opt-out']]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Users must disclose all data collection practices in their app's privacy policy, including the data sent to Sentry.&gt;{#type1#,  &lt;  Users  ;  disclose  ;  all data collection practices  ;  in their app's privacy policy  ;  including the data sent to Sentry  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: You must disclose and/or include in your app privacy policy all types of data collected through your app, including data sent to Sentry.&gt;{#type1#, &lt;You ; disclose and/or include ; all types of data collected through your app, including data sent to Sentry ; NULL ; NULL ; NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[['type1', "Description: Users must disclose all data collection practices in their app's privacy policy, including the data sent to Sentry.", '  Users  ', '  disclose  ', '  all data collection practices  ', "  in their app's privacy policy  ", '  including the data sent to Sentry  ', '  NULL', 'need a privacy policy']]</t>
+          <t>[['type1', 'Description: You must disclose and/or include in your app privacy policy all types of data collected through your app, including data sent to Sentry.', 'You ', ' disclose and/or include ', ' all types of data collected through your app, including data sent to Sentry ', ' NULL ', ' NULL ', ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Developer must ensure that User Data is handled in compliance with a privacy policy.&gt;{#type1#,  &lt;  Developer  ;  ensure  ;  User Data is handled  ;  in compliance with a privacy policy  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must be made available to Users.&gt;{#type1#,  &lt;  The privacy policy  ;    be made available  ;   NULL  ;  Users  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must clearly and accurately describe what user information is collected by Developer.&gt;{#type1#,  &lt;  a privacy policy  ;  describe  ;  user information collected by Developer  ;  NULL  ;  clearly and accurately  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;Description: The privacy policy must also describe how Developer uses and shares the collected user information.&gt;{#type1#,  &lt;  a privacy policy  ;  describe  ;  how Developer uses and shares the collected user information  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: User Data can only be collected, processed, transmitted, maintained, and used if it complies with a privacy policy&gt;{#type1#, &lt;a privacy policy ; allows ; User Data to be collected, processed, transmitted, maintained, and used ; NULL ; NULL ; if it complies with a privacy policy&gt;}
+&lt;Description: The privacy policy must be made available to Users&gt;{#type2#, &lt;The privacy policy ; must be made available ; to Users ; from user ; NULL ; NULL&gt;, &lt;NULL&gt;}
+&lt;Description: The privacy policy must clearly and accurately describe what user information Developer collects&gt;{#type1#, &lt;The privacy policy ; must clearly and accurately describe ; what user information Developer collects ; NULL ; NULL ; NULL&gt;}
+&lt;Description: The privacy policy must also describe how Developer uses and shares that information&gt;{#type2#,  &lt;The privacy policy  ;  must describe  ;  how Developer uses and shares information  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Developer must ensure that User Data is handled in compliance with a privacy policy.', '  Developer  ', '  ensure  ', '  User Data is handled  ', '  in compliance with a privacy policy  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policy must be made available to Users.', '  The privacy policy  ', '    be made available  ', '   NULL  ', '  Users  ', '  NULL  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policy must clearly and accurately describe what user information is collected by Developer.', '  a privacy policy  ', '  describe  ', '  user information collected by Developer  ', '  NULL  ', '  clearly and accurately  ', '  NULL', 'need a privacy policy'], ['type1', 'Description: The privacy policy must also describe how Developer uses and shares the collected user information.', '  a privacy policy  ', '  describe  ', '  how Developer uses and shares the collected user information  ', '  NULL  ', '  NULL  ', '  NULL', 'need a privacy policy']]</t>
+          <t>[['type1', 'Description: User Data can only be collected, processed, transmitted, maintained, and used if it complies with a privacy policy', 'a privacy policy ', ' allows ', ' User Data to be collected, processed, transmitted, maintained, and used ', ' NULL ', ' NULL ', ' if it complies with a privacy policy'], ['type2', 'Description: The privacy policy must be made available to Users', 'The privacy policy ', ' must be made available ', ' to Users ', ' from user ', ' NULL ', ' NULL', 'NULL'], ['type1', 'Description: The privacy policy must clearly and accurately describe what user information Developer collects', 'The privacy policy ', ' must clearly and accurately describe ', ' what user information Developer collects ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: The privacy policy must also describe how Developer uses and shares that information', 'The privacy policy  ', '  must describe  ', '  how Developer uses and shares information  ', '  NULL  ', '  NULL  ', '  NULL', 'NULL']]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must provide your own terms of service, privacy policy, and support information when submitting your App to the Zoom Marketplace.&gt;{#type1#,  &lt;  you  ;  provide  ;  your own terms of service, privacy policy, and support information  ;  when submitting your App to the Zoom Marketplace  ;  NULL  ;  NULL&gt;  ,  &lt;need a privacy policy&gt;}
+          <t xml:space="preserve">&lt;Description: Your App can only be submitted to the Zoom Marketplace if you provide your terms of service, privacy policy, and support information ('Your Terms').&gt;{#type2#, &lt;Your Terms  ;  can be submitted  ;  Your App  ;  to the Zoom Marketplace  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must provide your own terms of service, privacy policy, and support information when submitting your App to the Zoom Marketplace.', '  you  ', '  provide  ', '  your own terms of service, privacy policy, and support information  ', '  when submitting your App to the Zoom Marketplace  ', '  NULL  ', '  NULL', 'need a privacy policy']]</t>
+          <t>[['type2', "Description: Your App can only be submitted to the Zoom Marketplace if you provide your terms of service, privacy policy, and support information ('Your Terms').", 'Your Terms  ', '  can be submitted  ', '  Your App  ', '  to the Zoom Marketplace  ', '  NULL  ', '  NULL', 'NULL']]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Each Party is required to have a privacy policy that is compliant with applicable privacy laws and is prominently displayed.&gt;{#type1#,  &lt;  Each Party  ;  have  ;  a privacy policy  ;  NULL  ;  compliant with applicable privacy laws  ;  prominently displayed&gt;  ,  &lt;need a privacy policy&gt;}
-&lt;{#type2#,  &lt;privacy policy  ;  must include  ;  a clear description of the data sets collected or allowed to be collected, and the use cases related to personal data  ;  mentioning that such data will be shared with certain third parties for specific use cases  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: certain third parties&gt;}&gt;{#type2#,  &lt;privacy policy  ;  must include  ;  a clear description of the data sets collected or allowed to be collected, and the use cases related to personal data  ;  mentioning that such data will be shared with certain third parties for specific use cases  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: certain third parties&gt;}
-&lt;Description: Privacy laws such as CCPA, CPRA, and other relevant US state privacy laws may require providing sufficient notice about End Users' rights to their personal information and mechanisms for opting out of data usage.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;need to mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
-&lt;Description: The privacy policy should also disclose the use of third parties and cookies for attribution purposes and/or serving targeted advertisements.&gt;{#type1#,  &lt;The privacy policy  ;  should disclose  ;  the use of third parties and cookies  ;  for attribution purposes and/or serving targeted advertisements  ;  NULL  ;  NULL&gt;  ,  &lt;NO link&gt;  ,  &lt;Third party is: NULL&gt;}
+          <t xml:space="preserve">&lt;Description: A privacy policy must be provided conspicuously and be adequate in accordance with applicable privacy laws.&gt;{#type1#, &lt;A privacy policy ; must be provided conspicuously and be adequate ; in accordance with applicable privacy laws ; NULL ; NULL ; NULL&gt;}
+&lt;Description: Data collection and sharing practices can only be implemented if the privacy policy conspicuously describes the data sets collected, use cases related to personal data/information, and mentions that such data will be shared with certain third parties for applicable use cases.&gt;{#type2#, &lt;privacy policy ; conspicuously describes ; data sets collected, use cases related to personal data/information, mentions data sharing ; NULL ; NULL ; NULL&gt; , &lt;Third party is: certain third parties&gt;}
+&lt;Description: Providing sufficient notice regarding rights of End Users with regard to their personal information and clearly providing for mechanisms of Opt Out elections can only be done if You comply with certain privacy laws such as CCPA, CPRA and/or other applicable US state privacy laws, if applicable to the Inventory.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt out&gt;, &lt;NULL&gt;}
+&lt;Description: The privacy policy must mention the use of third parties and use of cookies for attribution and/or serving targeted Advertisements.&gt;{#type2#, &lt;The privacy policy ; must mention ; the use of third parties and use of cookies for attribution and/or serving targeted Advertisements ; NULL ; NULL ; NULL&gt; , &lt;Third party is: third parties&gt;}
 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Each Party is required to have a privacy policy that is compliant with applicable privacy laws and is prominently displayed.', '  Each Party  ', '  have  ', '  a privacy policy  ', '  NULL  ', '  compliant with applicable privacy laws  ', '  prominently displayed', 'need a privacy policy'], ['type2', 'type2', '{#type2#,  &lt;privacy policy  ', '  must include  ', '  a clear description of the data sets collected or allowed to be collected, and the use cases related to personal data  ', '  mentioning that such data will be shared with certain third parties for specific use cases  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: certain third parties', 'privacy policy  ', '  must include  ', '  a clear description of the data sets collected or allowed to be collected, and the use cases related to personal data  ', '  mentioning that such data will be shared with certain third parties for specific use cases  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: certain third parties'], ['type3-Q1', "Description: Privacy laws such as CCPA, CPRA, and other relevant US state privacy laws may require providing sufficient notice about End Users' rights to their personal information and mechanisms for opting out of data usage.", 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'need to mention opt-out', 'need link to guide how to opt-out'], ['type1', 'Description: The privacy policy should also disclose the use of third parties and cookies for attribution purposes and/or serving targeted advertisements.', 'The privacy policy  ', '  should disclose  ', '  the use of third parties and cookies  ', '  for attribution purposes and/or serving targeted advertisements  ', '  NULL  ', '  NULL', 'NO link', 'Third party is: NULL']]</t>
+          <t>[['type1', 'Description: A privacy policy must be provided conspicuously and be adequate in accordance with applicable privacy laws.', 'A privacy policy ', ' must be provided conspicuously and be adequate ', ' in accordance with applicable privacy laws ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: Data collection and sharing practices can only be implemented if the privacy policy conspicuously describes the data sets collected, use cases related to personal data/information, and mentions that such data will be shared with certain third parties for applicable use cases.', 'privacy policy ', ' conspicuously describes ', ' data sets collected, use cases related to personal data/information, mentions data sharing ', ' NULL ', ' NULL ', ' NULL', 'Third party is: certain third parties'], ['type3-Q1', 'Description: Providing sufficient notice regarding rights of End Users with regard to their personal information and clearly providing for mechanisms of Opt Out elections can only be done if You comply with certain privacy laws such as CCPA, CPRA and/or other applicable US state privacy laws, if applicable to the Inventory.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt out', 'NULL'], ['type2', 'Description: The privacy policy must mention the use of third parties and use of cookies for attribution and/or serving targeted Advertisements.', 'The privacy policy ', ' must mention ', ' the use of third parties and use of cookies for attribution and/or serving targeted Advertisements ', ' NULL ', ' NULL ', ' NULL', 'Third party is: third parties']]</t>
         </is>
       </c>
     </row>

--- a/definition测试/【1】Tos2PP/output.xlsx
+++ b/definition测试/【1】Tos2PP/output.xlsx
@@ -448,432 +448,426 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Customer must provide its own privacy statement or notice to its End Users&gt;{#type2#,  &lt;Customer  ;  must provide  ;  privacy statement or notice  ;  to its End Users  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
+          <t xml:space="preserve">&lt;Description: Mixpanel's tracking and use of information collected about Customer on Mixpanel Sites are governed by the Mixpanel Privacy Statement&gt;{#type2#, &lt;Mixpanel's tracking and use of information  ;  are governed  ;  by the Mixpanel Privacy Statement  ;  NULL  ;  NULL  ;  NULL&gt;}, &lt;Third party is: Mixpanel&gt;
+&lt;Description: The Mixpanel Privacy Statement is available at https://mixpanel.com/legal/privacy-policy/&gt;{#type1#,  &lt;  The Mixpanel Privacy Statement  ;  is available   ;  NULL    ;  https://mixpanel.com/legal/privacy-policy/  ;  NULL  ; NULL&gt; }
+&lt;Description: It shall be Customer's obligation to provide Customer's own privacy statement or notice to its End Users&gt;{#type1#,  &lt;  Customer's privacy statement or notice  ;  provide  ;  Customer's own privacy statement or notice  ;  to its End Users  ;  NULL  ;  NULL&gt; }
 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: Customer must provide its own privacy statement or notice to its End Users', 'Customer  ', '  must provide  ', '  privacy statement or notice  ', '  to its End Users  ', '  NULL  ', '  NULL', 'NULL']]</t>
+          <t>[['type2', "Description: Mixpanel's tracking and use of information collected about Customer on Mixpanel Sites are governed by the Mixpanel Privacy Statement", "Mixpanel's tracking and use of information  ", '  are governed  ', '  by the Mixpanel Privacy Statement  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: Mixpanel'], ['type1', 'Description: The Mixpanel Privacy Statement is available at https://mixpanel.com/legal/privacy-policy/', '  The Mixpanel Privacy Statement  ', '  is available   ', '  NULL    ', '  https://mixpanel.com/legal/privacy-policy/  ', '  NULL  ', ' NULL'], ['type1', "Description: It shall be Customer's obligation to provide Customer's own privacy statement or notice to its End Users", "  Customer's privacy statement or notice  ", '  provide  ', "  Customer's own privacy statement or notice  ", '  to its End Users  ', '  NULL  ', '  NULL']]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Customer must comply with any privacy policies, agreements, or other obligations it maintains or enters into with its end users&gt;{#type2#, &lt;Customer  ;  must comply with  ;  privacy policies, agreements, or other obligations  ;  with its end users  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
-&lt;Description: Customer can collect, submit, and use data only if it obtains all legally required consents and permissions&gt;{#type1#, &lt;Customer ; collect, submit, and use ; data ; from user ; NULL ; if it obtains all legally required consents and permissions&gt;}
+          <t xml:space="preserve">&lt;Description: as well as any privacy policies, agreements or other obligations Customer may maintain or enter into with its end users&gt;{#type1#, &lt;privacy policies, agreements or other obligations; maintain or enter into; privacy policies, agreements or other obligations; from user; NULL; NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: Customer must comply with any privacy policies, agreements, or other obligations it maintains or enters into with its end users', 'Customer  ', '  must comply with  ', '  privacy policies, agreements, or other obligations  ', '  with its end users  ', '  NULL  ', '  NULL', 'NULL'], ['type1', 'Description: Customer can collect, submit, and use data only if it obtains all legally required consents and permissions', 'Customer ', ' collect, submit, and use ', ' data ', ' from user ', ' NULL ', ' if it obtains all legally required consents and permissions']]</t>
+          <t>[['type1', 'Description: as well as any privacy policies, agreements or other obligations Customer may maintain or enter into with its end users', 'privacy policies, agreements or other obligations', ' maintain or enter into', ' privacy policies, agreements or other obligations', ' from user', ' NULL', ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must have and abide by an appropriate Privacy Policy that complies with all applicable laws, policies, and regulations regarding the collection of information from Users.&gt;{#type1#, &lt;You ; must have and abide by ; an appropriate Privacy Policy ; from Users ; to comply with all applicable laws, policies, and regulations regarding the collection of information ; NULL&gt;}
-&lt;Description: Your Privacy Policy must disclose Your use of cookies, mobile device identifiers, or similar technology used to collect data.&gt;{#type2#, &lt;Your Privacy Policy ; must disclose ; Your use of cookies, mobile device identifiers, or similar technology used to collect data ; NULL ; NULL ; NULL&gt;, &lt;NULL&gt;}
-&lt;Description: You must disclose the use of Google Analytics and how it collects and processes data, including by providing a prominent link to Google's privacy policy for partners.&gt;{#type2#, &lt;You ; must disclose ; the use of Google Analytics and how it collects and processes data ; NULL ; NULL ; providing a prominent link to Google's privacy policy for partners&gt;}, &lt;Third party is: Google Analytics&gt;
+          <t xml:space="preserve">&lt;Description: You will have and abide by an appropriate Privacy Policy that complies with all applicable laws, policies, and regulations regarding the collection of information from Users.&gt;{#type1#,  &lt;  Privacy Policy  ;  complies with  ;  applicable laws, policies, and regulations  ;  regarding the collection of information from Users  ; NULL  ; NULL&gt; }
+&lt;Description: You must post a Privacy Policy that provides notice of Your use of cookies, mobile device identifiers, or similar technology used to collect data.&gt;{#type1#, &lt;Privacy Policy; provides notice of; Your use of cookies, mobile device identifiers, or similar technology used to collect data; NULL; NULL; NULL&gt;}
+&lt;Description: You must disclose the use of Google Analytics and how it collects and processes data, which can be done by linking to Google's privacy policy for partners.&gt;{#type2#,  &lt;You  ;  must disclose  ;  the use of Google Analytics and how it collects and processes data  ;  NULL  ;  NULL  ;  by linking to Google's privacy policy for partners&gt;  ,  &lt; need LINK to : Google's privacy policy for partners &gt; }
 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must have and abide by an appropriate Privacy Policy that complies with all applicable laws, policies, and regulations regarding the collection of information from Users.', 'You ', ' must have and abide by ', ' an appropriate Privacy Policy ', ' from Users ', ' to comply with all applicable laws, policies, and regulations regarding the collection of information ', ' NULL'], ['type2', 'Description: Your Privacy Policy must disclose Your use of cookies, mobile device identifiers, or similar technology used to collect data.', 'Your Privacy Policy ', ' must disclose ', ' Your use of cookies, mobile device identifiers, or similar technology used to collect data ', ' NULL ', ' NULL ', ' NULL', 'NULL'], ['type2', "Description: You must disclose the use of Google Analytics and how it collects and processes data, including by providing a prominent link to Google's privacy policy for partners.", 'You ', ' must disclose ', ' the use of Google Analytics and how it collects and processes data ', ' NULL ', ' NULL ', " providing a prominent link to Google's privacy policy for partners", 'Third party is: Google Analytics']]</t>
+          <t>[['type1', 'Description: You will have and abide by an appropriate Privacy Policy that complies with all applicable laws, policies, and regulations regarding the collection of information from Users.', '  Privacy Policy  ', '  complies with  ', '  applicable laws, policies, and regulations  ', '  regarding the collection of information from Users  ', ' NULL  ', ' NULL'], ['type1', 'Description: You must post a Privacy Policy that provides notice of Your use of cookies, mobile device identifiers, or similar technology used to collect data.', 'Privacy Policy', ' provides notice of', ' Your use of cookies, mobile device identifiers, or similar technology used to collect data', ' NULL', ' NULL', ' NULL'], ['type2', "Description: You must disclose the use of Google Analytics and how it collects and processes data, which can be done by linking to Google's privacy policy for partners.", 'You  ', '  must disclose  ', '  the use of Google Analytics and how it collects and processes data  ', '  NULL  ', '  NULL  ', "  by linking to Google's privacy policy for partners", " need LINK to : Google's privacy policy for partners "]]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must provide a legally adequate privacy notice to End Users about it&gt;{#type2#, &lt;You ; must provide ; a legally adequate privacy notice ; to End Users ; NULL ; NULL&gt;, &lt;NULL&gt;}
+          <t xml:space="preserve">&lt;Description: You must make the End Users aware that certain End User Information will be available to You&gt;{#type1#,  &lt;  You  ;  make aware  ;  End Users  ;  certain End User Information  ;  NULL  ;  NULL&gt; }
+&lt;Description: You must provide a legally adequate privacy notice to End Users about it&gt;{#type1#, &lt;a legally adequate privacy notice ; provide to ; End Users ; NULL ; NULL ; NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: You must provide a legally adequate privacy notice to End Users about it', 'You ', ' must provide ', ' a legally adequate privacy notice ', ' to End Users ', ' NULL ', ' NULL', 'NULL']]</t>
+          <t>[['type1', 'Description: You must make the End Users aware that certain End User Information will be available to You', '  You  ', '  make aware  ', '  End Users  ', '  certain End User Information  ', '  NULL  ', '  NULL'], ['type1', 'Description: You must provide a legally adequate privacy notice to End Users about it', 'a legally adequate privacy notice ', ' provide to ', ' End Users ', ' NULL ', ' NULL ', ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Your privacy policy must comply with all applicable laws and industry standards.&gt;{#type1#, &lt;Your privacy policy ; must comply ; with all applicable laws and industry standards ; NULL ; NULL ; NULL&gt;}
-&lt;Description: Your privacy policy must be clearly and conspicuously posted within your application, in any store, and on any website where the application may be acquired.&gt;{#type2#, &lt;Your privacy policy ; must be posted ; within your application, in any store, and on any website where the application may be acquired ; from user ; NULL ; NULL&gt;}
-&lt;Description: Your privacy policy must provide notice of your use of tracking pixels, agents or other visitor identification technologies that collect, use, share and store data about end users.&gt;{#type2#,  &lt;Your privacy policy  ;  must provide notice  ;  your use of tracking pixels, agents or other visitor identification technologies that collect, use, share and store data  ;  about end users  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: NULL&gt; }
-&lt;Description: Your privacy policy must contain a link to Flurry's Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data.&gt;{#type2#,  &lt;Your privacy policy  ;  must contain  ;  a link to Flurry锟斤拷s Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry锟斤拷s use of User Data  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: Flurry&gt; }
-&lt;Description: You must advise users who wish to opt-out that they may do so on a device by device basis by enabling 'Limit Ad Tracking' and provide active links to opt-out resources.&gt;{#type3-Q1#, &lt;NULL ; NULL ; NULL ; NULL ; NULL ; NULL&gt; , &lt;mention opt-out : Limit Ad Tracking&gt; , &lt;need link to guide how to opt-out&gt;}
+          <t xml:space="preserve">&lt;Description: You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards&gt;{#type1#,  &lt;  you  ;   abide by   ;   a privacy policy  ;  NULL  ;  complies with all applicable laws and industry standards  ; NULL&gt; }
+&lt;Description: You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired&gt;{#type1#,  &lt;  You  ;  post  ;  a privacy policy  ;  within your application, in any store, and on any website where the application may be acquired  ;  NULL  ; NULL&gt; }
+&lt;Description: That policy must provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users&gt;{#type1#, &lt;That policy ; provide notice of ; your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data ; about end users ; NULL ; NULL&gt;}
+&lt;Description: Policy must contain a link to Flurry's Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data&gt;{#type2#, &lt;Policy  ;  must contain  ;  a link to Flurry's Privacy Policy and describe how visitors may learn more  ;  NULL  ;  NULL  ;  NULL&gt;}, &lt;need LINK to : Flurry's Privacy Policy&gt;
+&lt;Description: Advise users who wish to opt-out that they may do so on a device by device basis by enabling 'Limit Ad Tracking' and provide active links to opt-out resources&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt-out : Limit Ad Tracking&gt;, &lt;need link to guide how to opt-out&gt;}
 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Your privacy policy must comply with all applicable laws and industry standards.', 'Your privacy policy ', ' must comply ', ' with all applicable laws and industry standards ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy policy must be clearly and conspicuously posted within your application, in any store, and on any website where the application may be acquired.', 'Your privacy policy ', ' must be posted ', ' within your application, in any store, and on any website where the application may be acquired ', ' from user ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy policy must provide notice of your use of tracking pixels, agents or other visitor identification technologies that collect, use, share and store data about end users.', 'Your privacy policy  ', '  must provide notice  ', '  your use of tracking pixels, agents or other visitor identification technologies that collect, use, share and store data  ', '  about end users  ', '  NULL  ', '  NULL', 'Third party is: NULL'], ['type2', "Description: Your privacy policy must contain a link to Flurry's Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data.", 'Your privacy policy  ', '  must contain  ', '  a link to Flurry锟斤拷s Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry锟斤拷s use of User Data  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: Flurry'], ['type3-Q1', "Description: You must advise users who wish to opt-out that they may do so on a device by device basis by enabling 'Limit Ad Tracking' and provide active links to opt-out resources.", 'NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL', 'mention opt-out : Limit Ad Tracking', 'need link to guide how to opt-out']]</t>
+          <t>[['type1', 'Description: You agree that you have and will abide by a privacy policy that complies with all applicable laws and industry standards', '  you  ', '   abide by   ', '   a privacy policy  ', '  NULL  ', '  complies with all applicable laws and industry standards  ', ' NULL'], ['type1', 'Description: You must clearly and conspicuously post a privacy policy within your application, in any store, and on any website where the application may be acquired', '  You  ', '  post  ', '  a privacy policy  ', '  within your application, in any store, and on any website where the application may be acquired  ', '  NULL  ', ' NULL'], ['type1', 'Description: That policy must provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users', 'That policy ', ' provide notice of ', ' your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data ', ' about end users ', ' NULL ', ' NULL'], ['type2', "Description: Policy must contain a link to Flurry's Privacy Policy and describe how visitors may learn more about the choices offered in connection with Flurry's use of User Data", 'Policy  ', '  must contain  ', "  a link to Flurry's Privacy Policy and describe how visitors may learn more  ", '  NULL  ', '  NULL  ', '  NULL', "need LINK to : Flurry's Privacy Policy"], ['type3-Q1', "Description: Advise users who wish to opt-out that they may do so on a device by device basis by enabling 'Limit Ad Tracking' and provide active links to opt-out resources", 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt-out : Limit Ad Tracking', 'need link to guide how to opt-out']]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Licensee must publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA&gt;{#type2#, &lt;Licensee  ;  must publish  ;  privacy policies and disclosures  ;  for the Properties  ;  comply with applicable law and the terms of this EULA  ;  NULL&gt;  ,  &lt;NULL&gt;}
-&lt;Description: The privacy policies must clearly disclose that the SDK Information will be collected and specify its usage as set forth in Section 5&gt;{#type2#, &lt;The privacy policies ; must clearly disclose ; the SDK Information will be collected and specify its usage ; NULL ; as set forth in Section 5 ; NULL&gt; , &lt;Third party is: NULL&gt;}
+          <t xml:space="preserve">&lt;Description: Licensee shall publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA&gt;{#type1#,  &lt;  Licensee  ;  publish  ;  privacy policies and disclosures  ;  for the Properties  ;  comply with applicable law and the terms of this EULA  ;  NULL&gt; }
+&lt;Description: The privacy policies must include clear disclosures that the SDK Information will be collected and how it may be used, as set forth in Section 5&gt;{#type1#,  &lt;  The privacy policies  ;  include clear disclosures  ;  the SDK Information will be collected and how it may be used  ;  NULL  ;  as set forth in Section 5  ;  NULL&gt; }
 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: Licensee must publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA', 'Licensee  ', '  must publish  ', '  privacy policies and disclosures  ', '  for the Properties  ', '  comply with applicable law and the terms of this EULA  ', '  NULL', 'NULL'], ['type2', 'Description: The privacy policies must clearly disclose that the SDK Information will be collected and specify its usage as set forth in Section 5', 'The privacy policies ', ' must clearly disclose ', ' the SDK Information will be collected and specify its usage ', ' NULL ', ' as set forth in Section 5 ', ' NULL', 'Third party is: NULL']]</t>
+          <t>[['type1', 'Description: Licensee shall publish privacy policies and disclosures for the Properties that comply with applicable law and the terms of this EULA', '  Licensee  ', '  publish  ', '  privacy policies and disclosures  ', '  for the Properties  ', '  comply with applicable law and the terms of this EULA  ', '  NULL'], ['type1', 'Description: The privacy policies must include clear disclosures that the SDK Information will be collected and how it may be used, as set forth in Section 5', '  The privacy policies  ', '  include clear disclosures  ', '  the SDK Information will be collected and how it may be used  ', '  NULL  ', '  as set forth in Section 5  ', '  NULL']]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: A privacy policy can only be posted on a website if it describes how the party collects, uses, and shares information.&gt;{#type2#, &lt;A privacy policy  ;  can be posted  ;  how the party collects, uses, and shares information  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: the party&gt; }
-&lt;Description: A privacy policy can only be posted on a website if it provides information about how an End User can opt out of interest-based advertising.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt out: interest-based advertising&gt;, &lt;need link to guide how to opt-out&gt;}
-&lt;Description: The opt-out information can only be provided if it includes methods for online behavioral or mobile cross-app advertising.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt out: online behavioral or mobile cross-app advertising&gt;, &lt;NULL&gt;}
+          <t xml:space="preserve">&lt;Description: each party shall at all times post a privacy policy on its website&gt;{#type1#, &lt;each party ; post ; a privacy policy ; on its website ; NULL ; NULL&gt;}
+&lt;Description: the privacy policy describes how it collects, uses and shares information&gt;{#type1#,  &lt;  The privacy policy  ;  describes  ;  how it collects, uses and shares information  ;  NULL  ;  NULL  ;  NULL&gt; }
+&lt;Description: the privacy policy provides information about how an End User can opt out of interest-based advertising&gt;"#type3-Q1#",
+&lt;Description: the opt-out information includes online behavioral or mobile cross-app advertising&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt out : online behavioral or mobile cross-app advertising&gt;, &lt;NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: A privacy policy can only be posted on a website if it describes how the party collects, uses, and shares information.', 'A privacy policy  ', '  can be posted  ', '  how the party collects, uses, and shares information  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: the party'], ['type3-Q1', 'Description: A privacy policy can only be posted on a website if it provides information about how an End User can opt out of interest-based advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt out: interest-based advertising', 'need link to guide how to opt-out'], ['type3-Q1', 'Description: The opt-out information can only be provided if it includes methods for online behavioral or mobile cross-app advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt out: online behavioral or mobile cross-app advertising', 'NULL']]</t>
+          <t>[['type1', 'Description: each party shall at all times post a privacy policy on its website', 'each party ', ' post ', ' a privacy policy ', ' on its website ', ' NULL ', ' NULL'], ['type1', 'Description: the privacy policy describes how it collects, uses and shares information', '  The privacy policy  ', '  describes  ', '  how it collects, uses and shares information  ', '  NULL  ', '  NULL  ', '  NULL'], ['type3-Q1', 'Description: the privacy policy provides information about how an End User can opt out of interest-based advertising'], ['type3-Q1', 'Description: the opt-out information includes online behavioral or mobile cross-app advertising', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt out : online behavioral or mobile cross-app advertising', 'NULL']]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Your Stripe Application can only be made available to the Business User if the privacy notice or privacy policy is readily accessible&gt;{#type2#, &lt;Your Stripe Application  ;  can be made available  ;  privacy notice or privacy policy  ;  from user  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: Stripe&gt;}
-&lt;Description: This includes providing a link in your Stripe App listing in the Stripe Apps Marketplace&gt;{#type2#, &lt;Your privacy policy ; providing a link ; in your Stripe App listing in the Stripe Apps Marketplace ; share to Stripe Apps Marketplace ; NULL ; NULL&gt;, &lt;Third party is: Stripe Apps Marketplace&gt;}
+          <t xml:space="preserve">&lt;Description: make the privacy notice or privacy policy applicable to your Stripe Application readily available to the Business User&gt;{#type1#, &lt;privacy notice or privacy policy ; make applicable ; Stripe Application ; from user ; to ensure compliance with Stripe's requirements ; NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: Your Stripe Application can only be made available to the Business User if the privacy notice or privacy policy is readily accessible', 'Your Stripe Application  ', '  can be made available  ', '  privacy notice or privacy policy  ', '  from user  ', '  NULL  ', '  NULL', 'Third party is: Stripe'], ['type2', 'Description: This includes providing a link in your Stripe App listing in the Stripe Apps Marketplace', 'Your privacy policy ', ' providing a link ', ' in your Stripe App listing in the Stripe Apps Marketplace ', ' share to Stripe Apps Marketplace ', ' NULL ', ' NULL', 'Third party is: Stripe Apps Marketplace']]</t>
+          <t>[['type1', 'Description: make the privacy notice or privacy policy applicable to your Stripe Application readily available to the Business User', 'privacy notice or privacy policy ', ' make applicable ', ' Stripe Application ', ' from user ', " to ensure compliance with Stripe's requirements ", ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Customer's data collection and use practices can only be implemented if all necessary disclosures are made to, and consents and authorizations are obtained from, Customer's users.&gt;{#type2#, &lt;Customer's privacy policy ; must implement data collection and use practices ; necessary disclosures, consents and authorizations ; from Customer's users ; NULL ; NULL&gt;}
-&lt;Description: RevenueCat's and Stripe's processing of personally identifiable information relating to users can only take place if Customer has made all necessary disclosures to, and obtained consents and authorizations from, its users.&gt;{#type2#,  &lt;Customer  ;  has made  ;  all necessary disclosures to, and obtained consents and authorizations from, its users  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: RevenueCat and Stripe&gt; }
-&lt;Description: Customer's privacy policy must disclose RevenueCat's and Stripe's processing of such information in a reasonable and industry-standard manner.&gt;{#type2#,  &lt;Customer's privacy policy  ;  must disclose  ;  RevenueCat's and Stripe's processing of such information  ;  NULL  ;  in a reasonable and industry-standard manner  ;  NULL&gt;  ,  &lt;Third party is: RevenueCat and Stripe&gt; }
-&lt;Description: Customer must make all necessary disclosures in a reasonable and industry-standard manner.&gt;{#type2#, &lt;Customer ; make all necessary disclosures ; in a reasonable and industry-standard manner ; NULL ; NULL ; NULL&gt;, &lt;NULL&gt;}
+          <t xml:space="preserve">&lt;Description: including, without limitation, by disclosing RevenueCat's and Stripe's processing of such information in Customer's privacy policy in a reasonable and industry-standard manner&gt;{#type1#, &lt;The privacy policy ; disclose ; RevenueCat's and Stripe's processing of such information ; in Customer's privacy policy ; in a reasonable and industry-standard manner ; NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[['type2', "Description: Customer's data collection and use practices can only be implemented if all necessary disclosures are made to, and consents and authorizations are obtained from, Customer's users.", "Customer's privacy policy ", ' must implement data collection and use practices ', ' necessary disclosures, consents and authorizations ', " from Customer's users ", ' NULL ', ' NULL'], ['type2', "Description: RevenueCat's and Stripe's processing of personally identifiable information relating to users can only take place if Customer has made all necessary disclosures to, and obtained consents and authorizations from, its users.", 'Customer  ', '  has made  ', '  all necessary disclosures to, and obtained consents and authorizations from, its users  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: RevenueCat and Stripe'], ['type2', "Description: Customer's privacy policy must disclose RevenueCat's and Stripe's processing of such information in a reasonable and industry-standard manner.", "Customer's privacy policy  ", '  must disclose  ', "  RevenueCat's and Stripe's processing of such information  ", '  NULL  ', '  in a reasonable and industry-standard manner  ', '  NULL', 'Third party is: RevenueCat and Stripe'], ['type2', 'Description: Customer must make all necessary disclosures in a reasonable and industry-standard manner.', 'Customer ', ' make all necessary disclosures ', ' in a reasonable and industry-standard manner ', ' NULL ', ' NULL ', ' NULL', 'NULL']]</t>
+          <t>[['type1', "Description: including, without limitation, by disclosing RevenueCat's and Stripe's processing of such information in Customer's privacy policy in a reasonable and industry-standard manner", 'The privacy policy ', ' disclose ', " RevenueCat's and Stripe's processing of such information ", " in Customer's privacy policy ", ' in a reasonable and industry-standard manner ', ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: People can only download, install, or sign up to your service if your service's privacy policy is displayed to them.&gt;{#type2#, &lt;your service's privacy policy ; is displayed ; People can only download, install, or sign up to your service ; from user ; NULL ; NULL&gt;}
-&lt;Description: Your privacy policy must disclose the information that you collect from people who use your service.&gt;{#type1#, &lt;Your privacy policy ; must disclose ; the information that you collect from people who use your service ; NULL ; NULL ; NULL&gt;}
-&lt;Description: Your privacy policy must explain how you use and share that information (including with X).&gt;{#type2#,  &lt;Your privacy policy  ;  must explain  ;  how you use and share that information (including with X)  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: X&gt; }
-&lt;Description: Your privacy policy must provide contact information for people to inquire and request regarding their information.&gt;{#type1#, &lt;Your privacy policy ; provide ; contact information for people to inquire and request regarding their information ; NULL ; NULL ; NULL&gt;}
-&lt;Description: Your privacy policy must be consistent with all applicable laws and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates.&gt;{#type2#, &lt;Your privacy policy ; must be consistent with ; all applicable laws and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates ; NULL ; NULL ; NULL&gt;}
+          <t xml:space="preserve">&lt;Description: You must display your service's privacy policy to people before they are permitted to download, install, or sign up to your service.&gt;{#type1#, &lt;Your service's privacy policy ; display to people ; privacy policy ; before they are permitted to download, install, or sign up to your service ; NULL ; NULL&gt;}
+&lt;Description: Your privacy policy must disclose at least the following information: The information that you collect from people who use your service.&gt;{#type1#,  &lt;  privacy policy  ;  disclose  ;  information that you collect from people who use your service  ;  NULL  ;  NULL  ; NULL&gt; }
+&lt;Description: How you use and share that information (including with X).&gt;{#type2#, &lt;Your privacy policy ; must describe ; how you use and share information (including with X) ; from user ; to X ; NULL&gt;, &lt;Third party is: X&gt;}
+&lt;Description: How people can contact you with inquiries and requests regarding their information.&gt;{#type1#, &lt;How people can contact you ; inquire and request ; their information ; NULL ; NULL ; NULL&gt;}
+&lt;Description: Your privacy policy must be consistent with all applicable laws, and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates.&gt;{#type1#,  &lt;  Your privacy policy  ;  must be  ;  consistent with all applicable laws  ;  NULL  ;  be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates  ; NULL&gt; }
 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[['type2', "Description: People can only download, install, or sign up to your service if your service's privacy policy is displayed to them.", "your service's privacy policy ", ' is displayed ', ' People can only download, install, or sign up to your service ', ' from user ', ' NULL ', ' NULL'], ['type1', 'Description: Your privacy policy must disclose the information that you collect from people who use your service.', 'Your privacy policy ', ' must disclose ', ' the information that you collect from people who use your service ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy policy must explain how you use and share that information (including with X).', 'Your privacy policy  ', '  must explain  ', '  how you use and share that information (including with X)  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: X'], ['type1', 'Description: Your privacy policy must provide contact information for people to inquire and request regarding their information.', 'Your privacy policy ', ' provide ', ' contact information for people to inquire and request regarding their information ', ' NULL ', ' NULL ', ' NULL'], ['type2', "Description: Your privacy policy must be consistent with all applicable laws and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates.", 'Your privacy policy ', ' must be consistent with ', " all applicable laws and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates ", ' NULL ', ' NULL ', ' NULL']]</t>
+          <t>[['type1', "Description: You must display your service's privacy policy to people before they are permitted to download, install, or sign up to your service.", "Your service's privacy policy ", ' display to people ', ' privacy policy ', ' before they are permitted to download, install, or sign up to your service ', ' NULL ', ' NULL'], ['type1', 'Description: Your privacy policy must disclose at least the following information: The information that you collect from people who use your service.', '  privacy policy  ', '  disclose  ', '  information that you collect from people who use your service  ', '  NULL  ', '  NULL  ', ' NULL'], ['type2', 'Description: How you use and share that information (including with X).', 'Your privacy policy ', ' must describe ', ' how you use and share information (including with X) ', ' from user ', ' to X ', ' NULL', 'Third party is: X'], ['type1', 'Description: How people can contact you with inquiries and requests regarding their information.', 'How people can contact you ', ' inquire and request ', ' their information ', ' NULL ', ' NULL ', ' NULL'], ['type1', "Description: Your privacy policy must be consistent with all applicable laws, and be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates.", '  Your privacy policy  ', '  must be  ', '  consistent with all applicable laws  ', '  NULL  ', "  be no less protective of people than X's Privacy Policy and the privacy policy of our other services and corporate affiliates  ", ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Relevant Service-related privacy policies can only be implemented if they are disclosed by developers&gt;{#type2#,  &lt;Relevant Service-related privacy policies  ;  can only be implemented  ;  they are disclosed  ;  by developers  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
-&lt;Description: Privacy policies can only be considered compliant if they are easily viewable to anyone at any time&gt;{#type2#, &lt;Privacy policies  ;  can be considered  ;  compliant  ;  easily viewable to anyone at any time ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
-&lt;Description: Privacy policies can only be considered compliant if they are available before and after a user starts to use the Relevant Service&gt;{#type2#, &lt;Privacy policies  ;  can be considered  ;  compliant  ;  NULL  ;  available before and after a user starts to use the Relevant Service  ;  NULL&gt;}
+          <t xml:space="preserve">&lt;Description: Developers shall disclose Relevant Service-related privacy policies&gt;{#type1#,  &lt;Developers ; disclose ; Relevant Service-related privacy policies ; NULL ; NULL ; NULL&gt; }
+&lt;Description: Privacy policies must be easily viewable to anyone at any time&gt;{#type1#,  &lt;  Privacy policies  ;  must be easily viewable  ;  NULL  ;  to anyone at any time  ;  NULL  ;  NULL&gt; }
+&lt;Description: Privacy policies should be available before and after a user starts to use the Relevant Service&gt;{#type1#,  &lt;  Privacy policies  ;  should be available  ;  before and after a user starts to use the Relevant Service  ;  NULL  ;  NULL  ; NULL&gt; }
 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: Relevant Service-related privacy policies can only be implemented if they are disclosed by developers', 'Relevant Service-related privacy policies  ', '  can only be implemented  ', '  they are disclosed  ', '  by developers  ', '  NULL  ', '  NULL', 'NULL'], ['type2', 'Description: Privacy policies can only be considered compliant if they are easily viewable to anyone at any time', 'Privacy policies  ', '  can be considered  ', '  compliant  ', '  easily viewable to anyone at any time ', '  NULL  ', '  NULL', 'NULL'], ['type2', 'Description: Privacy policies can only be considered compliant if they are available before and after a user starts to use the Relevant Service', 'Privacy policies  ', '  can be considered  ', '  compliant  ', '  NULL  ', '  available before and after a user starts to use the Relevant Service  ', '  NULL']]</t>
+          <t>[['type1', 'Description: Developers shall disclose Relevant Service-related privacy policies', 'Developers ', ' disclose ', ' Relevant Service-related privacy policies ', ' NULL ', ' NULL ', ' NULL'], ['type1', 'Description: Privacy policies must be easily viewable to anyone at any time', '  Privacy policies  ', '  must be easily viewable  ', '  NULL  ', '  to anyone at any time  ', '  NULL  ', '  NULL'], ['type1', 'Description: Privacy policies should be available before and after a user starts to use the Relevant Service', '  Privacy policies  ', '  should be available  ', '  before and after a user starts to use the Relevant Service  ', '  NULL  ', '  NULL  ', ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Your application or service can only collect, store, process or use data of end users (including any personal data or information) if it complies with the privacy policy and other requirements&gt;{#type2#,  &lt;Your application or service  ;  can collect, store, process or use  ;  data of end users (including any personal data or information)  ;  from end users  ;  NULL  ;  if it complies with the privacy policy and other requirements&gt;  ,  &lt;NULL&gt;}
-&lt;Description: You must establish a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information&gt;{#type1#, &lt;You ; establish a privacy policy ; a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information ; from end users ; NULL ; NULL&gt;}
-&lt;Description: Your privacy policy must comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy&gt;{#type2#, &lt;Your privacy policy ; must comply with and be consistent with ; the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy ; NULL ; NULL ; NULL&gt; , &lt;Third party is: WeChat or Weixin&gt;}
+          <t xml:space="preserve">&lt;Description: You shall establish and comply with a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information (including for advertising) with us and other third parties.&gt;{#type1#,  &lt;  privacy policy  ;  describes  ;  personal data you collect, how you use and share such information  ;  to end users  ;  including for advertising  ;  with us and other third parties&gt; }
+&lt;Description: The privacy policy must comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy (as applicable).&gt;{#type2#, &lt;The privacy policy ; must comply with and be consistent with ; the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy ; from user ; NULL&gt;}, &lt;Third party is: WeChat or Weixin&gt;
 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: Your application or service can only collect, store, process or use data of end users (including any personal data or information) if it complies with the privacy policy and other requirements', 'Your application or service  ', '  can collect, store, process or use  ', '  data of end users (including any personal data or information)  ', '  from end users  ', '  NULL  ', '  if it complies with the privacy policy and other requirements', 'NULL'], ['type1', 'Description: You must establish a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information', 'You ', ' establish a privacy policy ', ' a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information ', ' from end users ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy policy must comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy', 'Your privacy policy ', ' must comply with and be consistent with ', ' the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy ', ' NULL ', ' NULL ', ' NULL', 'Third party is: WeChat or Weixin']]</t>
+          <t>[['type1', 'Description: You shall establish and comply with a privacy policy that clearly and accurately describes to end users what personal data you collect and how you use and share such information (including for advertising) with us and other third parties.', '  privacy policy  ', '  describes  ', '  personal data you collect, how you use and share such information  ', '  to end users  ', '  including for advertising  ', '  with us and other third parties'], ['type2', 'Description: The privacy policy must comply with and be consistent with the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy (as applicable).', 'The privacy policy ', ' must comply with and be consistent with ', ' the terms and requirements set out in the Agreement and the WeChat or Weixin Privacy Policy ', ' from user ', ' NULL', 'Third party is: WeChat or Weixin']]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You can only use the Platform to Process Platform Data if you provide and comply with a publicly available and easily accessible privacy policy.&gt;{#type1#, &lt;You  ;  use the Platform  ;  Process Platform Data  ;  NULL  ;  comply with a publicly available and easily accessible privacy policy  ;  NULL&gt;}
-&lt;Description: Your privacy policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.&gt;{#type2#, &lt;Your privacy policy ; must comply with ; applicable law and regulations ; NULL ; accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data ; NULL&gt;}
-&lt;Description: You must maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.&gt;{#type2#, &lt;You ; must maintain publicly available links ; to your privacy policies ; in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable ; to ensure the links remain current and up to date ; NULL&gt;, &lt;NULL&gt;}
+          <t xml:space="preserve">&lt;Description: If you use Platform to Process Platform Data, you will provide and comply with a publicly available and easily accessible privacy policy.&gt;{#type1#,  &lt;  Privacy Policy  ;  provide and comply with  ;  a publicly available and easily accessible privacy policy  ;  from user  ;  to Process Platform Data  ;  NULL&gt; }
+&lt;Description: This policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.&gt;{#type1#, &lt;This policy ; comply with ; applicable law and regulations ; NULL ; accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data ; NULL&gt;}
+&lt;Description: You will maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.&gt;{#type1#,  &lt;  Privacy Policy  ;  maintain publicly available links  ;  privacy policies  ;  privacy policy field in the settings of your App Dashboard, App Store  ;  ensure the links remain current and up to date  ;  NULL&gt; }
 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You can only use the Platform to Process Platform Data if you provide and comply with a publicly available and easily accessible privacy policy.', 'You  ', '  use the Platform  ', '  Process Platform Data  ', '  NULL  ', '  comply with a publicly available and easily accessible privacy policy  ', '  NULL'], ['type2', 'Description: Your privacy policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.', 'Your privacy policy ', ' must comply with ', ' applicable law and regulations ', ' NULL ', ' accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data ', ' NULL'], ['type2', 'Description: You must maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.', 'You ', ' must maintain publicly available links ', ' to your privacy policies ', ' in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable ', ' to ensure the links remain current and up to date ', ' NULL', 'NULL']]</t>
+          <t>[['type1', 'Description: If you use Platform to Process Platform Data, you will provide and comply with a publicly available and easily accessible privacy policy.', '  Privacy Policy  ', '  provide and comply with  ', '  a publicly available and easily accessible privacy policy  ', '  from user  ', '  to Process Platform Data  ', '  NULL'], ['type1', 'Description: This policy must comply with applicable law and regulations and must accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data.', 'This policy ', ' comply with ', ' applicable law and regulations ', ' NULL ', ' accurately and clearly explain what data you are Processing, how you are Processing it, the purposes for which you are Processing it, and how Users may request deletion of that data ', ' NULL'], ['type1', 'Description: You will maintain publicly available links to your privacy policies in the privacy policy field in the settings of your App Dashboard, as well as in any App Store that allows you to do so, if applicable, and ensure the links remain current and up to date.', '  Privacy Policy  ', '  maintain publicly available links  ', '  privacy policies  ', '  privacy policy field in the settings of your App Dashboard, App Store  ', '  ensure the links remain current and up to date  ', '  NULL']]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Your disclosure to End Users can only be complete and accurate if you provide all necessary information about the data collection and use practices associated with the Application.&gt;{#type1#, &lt;Your disclosure to End Users ; can be complete and accurate ; all necessary information about the data collection and use practices associated with the Application ; NULL ; NULL ; NULL&gt;}
-&lt;Description: Your privacy practices and policies applicable to the Application can only be disclosed if you provide clear and prominent notice to End Users about the collection, use, sharing, and storage of their personal information.&gt;{#type2#, &lt;Your privacy practices and policies  ;  can only be disclosed  ;  the collection, use, sharing, and storage of their personal information  ;  from End Users  ;  NULL  ;  NULL&gt;}
+          <t xml:space="preserve">&lt;Description: make a complete and accurate disclosure to your End Users&gt;{#type1#, &lt;a privacy policy ; make a complete and accurate disclosure ; to your End Users ; NULL ; NULL ; NULL&gt;}
+&lt;Description: disclosure of the privacy practices and policies applicable to the Application&gt;{#type1#,  &lt;  disclosure  ;  practices and policies  ;  applicable to the Application  ;  NULL  ;  NULL  ; NULL&gt; }
 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: Your disclosure to End Users can only be complete and accurate if you provide all necessary information about the data collection and use practices associated with the Application.', 'Your disclosure to End Users ', ' can be complete and accurate ', ' all necessary information about the data collection and use practices associated with the Application ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy practices and policies applicable to the Application can only be disclosed if you provide clear and prominent notice to End Users about the collection, use, sharing, and storage of their personal information.', 'Your privacy practices and policies  ', '  can only be disclosed  ', '  the collection, use, sharing, and storage of their personal information  ', '  from End Users  ', '  NULL  ', '  NULL']]</t>
+          <t>[['type1', 'Description: make a complete and accurate disclosure to your End Users', 'a privacy policy ', ' make a complete and accurate disclosure ', ' to your End Users ', ' NULL ', ' NULL ', ' NULL'], ['type1', 'Description: disclosure of the privacy practices and policies applicable to the Application', '  disclosure  ', '  practices and policies  ', '  applicable to the Application  ', '  NULL  ', '  NULL  ', ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Your Application can only collect and process user data if you provide and adhere to a published privacy policy&gt;{#type2#, &lt;Your Application ; collect and process ; user data ; from user ; NULL ; if you provide and adhere to a published privacy policy&gt;, &lt;NULL&gt;}
-&lt;Description: Your privacy policy must be easily accessible and conspicuously linked from the Application&gt;{#type2#, &lt;Your privacy policy ; must be easily accessible and conspicuously linked ; from the Application ; from user ; NULL ; NULL&gt;, &lt;NULL&gt;}
-&lt;Description: Your privacy policy must incorporate by reference and link to the Snap Privacy Policy&gt;{#type2#,  &lt;Your privacy policy  ;  must incorporate by reference and link  ;  the Snap Privacy Policy  ;  NULL  ;  NULL  ;  NULL&gt;}
-&lt;Description: Your privacy policy must clearly and accurately describe to users what user information is accessed, collected, and stored by you and your Application&gt;{#type1#, &lt;Your privacy policy ; must clearly and accurately describe ; what user information is accessed, collected, and stored by you and your Application ; NULL ; NULL ; NULL&gt;}
-&lt;Description: Your privacy policy must explain how and why the user information is used, processed, and shared with Snap and other third parties&gt;{#type2#, &lt;Your privacy policy ; must explain ; how and why user information is used, processed, and shared ; with Snap and other third parties ; NULL ; NULL&gt; , &lt;Third party is: Snap and other third parties&gt; }
+          <t xml:space="preserve">&lt;Description: You will provide and adhere to a published privacy policy for your Application&gt;{#type1#,  &lt;  You  ;  provide and adhere to  ;  a published privacy policy for your Application  ;  NULL  ;  NULL  ; NULL&gt; }
+&lt;Description: The privacy policy must be easily accessible and conspicuously linked from the Application&gt;{#type1#,  &lt;  The privacy policy  ;  must be  ;  easily accessible and conspicuously linked  ;  from the Application  ;  NULL  ;  NULL&gt; }
+&lt;Description: The privacy policy must incorporate by reference and link to the Snap Privacy Policy&gt;{#type2#, &lt;The privacy policy ; must incorporate by reference and link ; the Snap Privacy Policy ; NULL ; NULL ; NULL&gt;}, &lt;need LINK to : Snap Privacy Policy&gt;
+&lt;Description: The privacy policy must clearly and accurately describe what user information is accessed, collected, and stored by you and your Application&gt;{#type1#,  &lt;  The privacy policy  ;  describe  ;  what user information is accessed, collected, and stored  ;  by you and your Application  ;  NULL  ;  NULL&gt; }
+&lt;Description: The privacy policy must explain how and why you and your Application use, process, and share user information with Snap and other third parties&gt;{#type2#,  &lt;The privacy policy  ;  must explain  ;  how and why you and your Application use, process, and share user information  ;  with Snap and other third parties  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: Snap and other third parties&gt;}
 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: Your Application can only collect and process user data if you provide and adhere to a published privacy policy', 'Your Application ', ' collect and process ', ' user data ', ' from user ', ' NULL ', ' if you provide and adhere to a published privacy policy', 'NULL'], ['type2', 'Description: Your privacy policy must be easily accessible and conspicuously linked from the Application', 'Your privacy policy ', ' must be easily accessible and conspicuously linked ', ' from the Application ', ' from user ', ' NULL ', ' NULL', 'NULL'], ['type2', 'Description: Your privacy policy must incorporate by reference and link to the Snap Privacy Policy', 'Your privacy policy  ', '  must incorporate by reference and link  ', '  the Snap Privacy Policy  ', '  NULL  ', '  NULL  ', '  NULL'], ['type1', 'Description: Your privacy policy must clearly and accurately describe to users what user information is accessed, collected, and stored by you and your Application', 'Your privacy policy ', ' must clearly and accurately describe ', ' what user information is accessed, collected, and stored by you and your Application ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy policy must explain how and why the user information is used, processed, and shared with Snap and other third parties', 'Your privacy policy ', ' must explain ', ' how and why user information is used, processed, and shared ', ' with Snap and other third parties ', ' NULL ', ' NULL', 'Third party is: Snap and other third parties']]</t>
+          <t>[['type1', 'Description: You will provide and adhere to a published privacy policy for your Application', '  You  ', '  provide and adhere to  ', '  a published privacy policy for your Application  ', '  NULL  ', '  NULL  ', ' NULL'], ['type1', 'Description: The privacy policy must be easily accessible and conspicuously linked from the Application', '  The privacy policy  ', '  must be  ', '  easily accessible and conspicuously linked  ', '  from the Application  ', '  NULL  ', '  NULL'], ['type2', 'Description: The privacy policy must incorporate by reference and link to the Snap Privacy Policy', 'The privacy policy ', ' must incorporate by reference and link ', ' the Snap Privacy Policy ', ' NULL ', ' NULL ', ' NULL', 'need LINK to : Snap Privacy Policy'], ['type1', 'Description: The privacy policy must clearly and accurately describe what user information is accessed, collected, and stored by you and your Application', '  The privacy policy  ', '  describe  ', '  what user information is accessed, collected, and stored  ', '  by you and your Application  ', '  NULL  ', '  NULL'], ['type2', 'Description: The privacy policy must explain how and why you and your Application use, process, and share user information with Snap and other third parties', 'The privacy policy  ', '  must explain  ', '  how and why you and your Application use, process, and share user information  ', '  with Snap and other third parties  ', '  NULL  ', '  NULL', 'Third party is: Snap and other third parties']]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Your use, collection, and sharing of mobile device advertising identifiers and other personal information can only be implemented if your privacy policy describes these practices.&gt;{#type2#, &lt;Your privacy policy ; describes ; your use, collection, and sharing of mobile device advertising identifiers and other personal information ; NULL ; NULL ; NULL&gt;, &lt;Third party is: NULL&gt;}
-&lt;Description: Your privacy policy must include the use of information for behaviorally targeted online advertising.&gt;{#type1#, &lt;Your privacy policy ; include ; the use of information for behaviorally targeted online advertising ; NULL ; NULL ; NULL&gt;}
-&lt;Description: Your privacy policy must provide an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt-out&gt;, &lt;need link to guide how to opt-out&gt;}
-&lt;Description: You must provide California users the ability to opt-out from the sale of their information.&gt;{#type3-Q1#, &lt;NULL ; NULL ; NULL ; NULL ; NULL ; NULL&gt; , &lt;mention opt-out : sale of their information&gt; , &lt;NULL&gt;}
+          <t xml:space="preserve">&lt;Description: Your privacy policy must describe how you and third parties use, collect, and share mobile device advertising identifiers and other personal information&gt;{#type2#,  &lt;Your privacy policy  ;  must describe  ;  how you and third parties use, collect, and share mobile device advertising identifiers and other personal information  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: third parties&gt; }
+&lt;Description: Your privacy policy must include an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising&gt;"#type3-Q1#": null,
+&lt;Description: Provide California users the ability to opt-out from the sale of their information&gt;#type3-Q1#,
 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: Your use, collection, and sharing of mobile device advertising identifiers and other personal information can only be implemented if your privacy policy describes these practices.', 'Your privacy policy ', ' describes ', ' your use, collection, and sharing of mobile device advertising identifiers and other personal information ', ' NULL ', ' NULL ', ' NULL', 'Third party is: NULL'], ['type1', 'Description: Your privacy policy must include the use of information for behaviorally targeted online advertising.', 'Your privacy policy ', ' include ', ' the use of information for behaviorally targeted online advertising ', ' NULL ', ' NULL ', ' NULL'], ['type3-Q1', 'Description: Your privacy policy must provide an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt-out', 'need link to guide how to opt-out'], ['type3-Q1', 'Description: You must provide California users the ability to opt-out from the sale of their information.', 'NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL', 'mention opt-out : sale of their information', 'NULL']]</t>
+          <t>[['type2', 'Description: Your privacy policy must describe how you and third parties use, collect, and share mobile device advertising identifiers and other personal information', 'Your privacy policy  ', '  must describe  ', '  how you and third parties use, collect, and share mobile device advertising identifiers and other personal information  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: third parties'], ['type3-Q1', 'Description: Your privacy policy must include an opt-out link directing users to an industry-recognized opt-out from online behavioral advertising'], ['type3-Q1', 'Description: Provide California users the ability to opt-out from the sale of their information']]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Your use of our Services can only be implemented if you provide notice to your users of the data collection and disclosure practices involved and obtain their consent.&gt;{#type2#, &lt;Your use of our Services  ;  can only be implemented  ;  provide notice to your users of the data collection and disclosure practices involved and obtain their consent  ;  NULL  ;  NULL  ;  NULL&gt;}
-&lt;Description: Using our Services is only permissible if you provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services.&gt;{#type2#, &lt;You ; provide ; appropriate notices to users of your application(s) ; about data collection and use practices related to your use of our Services ; NULL ; NULL&gt;, &lt;Third party is: NULL&gt;}
-&lt;Description: Our Services can only be used if you obtain user consent to the data collection and use practices, including for rewarding user engagement and behaviorally targeted online advertising.&gt;{#type2#, &lt;Our Services  ;  can only be used  ;  user consent to the data collection and use practices, including for rewarding user engagement and behaviorally targeted online advertising  ;  from user  ;  NULL  ;  NULL&gt;}
+          <t xml:space="preserve">&lt;Description: As a condition of using our Services, you must provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services.&gt;{#type1#, &lt;a privacy policy ; provide appropriate notices to users ; data collection and use practices related to your use of our Services ; from user ; NULL ; as a condition of using our Services&gt;}
 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: Your use of our Services can only be implemented if you provide notice to your users of the data collection and disclosure practices involved and obtain their consent.', 'Your use of our Services  ', '  can only be implemented  ', '  provide notice to your users of the data collection and disclosure practices involved and obtain their consent  ', '  NULL  ', '  NULL  ', '  NULL'], ['type2', 'Description: Using our Services is only permissible if you provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services.', 'You ', ' provide ', ' appropriate notices to users of your application(s) ', ' about data collection and use practices related to your use of our Services ', ' NULL ', ' NULL', 'Third party is: NULL'], ['type2', 'Description: Our Services can only be used if you obtain user consent to the data collection and use practices, including for rewarding user engagement and behaviorally targeted online advertising.', 'Our Services  ', '  can only be used  ', '  user consent to the data collection and use practices, including for rewarding user engagement and behaviorally targeted online advertising  ', '  from user  ', '  NULL  ', '  NULL']]</t>
+          <t>[['type1', 'Description: As a condition of using our Services, you must provide appropriate notices to users of your application(s) about data collection and use practices related to your use of our Services.', 'a privacy policy ', ' provide appropriate notices to users ', ' data collection and use practices related to your use of our Services ', ' from user ', ' NULL ', ' as a condition of using our Services']]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The Partner must post a privacy policy in their App that adheres to all applicable rules, laws, acts, and regulations&gt;{#type2#, &lt;The Partner  ;  must post  ;  a privacy policy  ;  in their App  ;  adheres to all applicable rules, laws, acts, and regulations  ;  NULL&gt;}
-&lt;Description: Any information relating to End Users that will be provided or is accessible to ironSource must be legally disclosed in the privacy policy&gt;{#type2#, &lt;privacy policy ; must be legally disclosed ; any information relating to End Users that will be provided or is accessible to ironSource ; from user ; NULL ; NULL&gt; , &lt;Third party is: ironSource&gt;}
-&lt;Description: The privacy policy should include an opt-out mechanism for End Users regarding targeted ads based on their behavior and interests&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt-out : targeted ads based on their behavior and interests&gt;, &lt;need link to guide how to opt-out&gt;}
-&lt;Description: The Partner confirms that their privacy policy is consistent with the IronSource Mobile Privacy Policy&gt;{#type2#, &lt;The Partner  ;  confirms  ;  their privacy policy is consistent with the IronSource Mobile Privacy Policy  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: IronSource Mobile Privacy Policy&gt; }
+          <t xml:space="preserve">&lt;Description: Partner shall post in the Partner's App a privacy policy that abides by all applicable rules, laws, acts and regulations&gt;{#type1#,  &lt;  Partner's App  ;  post  ;  a privacy policy  ;  NULL  ;  abide by all applicable rules, laws, acts and regulations  ; NULL&gt; }
+&lt;Description: The privacy policy must provide legally adequate disclosure to its End Users about any information relating to End Users that will be provided or is otherwise accessible to ironSource&gt;{#type2#, &lt;The privacy policy ; must provide legally adequate disclosure ; any information relating to End Users that will be provided or is otherwise accessible ; from End Users ; to ironSource ; NULL&gt;, &lt;Third party is: ironSource&gt;}
+&lt;Description: The privacy policy must include a mechanism for End Users to opt-out of receiving targeted ads based on their behavior and interests&gt;"#type3-Q1#",
+&lt;Description: Partner confirms that it has read and understood the IronSource Mobile Privacy Policy&gt;{#type2#, &lt;Partner  ;  confirms  ;  it has read and understood  ;  the IronSource Mobile Privacy Policy  ;  NULL  ;  NULL&gt;}, &lt;Third party is: IronSource Mobile Privacy Policy&gt;
+&lt;Description: Partner confirms that nothing in the IronSource Mobile Privacy Policy is contrary to Partner's privacy policy&gt;{#type2#, &lt;Partner  ;  confirms  ;  nothing in the IronSource Mobile Privacy Policy is contrary  ;  NULL  ;  NULL  ;  NULL&gt;}, &lt;Third party is: IronSource Mobile Privacy Policy&gt;
 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: The Partner must post a privacy policy in their App that adheres to all applicable rules, laws, acts, and regulations', 'The Partner  ', '  must post  ', '  a privacy policy  ', '  in their App  ', '  adheres to all applicable rules, laws, acts, and regulations  ', '  NULL'], ['type2', 'Description: Any information relating to End Users that will be provided or is accessible to ironSource must be legally disclosed in the privacy policy', 'privacy policy ', ' must be legally disclosed ', ' any information relating to End Users that will be provided or is accessible to ironSource ', ' from user ', ' NULL ', ' NULL', 'Third party is: ironSource'], ['type3-Q1', 'Description: The privacy policy should include an opt-out mechanism for End Users regarding targeted ads based on their behavior and interests', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt-out : targeted ads based on their behavior and interests', 'need link to guide how to opt-out'], ['type2', 'Description: The Partner confirms that their privacy policy is consistent with the IronSource Mobile Privacy Policy', 'The Partner  ', '  confirms  ', '  their privacy policy is consistent with the IronSource Mobile Privacy Policy  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: IronSource Mobile Privacy Policy']]</t>
+          <t>[['type1', "Description: Partner shall post in the Partner's App a privacy policy that abides by all applicable rules, laws, acts and regulations", "  Partner's App  ", '  post  ', '  a privacy policy  ', '  NULL  ', '  abide by all applicable rules, laws, acts and regulations  ', ' NULL'], ['type2', 'Description: The privacy policy must provide legally adequate disclosure to its End Users about any information relating to End Users that will be provided or is otherwise accessible to ironSource', 'The privacy policy ', ' must provide legally adequate disclosure ', ' any information relating to End Users that will be provided or is otherwise accessible ', ' from End Users ', ' to ironSource ', ' NULL', 'Third party is: ironSource'], ['type3-Q1', 'Description: The privacy policy must include a mechanism for End Users to opt-out of receiving targeted ads based on their behavior and interests'], ['type2', 'Description: Partner confirms that it has read and understood the IronSource Mobile Privacy Policy', 'Partner  ', '  confirms  ', '  it has read and understood  ', '  the IronSource Mobile Privacy Policy  ', '  NULL  ', '  NULL', 'Third party is: IronSource Mobile Privacy Policy'], ['type2', "Description: Partner confirms that nothing in the IronSource Mobile Privacy Policy is contrary to Partner's privacy policy", 'Partner  ', '  confirms  ', '  nothing in the IronSource Mobile Privacy Policy is contrary  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: IronSource Mobile Privacy Policy']]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: A privacy policy making appropriate disclosures to End-Users must be maintained, displayed and adhered to at all times.&gt;{#type2#, &lt;A privacy policy  ;  making appropriate disclosures  ;  End-Users  ;  NULL  ;  NULL  ;  NULL&gt;}
-&lt;Description: Your privacy policy must comply with all applicable privacy and data protection laws, regulations, requirements, terms, and guidelines.&gt;{#type1#, &lt;Your privacy policy ; must comply with ; all applicable privacy and data protection laws, regulations, requirements, terms, and guidelines ; NULL ; NULL ; NULL&gt;}
-&lt;Description: Your privacy policy must explain that Services Data will be processed in accordance with these Terms and the Unity Privacy Policy or ironSource Privacy Policy.&gt;{#type2#, &lt;Your privacy policy ; must explain ; Services Data will be processed in accordance with these Terms and the Unity Privacy Policy or ironSource Privacy Policy ; NULL ; NULL ; NULL&gt; , &lt;Third party is: Unity Privacy Policy and ironSource Privacy Policy&gt; }
-&lt;Description: Your privacy policy must disclose the use of tracking pixels, agents or other technologies that collect, use, share and store data about end users.&gt;{#type2#, &lt;Your privacy policy ; must disclose ; the use of tracking pixels, agents or other technologies that collect, use, share and store data ; about end users ; NULL ; NULL&gt;, &lt;Third party is: NULL&gt;}
-&lt;Description: Your privacy policy must include a link to the Unity Privacy Policy or ironSource Privacy Policy, as applicable.&gt;{#type2#, &lt;Your privacy policy ; must include ; a link to the Unity Privacy Policy or ironSource Privacy Policy ; NULL ; NULL ; NULL&gt;, &lt;Third party is: Unity Privacy Policy or ironSource Privacy Policy&gt;}
-&lt;Description: Your privacy policy must explain how End-Users can opt out of the Offerings, if applicable.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt out&gt;, &lt;NULL&gt;}
+          <t xml:space="preserve">&lt;Description: You will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users&gt;{#type1#, &lt;a privacy policy ; maintain, display and abide by ; appropriate disclosures to End-Users ; from user ; NULL ; NULL&gt;}
+&lt;Description: Your privacy policy must comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers&gt;{#type1#,  &lt;  privacy policy  ;  comply with  ;  all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers  ;  NULL  ;  NULL  ; NULL&gt; }
+&lt;Description: Your privacy policy must explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable&gt;{#type2#, &lt;Your privacy policy ; must explain ; Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy ; NULL ; NULL ; NULL&gt;, &lt;Third party is: Unity Privacy Policy, ironSource Privacy Policy&gt;}
+&lt;Description: Your privacy policy must provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application&gt;{#type1#,  &lt;privacy policy ; provide notice of ; use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data ; about end users of your Application ; NULL ; NULL&gt; }
+&lt;Description: Your privacy policy must include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable&gt;{#type2#, &lt;Your privacy policy ; must include ; a link to the Unity Privacy Policy, or ironSource Privacy Policy ; NULL ; NULL ; as applicable&gt;, &lt;need LINK to : Unity Privacy Policy or ironSource Privacy Policy&gt;}
+&lt;Description: Your privacy policy must explain how End-Users can opt out of the Offerings, if applicable&gt;"#type3-Q1#": null,
 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: A privacy policy making appropriate disclosures to End-Users must be maintained, displayed and adhered to at all times.', 'A privacy policy  ', '  making appropriate disclosures  ', '  End-Users  ', '  NULL  ', '  NULL  ', '  NULL'], ['type1', 'Description: Your privacy policy must comply with all applicable privacy and data protection laws, regulations, requirements, terms, and guidelines.', 'Your privacy policy ', ' must comply with ', ' all applicable privacy and data protection laws, regulations, requirements, terms, and guidelines ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy policy must explain that Services Data will be processed in accordance with these Terms and the Unity Privacy Policy or ironSource Privacy Policy.', 'Your privacy policy ', ' must explain ', ' Services Data will be processed in accordance with these Terms and the Unity Privacy Policy or ironSource Privacy Policy ', ' NULL ', ' NULL ', ' NULL', 'Third party is: Unity Privacy Policy and ironSource Privacy Policy'], ['type2', 'Description: Your privacy policy must disclose the use of tracking pixels, agents or other technologies that collect, use, share and store data about end users.', 'Your privacy policy ', ' must disclose ', ' the use of tracking pixels, agents or other technologies that collect, use, share and store data ', ' about end users ', ' NULL ', ' NULL', 'Third party is: NULL'], ['type2', 'Description: Your privacy policy must include a link to the Unity Privacy Policy or ironSource Privacy Policy, as applicable.', 'Your privacy policy ', ' must include ', ' a link to the Unity Privacy Policy or ironSource Privacy Policy ', ' NULL ', ' NULL ', ' NULL', 'Third party is: Unity Privacy Policy or ironSource Privacy Policy'], ['type3-Q1', 'Description: Your privacy policy must explain how End-Users can opt out of the Offerings, if applicable.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt out', 'NULL']]</t>
+          <t>[['type1', 'Description: You will at all times maintain, display and abide by a conspicuously placed privacy policy that makes appropriate disclosures to End-Users', 'a privacy policy ', ' maintain, display and abide by ', ' appropriate disclosures to End-Users ', ' from user ', ' NULL ', ' NULL'], ['type1', 'Description: Your privacy policy must comply with all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers', '  privacy policy  ', '  comply with  ', '  all applicable privacy and data protection laws and regulations and/or any applicable requirements, terms, or guidelines required by your platform providers  ', '  NULL  ', '  NULL  ', ' NULL'], ['type2', 'Description: Your privacy policy must explain that Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy, as applicable', 'Your privacy policy ', ' must explain ', ' Services Data can be processed as contemplated by these Terms and as set out in the Unity Privacy Policy, or ironSource Privacy Policy ', ' NULL ', ' NULL ', ' NULL', 'Third party is: Unity Privacy Policy, ironSource Privacy Policy'], ['type1', 'Description: Your privacy policy must provide notice of your use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data about end users of your Application', 'privacy policy ', ' provide notice of ', ' use of a tracking pixel, agent or any other visitor identification technology that collects, uses, shares and stores data ', ' about end users of your Application ', ' NULL ', ' NULL'], ['type2', 'Description: Your privacy policy must include a link to the Unity Privacy Policy, or ironSource Privacy Policy, as applicable', 'Your privacy policy ', ' must include ', ' a link to the Unity Privacy Policy, or ironSource Privacy Policy ', ' NULL ', ' NULL ', ' as applicable', 'need LINK to : Unity Privacy Policy or ironSource Privacy Policy'], ['type3-Q1', 'Description: Your privacy policy must explain how End-Users can opt out of the Offerings, if applicable']]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You can use the Services only if you have a clearly labeled and easily accessible privacy policy&gt;{#type2#, &lt;You  ;  can use  ;  the Services  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
-&lt;Description: Your privacy policy must comply with all applicable laws&gt;{#type2#, &lt;Your privacy policy ; must comply ; with all applicable laws ; NULL ; NULL ; NULL&gt;, &lt;NULL&gt;}
-&lt;Description: You must provide end users with clear and comprehensive information about cookies&gt;{#type2#, &lt;You ; provide ; clear and comprehensive information about cookies ; to end users ; NULL ; NULL&gt;, &lt;NULL&gt;}
-&lt;Description: You must provide end users with clear and comprehensive information about device-specific information&gt;{#type2#, &lt;You ; provide ; clear and comprehensive information about device-specific information ; to end users ; NULL ; NULL&gt;, &lt;NULL&gt;}
-&lt;Description: You must provide end users with clear and comprehensive information about location information&gt;{#type2#, &lt;You ; provide ; clear and comprehensive information about location information ; to end users ; NULL ; NULL&gt;, &lt;NULL&gt;}
-&lt;Description: You must provide end users with clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices in connection with the Services&gt;{#type2#, &lt;You ; provide ; clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices in connection with the Services ; from end users' devices ; NULL ; NULL&gt;, &lt;Third party is: Services&gt;}
-&lt;Description: You must provide end users with information about their options for cookie management, as applicable&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt-out : cookie management&gt;, &lt;need link to guidance how to opt-out&gt;}
+          <t xml:space="preserve">&lt;Description: you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy&gt;{#type1#,  &lt;you (including without limitation each Mobile Property) ; have ; a clearly labeled and easily accessible privacy policy ; NULL ; NULL ; NULL&gt; }
+&lt;Description: privacy policy complies with all applicable laws&gt;{#type1#, &lt;privacy policy ; complies with ; all applicable laws ; NULL ; NULL ; NULL&gt;}
+&lt;Description: provides end users with clear and comprehensive information about cookies&gt;{#type1#, &lt;privacy policy; provides; clear and comprehensive information about cookies; to end users; NULL; NULL&gt;}
+&lt;Description: provides end users with clear and comprehensive information about device-specific information&gt;{#type1#,  &lt;  Privacy Policy  ;  provides  ;  clear and comprehensive information  ;  about device-specific information  ;  NULL  ;  NULL&gt; }
+&lt;Description: provides end users with clear and comprehensive information about location information&gt;{#type1#, &lt;a privacy policy; provides; clear and comprehensive information about location information; to end users; NULL; NULL&gt;}
+&lt;Description: provides end users with clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices&gt;{#type1#,  &lt;  Privacy Policy  ;  provides  ;  clear and comprehensive information  ;  about other information stored on, accessed on, or collected from end users' devices  ;  NULL  ;  NULL&gt; }
+&lt;Description: includes, as applicable, information about end users' options for cookie management&gt;{#type1#, &lt;privacy policy; includes; information about end users' options for cookie management; NULL; NULL; NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: You can use the Services only if you have a clearly labeled and easily accessible privacy policy', 'You  ', '  can use  ', '  the Services  ', '  NULL  ', '  NULL  ', '  NULL', 'NULL'], ['type2', 'Description: Your privacy policy must comply with all applicable laws', 'Your privacy policy ', ' must comply ', ' with all applicable laws ', ' NULL ', ' NULL ', ' NULL', 'NULL'], ['type2', 'Description: You must provide end users with clear and comprehensive information about cookies', 'You ', ' provide ', ' clear and comprehensive information about cookies ', ' to end users ', ' NULL ', ' NULL', 'NULL'], ['type2', 'Description: You must provide end users with clear and comprehensive information about device-specific information', 'You ', ' provide ', ' clear and comprehensive information about device-specific information ', ' to end users ', ' NULL ', ' NULL', 'NULL'], ['type2', 'Description: You must provide end users with clear and comprehensive information about location information', 'You ', ' provide ', ' clear and comprehensive information about location information ', ' to end users ', ' NULL ', ' NULL', 'NULL'], ['type2', "Description: You must provide end users with clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices in connection with the Services", 'You ', ' provide ', " clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices in connection with the Services ", " from end users' devices ", ' NULL ', ' NULL', 'Third party is: Services'], ['type3-Q1', 'Description: You must provide end users with information about their options for cookie management, as applicable', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt-out : cookie management', 'need link to guidance how to opt-out']]</t>
+          <t>[['type1', 'Description: you (including without limitation each Mobile Property) have a clearly labeled and easily accessible privacy policy', 'you (including without limitation each Mobile Property) ', ' have ', ' a clearly labeled and easily accessible privacy policy ', ' NULL ', ' NULL ', ' NULL'], ['type1', 'Description: privacy policy complies with all applicable laws', 'privacy policy ', ' complies with ', ' all applicable laws ', ' NULL ', ' NULL ', ' NULL'], ['type1', 'Description: provides end users with clear and comprehensive information about cookies', 'privacy policy', ' provides', ' clear and comprehensive information about cookies', ' to end users', ' NULL', ' NULL'], ['type1', 'Description: provides end users with clear and comprehensive information about device-specific information', '  Privacy Policy  ', '  provides  ', '  clear and comprehensive information  ', '  about device-specific information  ', '  NULL  ', '  NULL'], ['type1', 'Description: provides end users with clear and comprehensive information about location information', 'a privacy policy', ' provides', ' clear and comprehensive information about location information', ' to end users', ' NULL', ' NULL'], ['type1', "Description: provides end users with clear and comprehensive information about other information stored on, accessed on, or collected from end users' devices", '  Privacy Policy  ', '  provides  ', '  clear and comprehensive information  ', "  about other information stored on, accessed on, or collected from end users' devices  ", '  NULL  ', '  NULL'], ['type1', "Description: includes, as applicable, information about end users' options for cookie management", 'privacy policy', ' includes', " information about end users' options for cookie management", ' NULL', ' NULL', ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: The Services can only be used if the Properties have a clearly labeled and easily accessible privacy policy&gt;{#type2#, &lt;The Properties  ;  have  ;  a clearly labeled and easily accessible privacy policy  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
-&lt;Description: The privacy policy must provide end users with clear and comprehensive information about cookies&gt;{#type2#, &lt;The privacy policy ; provide end users ; with clear and comprehensive information about cookies ; from user ; NULL ; NULL&gt;, &lt;NULL&gt;}
-&lt;Description: The privacy policy must provide information about device-specific information&gt;{#type2#, &lt;The privacy policy ; provide information ; device-specific information ; NULL ; NULL ; NULL&gt;, &lt;NULL&gt;}
-&lt;Description: The privacy policy must provide information about location information&gt;{#type2#, &lt;The privacy policy ; provide information ; location information ; NULL ; NULL ; NULL&gt;, &lt;NULL&gt;}
-&lt;Description: The privacy policy must provide information about other information stored on, accessed on, or collected from end users' devices in connection with the Services&gt;{#type2#, &lt;The privacy policy ; provide information ; other information stored on, accessed on, or collected from end users' devices in connection with the Services ; from end users' devices ; NULL ; NULL&gt;, &lt;Third party is: Services&gt;}
-&lt;Description: The privacy policy must include information about end users' options for cookie management&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt-out : cookie management&gt;, &lt;need link to guidance how to opt-out&gt;}
+          <t xml:space="preserve">&lt;Description: You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy&gt;{#type1#,  &lt;  You  ;  use  ;  the Services  ;  NULL  ;  NULL  ;  NULL&gt; ; &lt;  The Properties  ;  have  ;  a clearly labeled and easily accessible privacy policy  ;  NULL  ;  NULL  ;  NULL&gt; }
+&lt;Description: The privacy policy provides end users with clear and comprehensive information about cookies&gt;{#type1#,  &lt;  The privacy policy  ;  provides  ;  clear and comprehensive information about cookies  ;  end users  ;  NULL  ;  NULL&gt; }
+&lt;Description: The privacy policy provides information about device-specific information&gt;{#type1#,  &lt;  The privacy policy  ;  provides information  ;  device-specific information    ;  NULL  ;  NULL  ; NULL&gt; }
+&lt;Description: The privacy policy provides information about location information&gt;{#type1#,  &lt;  The privacy policy  ;  provides information about   ;   location information    ;  NULL  ;  NULL  ; NULL&gt; }
+&lt;Description: The privacy policy provides information about other information stored on, accessed on, or collected from end users' devices in connection with the Services&gt;{#type1#,  &lt;  The privacy policy  ;  provides information  ;  other information stored on, accessed on, or collected from end users' devices  ;  in connection with the Services  ;  NULL  ;  NULL&gt; }
+&lt;Description: The privacy policy includes information about end users' options for cookie management&gt;{#type1#, &lt;The privacy policy ; includes information about ; end users' options for cookie management ; NULL ; NULL ; NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: The Services can only be used if the Properties have a clearly labeled and easily accessible privacy policy', 'The Properties  ', '  have  ', '  a clearly labeled and easily accessible privacy policy  ', '  NULL  ', '  NULL  ', '  NULL', 'NULL'], ['type2', 'Description: The privacy policy must provide end users with clear and comprehensive information about cookies', 'The privacy policy ', ' provide end users ', ' with clear and comprehensive information about cookies ', ' from user ', ' NULL ', ' NULL', 'NULL'], ['type2', 'Description: The privacy policy must provide information about device-specific information', 'The privacy policy ', ' provide information ', ' device-specific information ', ' NULL ', ' NULL ', ' NULL', 'NULL'], ['type2', 'Description: The privacy policy must provide information about location information', 'The privacy policy ', ' provide information ', ' location information ', ' NULL ', ' NULL ', ' NULL', 'NULL'], ['type2', "Description: The privacy policy must provide information about other information stored on, accessed on, or collected from end users' devices in connection with the Services", 'The privacy policy ', ' provide information ', " other information stored on, accessed on, or collected from end users' devices in connection with the Services ", " from end users' devices ", ' NULL ', ' NULL', 'Third party is: Services'], ['type3-Q1', "Description: The privacy policy must include information about end users' options for cookie management", 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt-out : cookie management', 'need link to guidance how to opt-out']]</t>
+          <t>[['type1', 'Description: You will ensure that at all times you use the Services, the Properties have a clearly labeled and easily accessible privacy policy', '  You  ', '  use  ', '  the Services  ', '  NULL  ', '  NULL  ', '  NULL', '  The Properties  ', '  have  ', '  a clearly labeled and easily accessible privacy policy  ', '  NULL  ', '  NULL  ', '  NULL'], ['type1', 'Description: The privacy policy provides end users with clear and comprehensive information about cookies', '  The privacy policy  ', '  provides  ', '  clear and comprehensive information about cookies  ', '  end users  ', '  NULL  ', '  NULL'], ['type1', 'Description: The privacy policy provides information about device-specific information', '  The privacy policy  ', '  provides information  ', '  device-specific information    ', '  NULL  ', '  NULL  ', ' NULL'], ['type1', 'Description: The privacy policy provides information about location information', '  The privacy policy  ', '  provides information about   ', '   location information    ', '  NULL  ', '  NULL  ', ' NULL'], ['type1', "Description: The privacy policy provides information about other information stored on, accessed on, or collected from end users' devices in connection with the Services", '  The privacy policy  ', '  provides information  ', "  other information stored on, accessed on, or collected from end users' devices  ", '  in connection with the Services  ', '  NULL  ', '  NULL'], ['type1', "Description: The privacy policy includes information about end users' options for cookie management", 'The privacy policy ', ' includes information about ', " end users' options for cookie management ", ' NULL ', ' NULL ', ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: A publicly accessible privacy notice within the Developer App can only be posted, maintained, and followed if it satisfies the transparency and information requirements of the Privacy Requirements and the Agreement.&gt;{#type2#, &lt;A publicly accessible privacy notice  ;  can be posted, maintained, and followed  ;  NULL  ;  NULL  ;  satisfies the transparency and information requirements of the Privacy Requirements and the Agreement  ;  NULL&gt;}
-&lt;Description: The privacy notice must satisfy the transparency and information requirements of the Privacy Requirements and the Agreement.&gt;{#type1#, &lt;The privacy notice ; must satisfy ; the transparency and information requirements ; NULL ; NULL ; NULL&gt;}
-&lt;Description: If notice cannot be provided in or around Vungle Ads, arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad must be made.&gt;{#type2#, &lt;Privacy Policy ; must arrange ; notice within the Developer App or on the landing page of the Vungle Ad ; from user ; to provide notice ; if notice cannot be provided in or around Vungle Ads&gt; , &lt;Third party is: Vungle&gt;}
-&lt;Description: The notice must state that third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads.&gt;{#type2#, &lt;The notice  ;  must state  ;  third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: third parties&gt; }
-&lt;Description: The notice must include a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting.&gt;{#type3-Q1#, &lt;NULL ; NULL ; NULL ; NULL ; NULL ; NULL&gt; , &lt;mention opt-out : collection and use of information for ad targeting&gt; , &lt;need link to guide how to opt-out&gt;}
-&lt;Description: The notice must describe the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred to third parties.&gt;{#type2#, &lt;The notice  ;  describe  ;  the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred  ;  to third parties  ;  NULL  ;  NULL&gt;}
-&lt;Description: If Ad Data is protected by EU Data Protection Law, the privacy notice must include the type of Personal Data collected, the purposes of processing, categories of individuals with access, legitimate interests pursued, the identity of the Controller(s), and any other information required by the EU Data Protection Law.&gt;{#type2#, &lt;privacy notice  ;  must include  ;  type of Personal Data collected, purposes of processing, categories of individuals with access, legitimate interests pursued, identity of the Controller(s), any other information  ;  NULL  ;  required by the EU Data Protection Law  ;  NULL&gt;  ,  &lt;Third party is: NULL&gt;}
+          <t xml:space="preserve">&lt;Description: Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App&gt;{#type1#, &lt;Developer ; post, maintain, abide by ; a publicly accessible privacy notice ; within the Developer App ; NULL ; NULL&gt;}
+&lt;Description: The privacy notice must satisfy the transparency and information requirements of the Privacy Requirements and the Agreement&gt;{#type1#,  &lt;  The privacy notice  ;  satisfy  ;  the transparency and information requirements  ;  Privacy Requirements and the Agreement  ; NULL  ; NULL&gt; }
+&lt;Description: If notice cannot be provided in or around Vungle Ads, Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad&gt;{#type1#,  &lt;Developer ; make arrangements ; notice ; within the Developer App or on the landing page of the Vungle Ad ; to provide notice ; if notice cannot be provided in or around Vungle Ads&gt;}
+&lt;Description: The notice shall include information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data&gt;{#type1#,  &lt;  The notice  ;  include information  ;  Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data  ;  NULL  ;  NULL  ; NULL&gt; }
+&lt;Description: The notice shall state that third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads&gt;{#type2#, &lt;The notice  ;  shall state  ;  third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: third parties&gt;}
+&lt;Description: The notice shall include a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting&gt;"#type3-Q1#": null,
+&lt;Description: The notice shall describe the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred to third parties&gt;{#type1#, &lt;The notice ; describe ; the types of Ad Data collected, including Personal Data ; NULL ; how and for what purposes the Ad Data will be used or transferred to third parties ; NULL&gt;}
+&lt;Description: For Ad Data protected by EU Data Protection Law, the privacy notice shall include the type of Personal Data collected, the purposes of processing, categories of individuals with access, legitimate interests pursued, the identity of the Controller(s), and any other information required by the EU Data Protection Law&gt;{#type1#, &lt;privacy notice ; include ; type of Personal Data collected, the purposes of processing, categories of individuals with access, legitimate interests pursued, the identity of the Controller(s), and any other information required by the EU Data Protection Law ; Ad Data protected by EU Data Protection Law ; NULL ; NULL ; NULL&gt;}
 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: A publicly accessible privacy notice within the Developer App can only be posted, maintained, and followed if it satisfies the transparency and information requirements of the Privacy Requirements and the Agreement.', 'A publicly accessible privacy notice  ', '  can be posted, maintained, and followed  ', '  NULL  ', '  NULL  ', '  satisfies the transparency and information requirements of the Privacy Requirements and the Agreement  ', '  NULL'], ['type1', 'Description: The privacy notice must satisfy the transparency and information requirements of the Privacy Requirements and the Agreement.', 'The privacy notice ', ' must satisfy ', ' the transparency and information requirements ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: If notice cannot be provided in or around Vungle Ads, arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad must be made.', 'Privacy Policy ', ' must arrange ', ' notice within the Developer App or on the landing page of the Vungle Ad ', ' from user ', ' to provide notice ', ' if notice cannot be provided in or around Vungle Ads', 'Third party is: Vungle'], ['type2', 'Description: The notice must state that third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads.', 'The notice  ', '  must state  ', '  third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: third parties'], ['type3-Q1', 'Description: The notice must include a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting.', 'NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL', 'mention opt-out : collection and use of information for ad targeting', 'need link to guide how to opt-out'], ['type2', 'Description: The notice must describe the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred to third parties.', 'The notice  ', '  describe  ', '  the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred  ', '  to third parties  ', '  NULL  ', '  NULL'], ['type2', 'Description: If Ad Data is protected by EU Data Protection Law, the privacy notice must include the type of Personal Data collected, the purposes of processing, categories of individuals with access, legitimate interests pursued, the identity of the Controller(s), and any other information required by the EU Data Protection Law.', 'privacy notice  ', '  must include  ', '  type of Personal Data collected, purposes of processing, categories of individuals with access, legitimate interests pursued, identity of the Controller(s), any other information  ', '  NULL  ', '  required by the EU Data Protection Law  ', '  NULL', 'Third party is: NULL']]</t>
+          <t>[['type1', 'Description: Developer represents and warrants that it shall conspicuously post, maintain, and abide by a publically accessible privacy notice within the Developer App', 'Developer ', ' post, maintain, abide by ', ' a publicly accessible privacy notice ', ' within the Developer App ', ' NULL ', ' NULL'], ['type1', 'Description: The privacy notice must satisfy the transparency and information requirements of the Privacy Requirements and the Agreement', '  The privacy notice  ', '  satisfy  ', '  the transparency and information requirements  ', '  Privacy Requirements and the Agreement  ', ' NULL  ', ' NULL'], ['type1', 'Description: If notice cannot be provided in or around Vungle Ads, Developer should make arrangements to provide notice within the Developer App or on the landing page of the Vungle Ad', 'Developer ', ' make arrangements ', ' notice ', ' within the Developer App or on the landing page of the Vungle Ad ', ' to provide notice ', ' if notice cannot be provided in or around Vungle Ads'], ['type1', "Description: The notice shall include information about Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data", '  The notice  ', '  include information  ', "  Vungle and its Demand Partner's use of Tracking Technology to collect, use, and share Ad Data  ", '  NULL  ', '  NULL  ', ' NULL'], ['type2', 'Description: The notice shall state that third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads', 'The notice  ', '  shall state  ', '  third parties may collect or receive Personal Data and use it to provide measurement services and targeted ads  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: third parties'], ['type3-Q1', 'Description: The notice shall include a conspicuous link to or description of how and where users can opt-out of collection and use of information for ad targeting'], ['type1', 'Description: The notice shall describe the types of Ad Data collected, including Personal Data, and how and for what purposes the Ad Data will be used or transferred to third parties', 'The notice ', ' describe ', ' the types of Ad Data collected, including Personal Data ', ' NULL ', ' how and for what purposes the Ad Data will be used or transferred to third parties ', ' NULL'], ['type1', 'Description: For Ad Data protected by EU Data Protection Law, the privacy notice shall include the type of Personal Data collected, the purposes of processing, categories of individuals with access, legitimate interests pursued, the identity of the Controller(s), and any other information required by the EU Data Protection Law', 'privacy notice ', ' include ', ' type of Personal Data collected, the purposes of processing, categories of individuals with access, legitimate interests pursued, the identity of the Controller(s), and any other information required by the EU Data Protection Law ', ' Ad Data protected by EU Data Protection Law ', ' NULL ', ' NULL ', ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You can only post a privacy policy if it is conspicuous and legally adequate&gt;{#type2#, &lt;You  ;  can post  ;  a privacy policy  ;  NULL  ;  conspicuous and legally adequate  ;  NULL&gt;}
-&lt;Description: Your privacy policy can only be posted on each application and/or service of the Publisher Network if it is conspicuous and legally adequate&gt;{#type2#, &lt;Your privacy policy  ;  can be posted  ;  on each application and/or service of the Publisher Network  ;  NULL  ;  NULL  ;  if it is conspicuous and legally adequate&gt;  ,  &lt;NULL&gt;}
-&lt;Description: Your data collection practices can only involve third parties such as MoPub if your privacy policy discloses this collection&gt;{#type2#,  &lt;Your privacy policy  ;  can only involve  ;  data collection practices  ;  from user, share to third parties  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: MoPub &gt; }
-&lt;Description: Your data collection practices can only be for personalized advertising purposes if your policy specifies this&gt;{#type1#, &lt;Your policy ; specifies ; data collection practices for personalized advertising ; NULL ; NULL ; NULL&gt;}
+          <t xml:space="preserve">&lt;Description: You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network&gt;{#type1#,  &lt;  a privacy policy  ;  post and abide by  ;  a conspicuous and legally adequate privacy policy  ;  on each application and/or service of the Publisher Network  ;  NULL  ;  NULL&gt; }
+&lt;Description: The privacy policy must disclose the collection of Service Data by third parties such as MoPub&gt;{#type2#, &lt;The privacy policy ; must disclose ; the collection of Service Data ; from user ; NULL ; NULL&gt;, &lt;Third party is: MoPub&gt;}
 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[['type2', 'Description: You can only post a privacy policy if it is conspicuous and legally adequate', 'You  ', '  can post  ', '  a privacy policy  ', '  NULL  ', '  conspicuous and legally adequate  ', '  NULL'], ['type2', 'Description: Your privacy policy can only be posted on each application and/or service of the Publisher Network if it is conspicuous and legally adequate', 'Your privacy policy  ', '  can be posted  ', '  on each application and/or service of the Publisher Network  ', '  NULL  ', '  NULL  ', '  if it is conspicuous and legally adequate', 'NULL'], ['type2', 'Description: Your data collection practices can only involve third parties such as MoPub if your privacy policy discloses this collection', 'Your privacy policy  ', '  can only involve  ', '  data collection practices  ', '  from user, share to third parties  ', '  NULL  ', '  NULL', 'Third party is: MoPub '], ['type1', 'Description: Your data collection practices can only be for personalized advertising purposes if your policy specifies this', 'Your policy ', ' specifies ', ' data collection practices for personalized advertising ', ' NULL ', ' NULL ', ' NULL']]</t>
+          <t>[['type1', 'Description: You must post and abide by a conspicuous and legally adequate privacy policy on each application and/or service of the Publisher Network', '  a privacy policy  ', '  post and abide by  ', '  a conspicuous and legally adequate privacy policy  ', '  on each application and/or service of the Publisher Network  ', '  NULL  ', '  NULL'], ['type2', 'Description: The privacy policy must disclose the collection of Service Data by third parties such as MoPub', 'The privacy policy ', ' must disclose ', ' the collection of Service Data ', ' from user ', ' NULL ', ' NULL', 'Third party is: MoPub']]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: App Store Terms require obtaining user consent, disclosing data collection practices, and providing opt-out options for compliance.&gt;{#type3-Q1#, &lt; NULL ; NULL ; NULL ; NULL ; NULL ; NULL &gt; , &lt;mention opt-out&gt; , &lt;need link to guidance how to opt-out&gt; }
+          <t xml:space="preserve">&lt;Description: App Store Terms include requirements for obtaining user consent, disclosing data collection practices, and providing opt-out options&gt;{#type1#,  &lt;App Store Terms  ;  require obtaining user consent  ;  obtaining user consent  ;  from user  ;  disclosing data collection practices  ;  unless user opts out&gt;}
 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[['type3-Q1', 'Description: App Store Terms require obtaining user consent, disclosing data collection practices, and providing opt-out options for compliance.', ' NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL ', ' NULL ', 'mention opt-out', 'need link to guidance how to opt-out']]</t>
+          <t>[['type1', 'Description: App Store Terms include requirements for obtaining user consent, disclosing data collection practices, and providing opt-out options', 'App Store Terms  ', '  require obtaining user consent  ', '  obtaining user consent  ', '  from user  ', '  disclosing data collection practices  ', '  unless user opts out']]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: You must disclose and/or include in your app privacy policy all types of data collected through your app, including data sent to Sentry.&gt;{#type1#, &lt;You ; disclose and/or include ; all types of data collected through your app, including data sent to Sentry ; NULL ; NULL ; NULL&gt;}
+          <t xml:space="preserve">&lt;Description: You would need to disclose and/or include in your app privacy policy all types of data you are collecting through your app, including data you are sending to Sentry.&gt;{#type1#,  &lt;  Your app privacy policy  ;  disclose and/or include  ;  all types of data you are collecting through your app, including data you are sending to Sentry  ;  from user  ;  NULL  ; NULL&gt; }
 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: You must disclose and/or include in your app privacy policy all types of data collected through your app, including data sent to Sentry.', 'You ', ' disclose and/or include ', ' all types of data collected through your app, including data sent to Sentry ', ' NULL ', ' NULL ', ' NULL']]</t>
+          <t>[['type1', 'Description: You would need to disclose and/or include in your app privacy policy all types of data you are collecting through your app, including data you are sending to Sentry.', '  Your app privacy policy  ', '  disclose and/or include  ', '  all types of data you are collecting through your app, including data you are sending to Sentry  ', '  from user  ', '  NULL  ', ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: User Data can only be collected, processed, transmitted, maintained, and used if it complies with a privacy policy&gt;{#type1#, &lt;a privacy policy ; allows ; User Data to be collected, processed, transmitted, maintained, and used ; NULL ; NULL ; if it complies with a privacy policy&gt;}
-&lt;Description: The privacy policy must be made available to Users&gt;{#type2#, &lt;The privacy policy ; must be made available ; to Users ; from user ; NULL ; NULL&gt;, &lt;NULL&gt;}
-&lt;Description: The privacy policy must clearly and accurately describe what user information Developer collects&gt;{#type1#, &lt;The privacy policy ; must clearly and accurately describe ; what user information Developer collects ; NULL ; NULL ; NULL&gt;}
-&lt;Description: The privacy policy must also describe how Developer uses and shares that information&gt;{#type2#,  &lt;The privacy policy  ;  must describe  ;  how Developer uses and shares information  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
+          <t xml:space="preserve">&lt;Description: in compliance with a privacy policy that is made available to Users&gt;{#type1#,  &lt;  privacy policy  ;  comply with  ;  privacy policy that is made available to Users  ;  NULL  ;  NULL  ; NULL&gt; }
+&lt;Description: that clearly and accurately describes to Users what user information Developer collects&gt;{#type1#,  &lt;  Privacy Policy  ;  describes  ;  what user information Developer collects  ;  from Users  ;  NULL  ;  NULL&gt; }
+&lt;Description: and how Developer uses and shares that information&gt;{#type1#,  &lt;  Developer  ;  uses and shares   ;  information    ;  NULL  ;  NULL  ; NULL&gt; }
 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: User Data can only be collected, processed, transmitted, maintained, and used if it complies with a privacy policy', 'a privacy policy ', ' allows ', ' User Data to be collected, processed, transmitted, maintained, and used ', ' NULL ', ' NULL ', ' if it complies with a privacy policy'], ['type2', 'Description: The privacy policy must be made available to Users', 'The privacy policy ', ' must be made available ', ' to Users ', ' from user ', ' NULL ', ' NULL', 'NULL'], ['type1', 'Description: The privacy policy must clearly and accurately describe what user information Developer collects', 'The privacy policy ', ' must clearly and accurately describe ', ' what user information Developer collects ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: The privacy policy must also describe how Developer uses and shares that information', 'The privacy policy  ', '  must describe  ', '  how Developer uses and shares information  ', '  NULL  ', '  NULL  ', '  NULL', 'NULL']]</t>
+          <t>[['type1', 'Description: in compliance with a privacy policy that is made available to Users', '  privacy policy  ', '  comply with  ', '  privacy policy that is made available to Users  ', '  NULL  ', '  NULL  ', ' NULL'], ['type1', 'Description: that clearly and accurately describes to Users what user information Developer collects', '  Privacy Policy  ', '  describes  ', '  what user information Developer collects  ', '  from Users  ', '  NULL  ', '  NULL'], ['type1', 'Description: and how Developer uses and shares that information', '  Developer  ', '  uses and shares   ', '  information    ', '  NULL  ', '  NULL  ', ' NULL']]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: Your App can only be submitted to the Zoom Marketplace if you provide your terms of service, privacy policy, and support information ('Your Terms').&gt;{#type2#, &lt;Your Terms  ;  can be submitted  ;  Your App  ;  to the Zoom Marketplace  ;  NULL  ;  NULL&gt;  ,  &lt;NULL&gt;}
+          <t xml:space="preserve">&lt;Description: You will need to provide to the Zoom Marketplace, with your App, your terms of service, privacy policy and support information ('Your Terms').&gt;{#type1#,  &lt;  Your Terms  ;  provide  ;  terms of service, privacy policy and support information  ;  to the Zoom Marketplace  ;  NULL  ;  NULL&gt; }
 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[['type2', "Description: Your App can only be submitted to the Zoom Marketplace if you provide your terms of service, privacy policy, and support information ('Your Terms').", 'Your Terms  ', '  can be submitted  ', '  Your App  ', '  to the Zoom Marketplace  ', '  NULL  ', '  NULL', 'NULL']]</t>
+          <t>[['type1', "Description: You will need to provide to the Zoom Marketplace, with your App, your terms of service, privacy policy and support information ('Your Terms').", '  Your Terms  ', '  provide  ', '  terms of service, privacy policy and support information  ', '  to the Zoom Marketplace  ', '  NULL  ', '  NULL']]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;Description: A privacy policy must be provided conspicuously and be adequate in accordance with applicable privacy laws.&gt;{#type1#, &lt;A privacy policy ; must be provided conspicuously and be adequate ; in accordance with applicable privacy laws ; NULL ; NULL ; NULL&gt;}
-&lt;Description: Data collection and sharing practices can only be implemented if the privacy policy conspicuously describes the data sets collected, use cases related to personal data/information, and mentions that such data will be shared with certain third parties for applicable use cases.&gt;{#type2#, &lt;privacy policy ; conspicuously describes ; data sets collected, use cases related to personal data/information, mentions data sharing ; NULL ; NULL ; NULL&gt; , &lt;Third party is: certain third parties&gt;}
-&lt;Description: Providing sufficient notice regarding rights of End Users with regard to their personal information and clearly providing for mechanisms of Opt Out elections can only be done if You comply with certain privacy laws such as CCPA, CPRA and/or other applicable US state privacy laws, if applicable to the Inventory.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt out&gt;, &lt;NULL&gt;}
-&lt;Description: The privacy policy must mention the use of third parties and use of cookies for attribution and/or serving targeted Advertisements.&gt;{#type2#, &lt;The privacy policy ; must mention ; the use of third parties and use of cookies for attribution and/or serving targeted Advertisements ; NULL ; NULL ; NULL&gt; , &lt;Third party is: third parties&gt;}
+          <t xml:space="preserve">&lt;Description: Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws.&gt;{#type1#,  &lt;  Each Party  ;  provide  ;  a conspicuous privacy policy  ;  NULL  ;  in accordance with applicable privacy laws  ;  NULL&gt; }
+&lt;{#type2#, &lt;Each privacy policy  ;  must set out conspicuously  ;  a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: certain third parties&gt;}&gt;{#type2#, &lt;Each privacy policy  ;  must set out conspicuously  ;  a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases  ;  NULL  ;  NULL  ;  NULL&gt;  ,  &lt;Third party is: certain third parties&gt;}
+&lt;Description: Certain privacy laws such as CCPA, CPRA and/or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out elections which You agree to comply with, if applicable to the Inventory.&gt;{#type3-Q1#, &lt;NULL; NULL; NULL; NULL; NULL; NULL&gt;, &lt;mention opt-out&gt;, &lt;NULL&gt;}
+&lt;Description: Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.&gt;{#type2#, &lt;Such privacy policy ; shall mention ; use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements ; NULL ; NULL ; NULL&gt;, &lt;Third party is: third parties&gt;}
 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[['type1', 'Description: A privacy policy must be provided conspicuously and be adequate in accordance with applicable privacy laws.', 'A privacy policy ', ' must be provided conspicuously and be adequate ', ' in accordance with applicable privacy laws ', ' NULL ', ' NULL ', ' NULL'], ['type2', 'Description: Data collection and sharing practices can only be implemented if the privacy policy conspicuously describes the data sets collected, use cases related to personal data/information, and mentions that such data will be shared with certain third parties for applicable use cases.', 'privacy policy ', ' conspicuously describes ', ' data sets collected, use cases related to personal data/information, mentions data sharing ', ' NULL ', ' NULL ', ' NULL', 'Third party is: certain third parties'], ['type3-Q1', 'Description: Providing sufficient notice regarding rights of End Users with regard to their personal information and clearly providing for mechanisms of Opt Out elections can only be done if You comply with certain privacy laws such as CCPA, CPRA and/or other applicable US state privacy laws, if applicable to the Inventory.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt out', 'NULL'], ['type2', 'Description: The privacy policy must mention the use of third parties and use of cookies for attribution and/or serving targeted Advertisements.', 'The privacy policy ', ' must mention ', ' the use of third parties and use of cookies for attribution and/or serving targeted Advertisements ', ' NULL ', ' NULL ', ' NULL', 'Third party is: third parties']]</t>
+          <t>[['type1', 'Description: Each Party shall provide for a conspicuous privacy policy which is adequate in accordance with applicable privacy laws.', '  Each Party  ', '  provide  ', '  a conspicuous privacy policy  ', '  NULL  ', '  in accordance with applicable privacy laws  ', '  NULL'], ['type2', 'type2', '{#type2#, &lt;Each privacy policy  ', '  must set out conspicuously  ', '  a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: certain third parties', 'Each privacy policy  ', '  must set out conspicuously  ', '  a description of data sets collected or permitted to be collected, use cases related to personal data/information including a clear mention that such data will be shared with certain third parties for applicable use cases  ', '  NULL  ', '  NULL  ', '  NULL', 'Third party is: certain third parties'], ['type3-Q1', 'Description: Certain privacy laws such as CCPA, CPRA and/or other applicable US state privacy laws also requires that You provide sufficient notice regarding rights of End Users with regard to their personal information and clearly provide for mechanisms of Opt Out elections which You agree to comply with, if applicable to the Inventory.', 'NULL', ' NULL', ' NULL', ' NULL', ' NULL', ' NULL', 'mention opt-out', 'NULL'], ['type2', 'Description: Such privacy policy shall also mention use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements.', 'Such privacy policy ', ' shall mention ', ' use of third parties and use of cookies for the purposes of attribution and/or serving targeted Advertisements ', ' NULL ', ' NULL ', ' NULL', 'Third party is: third parties']]</t>
         </is>
       </c>
     </row>
